--- a/FunctionsTests/ExcelTesting/ExcelData/ComposeTestData.xlsx
+++ b/FunctionsTests/ExcelTesting/ExcelData/ComposeTestData.xlsx
@@ -548,7 +548,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M4" s="1">
-        <x:v>43854.55625</x:v>
+        <x:v>43857.6430555556</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M12" s="1">
-        <x:v>43854.55625</x:v>
+        <x:v>43857.6430555556</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M18" s="4">
-        <x:v>43854.55625</x:v>
+        <x:v>43857.6430555556</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:13" x14ac:dyDescent="0.25">

--- a/FunctionsTests/ExcelTesting/ExcelData/ComposeTestData.xlsx
+++ b/FunctionsTests/ExcelTesting/ExcelData/ComposeTestData.xlsx
@@ -5,17 +5,18 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cody\Documents\HEC\HEC-FDA\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cody\source\Repos\flooddamageassessment\FunctionsTests\ExcelTesting\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8BBA88B-EDEE-4581-9276-4A90203608DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2AB583-6940-41E9-B5E5-FBB4DE06CA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="1" xr2:uid="{5775938C-5F5C-45C1-83DA-A38C2BC65912}"/>
+    <x:workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{5775938C-5F5C-45C1-83DA-A38C2BC65912}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Compose - Linear Interpolation" sheetId="2" r:id="rId1"/>
     <x:sheet name="Compose - Spline Interpolation" sheetId="4" r:id="rId2"/>
-    <x:sheet name="Cubic Spline - Aborted Sheet" sheetId="5" r:id="rId3"/>
+    <x:sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <x:sheet name="Cubic Spline - Aborted Sheet" sheetId="5" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="181029"/>
@@ -1430,19 +1431,6 @@
       <x:scheme val="major"/>
     </x:font>
     <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
       <x:sz val="10"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
@@ -1450,11 +1438,26 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:i/>
       <x:sz val="11"/>
+      <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
-      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">
@@ -1488,7 +1491,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="21">
+  <x:borders count="18">
     <x:border>
       <x:left/>
       <x:right/>
@@ -1645,43 +1648,6 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right/>
       <x:top/>
       <x:bottom/>
       <x:diagonal/>
@@ -1697,27 +1663,21 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
+      <x:right/>
       <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+      <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
+    <x:border>
+      <x:left/>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
@@ -1727,26 +1687,18 @@
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+      <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
+    <x:border>
+      <x:left/>
+      <x:right/>
       <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="51">
@@ -1787,10 +1739,10 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1820,13 +1772,10 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1841,7 +1790,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1857,6 +1806,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1880,7 +1832,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1902,8 +1854,29 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="119">
+  <x:cellXfs count="72">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="top" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
@@ -1922,31 +1895,10 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1969,9 +1921,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
@@ -2003,119 +1952,14 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
@@ -2123,40 +1967,16 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2165,70 +1985,55 @@
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5481,43 +5286,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9.8658764491332818E-10</c:v>
+                  <c:v>9.8658764491332797E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.4417437200030581E-2</c:v>
+                  <c:v>-5.4417437200030679E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.4792887015842366E-2</c:v>
+                  <c:v>-8.4792887015842533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.7084360090041248E-2</c:v>
+                  <c:v>-6.7084360090041401E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2750131948179209E-2</c:v>
+                  <c:v>2.2750131948179202E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10199390867461894</c:v>
+                  <c:v>0.10199390867461905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20688195686398744</c:v>
+                  <c:v>0.20688195686398764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33901655960840704</c:v>
+                  <c:v>0.33901655960840721</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55403869480426204</c:v>
+                  <c:v>0.55403869480426193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61013284025842662</c:v>
+                  <c:v>0.6101328402584264</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66759728614585945</c:v>
+                  <c:v>0.66759728614585911</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72574688224992645</c:v>
+                  <c:v>0.72574688224992601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5602,43 +5407,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.15865525393145713</c:v>
+                  <c:v>0.15865525393145699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22826467970867576</c:v>
+                  <c:v>0.22826467970867559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30018202605415834</c:v>
+                  <c:v>0.30018202605415811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37671521353616877</c:v>
+                  <c:v>0.3767152135361686</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.46017216272297101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49482994831713101</c:v>
+                  <c:v>0.49482994831713112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53003649576144907</c:v>
+                  <c:v>0.53003649576144929</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56494441742651635</c:v>
+                  <c:v>0.56494441742651658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5987063256829237</c:v>
+                  <c:v>0.59870632568292403</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70457572338771068</c:v>
+                  <c:v>0.70457572338771124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79137559585586992</c:v>
+                  <c:v>0.79137559585587036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86546245149961054</c:v>
+                  <c:v>0.86546245149961076</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93319279873114191</c:v>
+                  <c:v>0.93319279873114203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6262,43 +6067,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9.8658764491332818E-10</c:v>
+                  <c:v>9.8658764491332797E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.4417437200030581E-2</c:v>
+                  <c:v>-5.4417437200030679E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.4792887015842366E-2</c:v>
+                  <c:v>-8.4792887015842533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.7084360090041248E-2</c:v>
+                  <c:v>-6.7084360090041401E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2750131948179209E-2</c:v>
+                  <c:v>2.2750131948179202E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10199390867461894</c:v>
+                  <c:v>0.10199390867461905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20688195686398744</c:v>
+                  <c:v>0.20688195686398764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33901655960840704</c:v>
+                  <c:v>0.33901655960840721</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55403869480426204</c:v>
+                  <c:v>0.55403869480426193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61013284025842662</c:v>
+                  <c:v>0.6101328402584264</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66759728614585945</c:v>
+                  <c:v>0.66759728614585911</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72574688224992645</c:v>
+                  <c:v>0.72574688224992601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6383,43 +6188,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.15865525393145713</c:v>
+                  <c:v>0.15865525393145699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22826467970867576</c:v>
+                  <c:v>0.22826467970867559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30018202605415834</c:v>
+                  <c:v>0.30018202605415811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37671521353616877</c:v>
+                  <c:v>0.3767152135361686</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.46017216272297101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49482994831713101</c:v>
+                  <c:v>0.49482994831713112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53003649576144907</c:v>
+                  <c:v>0.53003649576144929</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56494441742651635</c:v>
+                  <c:v>0.56494441742651658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5987063256829237</c:v>
+                  <c:v>0.59870632568292403</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70457572338771068</c:v>
+                  <c:v>0.70457572338771124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79137559585586992</c:v>
+                  <c:v>0.79137559585587036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86546245149961054</c:v>
+                  <c:v>0.86546245149961076</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93319279873114191</c:v>
+                  <c:v>0.93319279873114203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,43 +6869,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.70859451930325323</c:v>
+                  <c:v>0.70859451930325301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63444343284034588</c:v>
+                  <c:v>0.63444343284034566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56351141306684693</c:v>
+                  <c:v>0.56351141306684671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49901752667216487</c:v>
+                  <c:v>0.4990175266721647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44418084034570809</c:v>
+                  <c:v>0.44418084034570798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40120132301191236</c:v>
+                  <c:v>0.4012013230119123</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.36820255253532252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34228900901551063</c:v>
+                  <c:v>0.34228900901551074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32056517255204897</c:v>
+                  <c:v>0.32056517255204903</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.30056418542975083</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28153383867439435</c:v>
+                  <c:v>0.28153383867439424</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2631505854969991</c:v>
+                  <c:v>0.26315058549699882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24509087910858438</c:v>
+                  <c:v>0.24509087910858399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12852,580 +12657,593 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N29"/>
+  <x:dimension ref="A1:N31"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A31" sqref="A31"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="K35" sqref="K35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="6" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="8.425781" style="1" customWidth="1"/>
-    <x:col min="8" max="12" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="16.140625" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="18.710938" style="1" customWidth="1"/>
-    <x:col min="15" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="6" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="7" max="7" width="8.425781" style="8" customWidth="1"/>
+    <x:col min="8" max="10" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="11" max="12" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="16.140625" style="8" customWidth="1"/>
+    <x:col min="14" max="14" width="18.710938" style="8" customWidth="1"/>
+    <x:col min="15" max="16384" width="9.140625" style="8" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="4" t="s">
+    <x:row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="4" t="s">
+    <x:row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A3" s="16" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A4" s="16" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="5" t="s">
+    <x:row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="11" t="s">
+    <x:row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="11" t="s"/>
-      <x:c r="C6" s="11" t="s"/>
-      <x:c r="D6" s="11" t="s">
+      <x:c r="B6" s="6" t="s"/>
+      <x:c r="C6" s="6" t="s"/>
+      <x:c r="D6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E6" s="11" t="s"/>
-      <x:c r="F6" s="11" t="s"/>
-      <x:c r="G6" s="11" t="s">
+      <x:c r="E6" s="6" t="s"/>
+      <x:c r="F6" s="6" t="s"/>
+      <x:c r="G6" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H6" s="11" t="s"/>
-      <x:c r="I6" s="11" t="s"/>
-      <x:c r="J6" s="11" t="s">
+      <x:c r="H6" s="6" t="s"/>
+      <x:c r="I6" s="6" t="s"/>
+      <x:c r="J6" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K6" s="11" t="s"/>
-      <x:c r="L6" s="11" t="s">
+      <x:c r="K6" s="6" t="s"/>
+      <x:c r="L6" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="M6" s="11" t="s">
+      <x:c r="M6" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="6" t="s">
+    <x:row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="6" t="s">
+      <x:c r="B7" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="s"/>
-      <x:c r="D7" s="6" t="s">
+      <x:c r="C7" s="13" t="s"/>
+      <x:c r="D7" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E7" s="6" t="s">
+      <x:c r="E7" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F7" s="6" t="s"/>
-      <x:c r="G7" s="6" t="s">
+      <x:c r="F7" s="13" t="s"/>
+      <x:c r="G7" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H7" s="6" t="s">
+      <x:c r="H7" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I7" s="6" t="s"/>
-      <x:c r="J7" s="6" t="s">
+      <x:c r="I7" s="13" t="s"/>
+      <x:c r="J7" s="13" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="K7" s="6" t="s">
+      <x:c r="K7" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L7" s="102" t="s">
+      <x:c r="L7" s="59" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M7" s="8">
-        <x:v>43929.5951388889</x:v>
-      </x:c>
-      <x:c r="N7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="1" t="n">
+      <x:c r="M7" s="14">
+        <x:v>43938.6208333333</x:v>
+      </x:c>
+      <x:c r="N7" s="9" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B8" s="1" t="n">
+      <x:c r="B8" s="8" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D8" s="1" t="n">
+      <x:c r="D8" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="n">
+      <x:c r="E8" s="8" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G8" s="1" t="n">
+      <x:c r="G8" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H8" s="1" t="n">
+      <x:c r="H8" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J8" s="1" t="s">
+      <x:c r="J8" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="K8" s="1" t="s">
+      <x:c r="K8" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="1" t="n">
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B9" s="1" t="n">
+      <x:c r="B9" s="8" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="n">
+      <x:c r="D9" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="n">
+      <x:c r="E9" s="8" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G9" s="1" t="n">
+      <x:c r="G9" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H9" s="1" t="n">
+      <x:c r="H9" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J9" s="1" t="s">
+      <x:c r="J9" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="K9" s="1" t="s">
+      <x:c r="K9" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="1" t="n">
+    <x:row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="n">
+      <x:c r="B10" s="8" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="n">
+      <x:c r="D10" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="n">
+      <x:c r="E10" s="8" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G10" s="1" t="n">
+      <x:c r="G10" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H10" s="1" t="n">
+      <x:c r="H10" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
+      <x:c r="J10" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="K10" s="1" t="s">
+      <x:c r="K10" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="1" t="n">
+    <x:row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="n">
+      <x:c r="B11" s="8" t="n">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="n">
+      <x:c r="D11" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="n">
+      <x:c r="E11" s="8" t="n">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="n">
+      <x:c r="G11" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H11" s="1" t="n">
+      <x:c r="H11" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="J11" s="1" t="s">
+      <x:c r="J11" s="8" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="K11" s="1" t="s">
+      <x:c r="K11" s="8" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="5" t="s">
+    <x:row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="12" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="11" t="s">
+    <x:row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B14" s="11" t="s"/>
-      <x:c r="C14" s="11" t="s"/>
-      <x:c r="D14" s="11" t="s">
+      <x:c r="B14" s="6" t="s"/>
+      <x:c r="C14" s="6" t="s"/>
+      <x:c r="D14" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E14" s="11" t="s"/>
-      <x:c r="F14" s="11" t="s"/>
-      <x:c r="G14" s="11" t="s">
+      <x:c r="E14" s="6" t="s"/>
+      <x:c r="F14" s="6" t="s"/>
+      <x:c r="G14" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H14" s="11" t="s"/>
-      <x:c r="I14" s="11" t="s"/>
-      <x:c r="J14" s="11" t="s">
+      <x:c r="H14" s="6" t="s"/>
+      <x:c r="I14" s="6" t="s"/>
+      <x:c r="J14" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K14" s="11" t="s"/>
-      <x:c r="L14" s="11" t="s">
+      <x:c r="K14" s="6" t="s"/>
+      <x:c r="L14" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="M14" s="11" t="s">
+      <x:c r="M14" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="6" t="s">
+    <x:row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B15" s="6" t="s">
+      <x:c r="B15" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C15" s="6" t="s"/>
-      <x:c r="D15" s="6" t="s">
+      <x:c r="C15" s="13" t="s"/>
+      <x:c r="D15" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E15" s="6" t="s">
+      <x:c r="E15" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F15" s="6" t="s"/>
-      <x:c r="G15" s="6" t="s">
+      <x:c r="F15" s="13" t="s"/>
+      <x:c r="G15" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H15" s="6" t="s">
+      <x:c r="H15" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I15" s="6" t="s"/>
-      <x:c r="J15" s="6" t="s">
+      <x:c r="I15" s="13" t="s"/>
+      <x:c r="J15" s="13" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="K15" s="6" t="s">
+      <x:c r="K15" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L15" s="102" t="s">
+      <x:c r="L15" s="59" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M15" s="8">
-        <x:v>43929.5951388889</x:v>
-      </x:c>
-      <x:c r="N15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="1" t="n">
+      <x:c r="M15" s="14">
+        <x:v>43938.6208333333</x:v>
+      </x:c>
+      <x:c r="N15" s="9" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B16" s="1" t="n">
+      <x:c r="B16" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="n">
+      <x:c r="D16" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="n">
+      <x:c r="E16" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G16" s="1" t="n">
+      <x:c r="G16" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H16" s="1" t="n">
+      <x:c r="H16" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J16" s="1" t="s">
+      <x:c r="J16" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="K16" s="1" t="s">
+      <x:c r="K16" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="M16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="1" t="n">
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B17" s="1" t="n">
+      <x:c r="B17" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="n">
+      <x:c r="D17" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="n">
+      <x:c r="E17" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G17" s="1" t="n">
+      <x:c r="G17" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H17" s="1" t="n">
+      <x:c r="H17" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J17" s="1" t="s">
+      <x:c r="J17" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="K17" s="1" t="s">
+      <x:c r="K17" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="5" t="s">
+    <x:row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="11" t="s">
+    <x:row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B20" s="11" t="s"/>
-      <x:c r="C20" s="11" t="s"/>
-      <x:c r="D20" s="11" t="s">
+      <x:c r="B20" s="6" t="s"/>
+      <x:c r="C20" s="6" t="s"/>
+      <x:c r="D20" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E20" s="11" t="s"/>
-      <x:c r="F20" s="11" t="s"/>
-      <x:c r="G20" s="11" t="s">
+      <x:c r="E20" s="6" t="s"/>
+      <x:c r="F20" s="6" t="s"/>
+      <x:c r="G20" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H20" s="11" t="s"/>
-      <x:c r="I20" s="11" t="s"/>
-      <x:c r="J20" s="11" t="s">
+      <x:c r="H20" s="6" t="s"/>
+      <x:c r="I20" s="6" t="s"/>
+      <x:c r="J20" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K20" s="11" t="s"/>
-      <x:c r="L20" s="11" t="s">
+      <x:c r="K20" s="6" t="s"/>
+      <x:c r="L20" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="M20" s="11" t="s">
+      <x:c r="M20" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="6" t="s">
+    <x:row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B21" s="6" t="s">
+      <x:c r="B21" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C21" s="6" t="s"/>
-      <x:c r="D21" s="6" t="s">
+      <x:c r="C21" s="13" t="s"/>
+      <x:c r="D21" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E21" s="6" t="s">
+      <x:c r="E21" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F21" s="6" t="s"/>
-      <x:c r="G21" s="6" t="s">
+      <x:c r="F21" s="13" t="s"/>
+      <x:c r="G21" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H21" s="6" t="s">
+      <x:c r="H21" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I21" s="6" t="s"/>
-      <x:c r="J21" s="6" t="s">
+      <x:c r="I21" s="13" t="s"/>
+      <x:c r="J21" s="13" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="K21" s="6" t="s">
+      <x:c r="K21" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L21" s="102" t="s">
+      <x:c r="L21" s="59" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M21" s="9">
-        <x:v>43929.5951388889</x:v>
-      </x:c>
-      <x:c r="N21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A22" s="1" t="n">
+      <x:c r="M21" s="15">
+        <x:v>43938.6208333333</x:v>
+      </x:c>
+      <x:c r="N21" s="9" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B22" s="1" t="n">
+      <x:c r="B22" s="8" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="n">
+      <x:c r="D22" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="n">
+      <x:c r="E22" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G22" s="1" t="n">
+      <x:c r="G22" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H22" s="1" t="n">
+      <x:c r="H22" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J22" s="1" t="s">
+      <x:c r="J22" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="K22" s="1" t="s">
+      <x:c r="K22" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="M22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A23" s="1" t="n">
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B23" s="1" t="n">
+      <x:c r="B23" s="8" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D23" s="1" t="n">
+      <x:c r="D23" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E23" s="1" t="n">
+      <x:c r="E23" s="8" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G23" s="1" t="n">
+      <x:c r="G23" s="8" t="n">
         <x:v>1.5</x:v>
       </x:c>
-      <x:c r="H23" s="1" t="n">
+      <x:c r="H23" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="J23" s="1" t="s">
+      <x:c r="J23" s="8" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="K23" s="1" t="s">
+      <x:c r="K23" s="8" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A25" s="5" t="s">
+      <x:c r="M23" s="9" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A25" s="12" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="11" t="s">
+    <x:row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B26" s="11" t="s"/>
-      <x:c r="C26" s="11" t="s"/>
-      <x:c r="D26" s="11" t="s">
+      <x:c r="B26" s="6" t="s"/>
+      <x:c r="C26" s="6" t="s"/>
+      <x:c r="D26" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E26" s="11" t="s"/>
-      <x:c r="F26" s="11" t="s"/>
-      <x:c r="G26" s="11" t="s">
+      <x:c r="E26" s="6" t="s"/>
+      <x:c r="F26" s="6" t="s"/>
+      <x:c r="G26" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H26" s="11" t="s"/>
-      <x:c r="I26" s="11" t="s"/>
-      <x:c r="J26" s="11" t="s">
+      <x:c r="H26" s="6" t="s"/>
+      <x:c r="I26" s="6" t="s"/>
+      <x:c r="J26" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K26" s="11" t="s"/>
-      <x:c r="L26" s="11" t="s">
+      <x:c r="K26" s="6" t="s"/>
+      <x:c r="L26" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="M26" s="11" t="s">
+      <x:c r="M26" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A27" s="6" t="s">
+    <x:row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A27" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B27" s="6" t="s">
+      <x:c r="B27" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C27" s="6" t="s"/>
-      <x:c r="D27" s="6" t="s">
+      <x:c r="C27" s="13" t="s"/>
+      <x:c r="D27" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E27" s="6" t="s">
+      <x:c r="E27" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F27" s="6" t="s"/>
-      <x:c r="G27" s="6" t="s">
+      <x:c r="F27" s="13" t="s"/>
+      <x:c r="G27" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H27" s="6" t="s">
+      <x:c r="H27" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I27" s="6" t="s"/>
-      <x:c r="J27" s="6" t="s">
+      <x:c r="I27" s="13" t="s"/>
+      <x:c r="J27" s="13" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="K27" s="6" t="s">
+      <x:c r="K27" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L27" s="102" t="s">
+      <x:c r="L27" s="59" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M27" s="9">
-        <x:v>43929.5951388889</x:v>
-      </x:c>
-      <x:c r="N27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A28" s="1" t="n">
+      <x:c r="M27" s="15">
+        <x:v>43938.6208333333</x:v>
+      </x:c>
+      <x:c r="N27" s="9" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A28" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B28" s="1" t="n">
+      <x:c r="B28" s="8" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D28" s="1" t="n">
+      <x:c r="D28" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E28" s="1" t="n">
+      <x:c r="E28" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G28" s="1" t="n">
+      <x:c r="G28" s="8" t="n">
         <x:v>-9999</x:v>
       </x:c>
-      <x:c r="H28" s="1" t="n">
+      <x:c r="H28" s="8" t="n">
         <x:v>-9999</x:v>
       </x:c>
-      <x:c r="J28" s="1" t="s">
+      <x:c r="J28" s="8" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="M28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <x:c r="A29" s="1" t="n">
+      <x:c r="K28" s="0" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <x:c r="A29" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B29" s="1" t="n">
+      <x:c r="B29" s="8" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D29" s="1" t="n">
+      <x:c r="D29" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E29" s="1" t="n">
+      <x:c r="E29" s="8" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:14" s="0" customFormat="1">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s"/>
-      <x:c r="F31" s="0" t="s"/>
-      <x:c r="G31" s="0" t="s"/>
-      <x:c r="H31" s="0" t="s"/>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
-      <x:c r="K31" s="0" t="s"/>
-      <x:c r="L31" s="0" t="s"/>
-      <x:c r="M31" s="0" t="s"/>
-      <x:c r="N31" s="0" t="s"/>
+    <x:row r="31" spans="1:15" s="0" customFormat="1" x14ac:dyDescent="0.25"/>
+    <x:row r="35" spans="1:15" s="0" customFormat="1">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s"/>
+      <x:c r="F35" s="0" t="s"/>
+      <x:c r="G35" s="0" t="s"/>
+      <x:c r="H35" s="0" t="s"/>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+      <x:c r="K35" s="0" t="s"/>
+      <x:c r="L35" s="0" t="s"/>
+      <x:c r="M35" s="0" t="s"/>
+      <x:c r="N35" s="0" t="s"/>
+      <x:c r="O35" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="16">
+    <x:mergeCell ref="J26:K26"/>
+    <x:mergeCell ref="G26:H26"/>
+    <x:mergeCell ref="D26:E26"/>
+    <x:mergeCell ref="A26:B26"/>
+    <x:mergeCell ref="J20:K20"/>
+    <x:mergeCell ref="G20:H20"/>
+    <x:mergeCell ref="D20:E20"/>
+    <x:mergeCell ref="A20:B20"/>
     <x:mergeCell ref="J14:K14"/>
     <x:mergeCell ref="G14:H14"/>
     <x:mergeCell ref="D14:E14"/>
@@ -13434,14 +13252,6 @@
     <x:mergeCell ref="G6:H6"/>
     <x:mergeCell ref="D6:E6"/>
     <x:mergeCell ref="A6:B6"/>
-    <x:mergeCell ref="J26:K26"/>
-    <x:mergeCell ref="G26:H26"/>
-    <x:mergeCell ref="D26:E26"/>
-    <x:mergeCell ref="A26:B26"/>
-    <x:mergeCell ref="J20:K20"/>
-    <x:mergeCell ref="G20:H20"/>
-    <x:mergeCell ref="D20:E20"/>
-    <x:mergeCell ref="A20:B20"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13459,59 +13269,60 @@
   </x:sheetPr>
   <x:dimension ref="A1:BJ77"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A37" sqref="A37"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="E26" sqref="E26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="15.425781" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="8.425781" style="1" customWidth="1"/>
-    <x:col min="8" max="8" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="12" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="16.140625" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="18.710938" style="1" customWidth="1"/>
-    <x:col min="15" max="15" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="17" max="23" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="24" max="24" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="25" max="25" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="27" max="27" width="15.425781" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="28" max="28" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="29" max="29" width="15.425781" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="30" max="33" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="34" max="34" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="35" max="35" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="36" max="36" width="16.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="38" max="40" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="41" max="41" width="10" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="42" max="42" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="43" max="43" width="10" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="44" max="44" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="45" max="45" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="46" max="46" width="12.855469" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="47" max="47" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="48" max="48" width="9.285156" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="49" max="49" width="12.855469" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="50" max="57" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="58" max="58" width="13.710938" style="1" customWidth="1"/>
-    <x:col min="59" max="60" width="12.710938" style="1" customWidth="1"/>
-    <x:col min="61" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="15.425781" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="4" max="4" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="9.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="7" max="7" width="8.425781" style="8" customWidth="1"/>
+    <x:col min="8" max="8" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="12" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="13" max="13" width="16.140625" style="8" customWidth="1"/>
+    <x:col min="14" max="14" width="18.710938" style="8" customWidth="1"/>
+    <x:col min="15" max="15" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16" width="10" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="17" max="23" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="24" max="24" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="25" max="25" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="26" max="26" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="27" max="27" width="15.425781" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="28" max="28" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="29" max="29" width="15.425781" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="30" max="33" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="34" max="34" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="35" max="35" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="36" max="36" width="16.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="37" max="37" width="10" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="38" max="40" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="41" max="41" width="10" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="42" max="42" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="43" max="43" width="10" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="44" max="44" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="45" max="45" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="46" max="46" width="12.855469" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="47" max="47" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="48" max="48" width="9.285156" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="49" max="49" width="12.855469" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="50" max="57" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="58" max="58" width="13.710938" style="8" customWidth="1"/>
+    <x:col min="59" max="60" width="12.710938" style="8" customWidth="1"/>
+    <x:col min="61" max="16384" width="9.140625" style="8" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="4" t="s">
+      <x:c r="A1" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="4" t="s">
+      <x:c r="A2" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -13552,29 +13363,29 @@
       <x:c r="AO3" s="20" t="s"/>
       <x:c r="AP3" s="20" t="s"/>
       <x:c r="AQ3" s="21" t="s"/>
-      <x:c r="AS3" s="103" t="s">
+      <x:c r="AS3" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="AT3" s="104" t="s"/>
-      <x:c r="AV3" s="103" t="s">
+      <x:c r="AT3" s="3" t="s"/>
+      <x:c r="AV3" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AW3" s="104" t="s"/>
+      <x:c r="AW3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <x:c r="A4" s="16" t="s"/>
       <x:c r="O4" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="W4" s="24" t="s"/>
+      <x:c r="W4" s="23" t="s"/>
       <x:c r="Y4" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AG4" s="24" t="s"/>
+      <x:c r="AG4" s="23" t="s"/>
       <x:c r="AI4" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AQ4" s="24" t="s"/>
+      <x:c r="AQ4" s="23" t="s"/>
       <x:c r="AS4" s="17" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -13589,10 +13400,10 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="A5" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O5" s="25" t="s">
+      <x:c r="O5" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="P5" s="17" t="s">
@@ -13613,10 +13424,10 @@
       <x:c r="V5" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="W5" s="26" t="s">
+      <x:c r="W5" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="Y5" s="25" t="s">
+      <x:c r="Y5" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z5" s="17" t="s">
@@ -13637,10 +13448,10 @@
       <x:c r="AF5" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AG5" s="26" t="s">
+      <x:c r="AG5" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="AI5" s="25" t="s">
+      <x:c r="AI5" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ5" s="17" t="s">
@@ -13661,7 +13472,7 @@
       <x:c r="AP5" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AQ5" s="26" t="s">
+      <x:c r="AQ5" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="AS5" s="18">
@@ -13678,52 +13489,52 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="11" t="s">
+      <x:c r="A6" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="11" t="s"/>
-      <x:c r="C6" s="11" t="s"/>
-      <x:c r="D6" s="11" t="s">
+      <x:c r="B6" s="6" t="s"/>
+      <x:c r="C6" s="6" t="s"/>
+      <x:c r="D6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E6" s="11" t="s"/>
-      <x:c r="F6" s="11" t="s"/>
-      <x:c r="G6" s="11" t="s">
+      <x:c r="E6" s="6" t="s"/>
+      <x:c r="F6" s="6" t="s"/>
+      <x:c r="G6" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H6" s="11" t="s"/>
-      <x:c r="I6" s="11" t="s"/>
-      <x:c r="J6" s="11" t="s">
+      <x:c r="H6" s="6" t="s"/>
+      <x:c r="I6" s="6" t="s"/>
+      <x:c r="J6" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K6" s="11" t="s"/>
-      <x:c r="L6" s="11" t="s">
+      <x:c r="K6" s="6" t="s"/>
+      <x:c r="L6" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="M6" s="11" t="s">
+      <x:c r="M6" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="O6" s="27" t="n">
+      <x:c r="O6" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="P6" s="105" t="s"/>
-      <x:c r="Q6" s="105" t="s"/>
+      <x:c r="P6" s="60" t="s"/>
+      <x:c r="Q6" s="60" t="s"/>
       <x:c r="S6" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T6" s="18">
-        <x:f> P7 - P6</x:f>
+        <x:f>P7 - P6</x:f>
       </x:c>
       <x:c r="U6" s="18">
-        <x:f> T6 + T7</x:f>
+        <x:f>T6 + T7</x:f>
       </x:c>
       <x:c r="V6" s="18">
-        <x:f> Q7 - Q6</x:f>
-      </x:c>
-      <x:c r="W6" s="28" t="e">
-        <x:f> V6 / T6</x:f>
-      </x:c>
-      <x:c r="Y6" s="27" t="n">
+        <x:f>Q7 - Q6</x:f>
+      </x:c>
+      <x:c r="W6" s="27" t="e">
+        <x:f>V6 / T6</x:f>
+      </x:c>
+      <x:c r="Y6" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z6" s="18">
@@ -13736,18 +13547,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD6" s="18">
-        <x:f> Z7 - Z6</x:f>
+        <x:f>Z7 - Z6</x:f>
       </x:c>
       <x:c r="AE6" s="18">
-        <x:f> AD6 + AD7</x:f>
+        <x:f>AD6 + AD7</x:f>
       </x:c>
       <x:c r="AF6" s="18">
-        <x:f> AA7 - AA6</x:f>
-      </x:c>
-      <x:c r="AG6" s="28">
-        <x:f> AF6 / AD6</x:f>
-      </x:c>
-      <x:c r="AI6" s="27" t="n">
+        <x:f>AA7 - AA6</x:f>
+      </x:c>
+      <x:c r="AG6" s="27">
+        <x:f>AF6 / AD6</x:f>
+      </x:c>
+      <x:c r="AI6" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ6" s="18">
@@ -13760,82 +13571,82 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN6" s="18">
-        <x:f> AJ7 - AJ6</x:f>
+        <x:f>AJ7 - AJ6</x:f>
       </x:c>
       <x:c r="AO6" s="18">
-        <x:f> AN6 + AN7</x:f>
+        <x:f>AN6 + AN7</x:f>
       </x:c>
       <x:c r="AP6" s="18">
-        <x:f> AK7 - AK6</x:f>
-      </x:c>
-      <x:c r="AQ6" s="28">
-        <x:f> AP6 / AN6</x:f>
+        <x:f>AK7 - AK6</x:f>
+      </x:c>
+      <x:c r="AQ6" s="27">
+        <x:f>AP6 / AN6</x:f>
       </x:c>
       <x:c r="AS6" s="18">
         <x:f>AS5+1/4*(AS9-AS5)</x:f>
       </x:c>
       <x:c r="AT6" s="18">
-        <x:f> Z18 * (AS6 - AS5)^3 + AA18 * (AS6 - AS5)^2 + AB18 * (AS6 - AS5) + AC18</x:f>
+        <x:f>Z18 * (AS6 - AS5)^3 + AA18 * (AS6 - AS5)^2 + AB18 * (AS6 - AS5) + AC18</x:f>
       </x:c>
       <x:c r="AV6" s="18">
         <x:f>AV5+1/4*(AV9-AV5)</x:f>
       </x:c>
       <x:c r="AW6" s="18">
-        <x:f> AJ18 * (AV6 - AV5)^3 + AK18 * (AV6 - AV5)^2 + AL18 * (AV6 - AV5) + AM18</x:f>
+        <x:f>AJ18 * (AV6 - AV5)^3 + AK18 * (AV6 - AV5)^2 + AL18 * (AV6 - AV5) + AM18</x:f>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="6" t="s">
+      <x:c r="A7" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="6" t="s">
+      <x:c r="B7" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="s"/>
-      <x:c r="D7" s="6" t="s">
+      <x:c r="C7" s="13" t="s"/>
+      <x:c r="D7" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E7" s="6" t="s">
+      <x:c r="E7" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F7" s="6" t="s"/>
-      <x:c r="G7" s="6" t="s">
+      <x:c r="F7" s="13" t="s"/>
+      <x:c r="G7" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H7" s="6" t="s">
+      <x:c r="H7" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I7" s="6" t="s"/>
-      <x:c r="J7" s="6" t="s">
+      <x:c r="I7" s="13" t="s"/>
+      <x:c r="J7" s="13" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="K7" s="6" t="s">
+      <x:c r="K7" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L7" s="6" t="s"/>
-      <x:c r="M7" s="8" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="27" t="n">
+      <x:c r="L7" s="13" t="s"/>
+      <x:c r="M7" s="14" t="s"/>
+      <x:c r="N7" s="9" t="s"/>
+      <x:c r="O7" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="P7" s="105" t="s"/>
-      <x:c r="Q7" s="105" t="s"/>
+      <x:c r="P7" s="60" t="s"/>
+      <x:c r="Q7" s="60" t="s"/>
       <x:c r="S7" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T7" s="18">
-        <x:f> P8 - P7</x:f>
+        <x:f>P8 - P7</x:f>
       </x:c>
       <x:c r="U7" s="18">
-        <x:f> T7 + T8</x:f>
+        <x:f>T7 + T8</x:f>
       </x:c>
       <x:c r="V7" s="18">
-        <x:f> Q8 - Q7</x:f>
-      </x:c>
-      <x:c r="W7" s="28" t="e">
-        <x:f> V7 / T7</x:f>
-      </x:c>
-      <x:c r="Y7" s="27" t="n">
+        <x:f>Q8 - Q7</x:f>
+      </x:c>
+      <x:c r="W7" s="27" t="e">
+        <x:f>V7 / T7</x:f>
+      </x:c>
+      <x:c r="Y7" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z7" s="18">
@@ -13848,18 +13659,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AD7" s="18">
-        <x:f> Z8 - Z7</x:f>
+        <x:f>Z8 - Z7</x:f>
       </x:c>
       <x:c r="AE7" s="18">
-        <x:f> AD7 + AD8</x:f>
+        <x:f>AD7 + AD8</x:f>
       </x:c>
       <x:c r="AF7" s="18">
-        <x:f> AA8 - AA7</x:f>
-      </x:c>
-      <x:c r="AG7" s="28">
-        <x:f> AF7 / AD7</x:f>
-      </x:c>
-      <x:c r="AI7" s="27" t="n">
+        <x:f>AA8 - AA7</x:f>
+      </x:c>
+      <x:c r="AG7" s="27">
+        <x:f>AF7 / AD7</x:f>
+      </x:c>
+      <x:c r="AI7" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ7" s="18">
@@ -13872,69 +13683,69 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AN7" s="18">
-        <x:f> AJ8 - AJ7</x:f>
+        <x:f>AJ8 - AJ7</x:f>
       </x:c>
       <x:c r="AO7" s="18">
-        <x:f> AN7 + AN8</x:f>
+        <x:f>AN7 + AN8</x:f>
       </x:c>
       <x:c r="AP7" s="18">
-        <x:f> AK8 - AK7</x:f>
-      </x:c>
-      <x:c r="AQ7" s="28">
-        <x:f> AP7 / AN7</x:f>
+        <x:f>AK8 - AK7</x:f>
+      </x:c>
+      <x:c r="AQ7" s="27">
+        <x:f>AP7 / AN7</x:f>
       </x:c>
       <x:c r="AS7" s="18">
         <x:f>AS5+2/4*(AS9-AS5)</x:f>
       </x:c>
       <x:c r="AT7" s="18">
-        <x:f> Z18 * (AS7 - AS5)^3 + AA18 * (AS7 - AS5)^2 + AB18 * (AS7 - AS5) + AC18</x:f>
+        <x:f>Z18 * (AS7 - AS5)^3 + AA18 * (AS7 - AS5)^2 + AB18 * (AS7 - AS5) + AC18</x:f>
       </x:c>
       <x:c r="AV7" s="18">
         <x:f>AV5+2/4*(AV9-AV5)</x:f>
       </x:c>
       <x:c r="AW7" s="18">
-        <x:f> AJ18 * (AV7 - AV5)^3 + AK18 * (AV7 - AV5)^2 + AL18 * (AV7 - AV5) + AM18</x:f>
+        <x:f>AJ18 * (AV7 - AV5)^3 + AK18 * (AV7 - AV5)^2 + AL18 * (AV7 - AV5) + AM18</x:f>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="1" t="n">
+      <x:c r="A8" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B8" s="1" t="n">
+      <x:c r="B8" s="8" t="n">
         <x:v>1.098612</x:v>
       </x:c>
-      <x:c r="D8" s="1" t="n">
+      <x:c r="D8" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="n">
+      <x:c r="E8" s="8" t="n">
         <x:v>1.098612</x:v>
       </x:c>
-      <x:c r="G8" s="1" t="n">
+      <x:c r="G8" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H8" s="1" t="n">
+      <x:c r="H8" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="M8" s="3" t="s"/>
-      <x:c r="O8" s="27" t="n">
+      <x:c r="M8" s="10" t="s"/>
+      <x:c r="O8" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="P8" s="105" t="s"/>
-      <x:c r="Q8" s="105" t="s"/>
+      <x:c r="P8" s="60" t="s"/>
+      <x:c r="Q8" s="60" t="s"/>
       <x:c r="S8" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="T8" s="18">
-        <x:f> P9 - P8</x:f>
+        <x:f>P9 - P8</x:f>
       </x:c>
       <x:c r="U8" s="18" t="s"/>
       <x:c r="V8" s="18">
-        <x:f> Q9 - Q8</x:f>
-      </x:c>
-      <x:c r="W8" s="28" t="e">
-        <x:f> V8 / T8</x:f>
-      </x:c>
-      <x:c r="Y8" s="27" t="n">
+        <x:f>Q9 - Q8</x:f>
+      </x:c>
+      <x:c r="W8" s="27" t="e">
+        <x:f>V8 / T8</x:f>
+      </x:c>
+      <x:c r="Y8" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="Z8" s="18">
@@ -13947,16 +13758,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="AD8" s="18">
-        <x:f> Z9 - Z8</x:f>
+        <x:f>Z9 - Z8</x:f>
       </x:c>
       <x:c r="AE8" s="18" t="s"/>
       <x:c r="AF8" s="18">
-        <x:f> AA9 - AA8</x:f>
-      </x:c>
-      <x:c r="AG8" s="28">
-        <x:f> AF8 / AD8</x:f>
-      </x:c>
-      <x:c r="AI8" s="27" t="n">
+        <x:f>AA9 - AA8</x:f>
+      </x:c>
+      <x:c r="AG8" s="27">
+        <x:f>AF8 / AD8</x:f>
+      </x:c>
+      <x:c r="AI8" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AJ8" s="18">
@@ -13969,54 +13780,54 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="AN8" s="18">
-        <x:f> AJ9 - AJ8</x:f>
+        <x:f>AJ9 - AJ8</x:f>
       </x:c>
       <x:c r="AO8" s="18" t="s"/>
       <x:c r="AP8" s="18">
-        <x:f> AK9 - AK8</x:f>
-      </x:c>
-      <x:c r="AQ8" s="28">
-        <x:f> AP8 / AN8</x:f>
+        <x:f>AK9 - AK8</x:f>
+      </x:c>
+      <x:c r="AQ8" s="27">
+        <x:f>AP8 / AN8</x:f>
       </x:c>
       <x:c r="AS8" s="18">
         <x:f>AS5+3/4*(AS9-AS5)</x:f>
       </x:c>
       <x:c r="AT8" s="18">
-        <x:f> Z18 * (AS8 - AS5)^3 + AA18 * (AS8 - AS5)^2 + AB18 * (AS8 - AS5) + AC18</x:f>
+        <x:f>Z18 * (AS8 - AS5)^3 + AA18 * (AS8 - AS5)^2 + AB18 * (AS8 - AS5) + AC18</x:f>
       </x:c>
       <x:c r="AV8" s="18">
         <x:f>AV5+3/4*(AV9-AV5)</x:f>
       </x:c>
       <x:c r="AW8" s="18">
-        <x:f> AJ18 * (AV8 - AV5)^3 + AK18 * (AV8 - AV5)^2 + AL18 * (AV8 - AV5) + AM18</x:f>
+        <x:f>AJ18 * (AV8 - AV5)^3 + AK18 * (AV8 - AV5)^2 + AL18 * (AV8 - AV5) + AM18</x:f>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="1" t="n">
+      <x:c r="A9" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B9" s="1" t="n">
+      <x:c r="B9" s="8" t="n">
         <x:v>1.791759</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="n">
+      <x:c r="D9" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="n">
+      <x:c r="E9" s="8" t="n">
         <x:v>1.791759</x:v>
       </x:c>
-      <x:c r="G9" s="1" t="n">
+      <x:c r="G9" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H9" s="1" t="n">
+      <x:c r="H9" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="O9" s="27" t="n">
+      <x:c r="O9" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="P9" s="105" t="s"/>
-      <x:c r="Q9" s="105" t="s"/>
-      <x:c r="W9" s="24" t="s"/>
-      <x:c r="Y9" s="27" t="n">
+      <x:c r="P9" s="60" t="s"/>
+      <x:c r="Q9" s="60" t="s"/>
+      <x:c r="W9" s="23" t="s"/>
+      <x:c r="Y9" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="Z9" s="18">
@@ -14025,8 +13836,8 @@
       <x:c r="AA9" s="18">
         <x:f>B11</x:f>
       </x:c>
-      <x:c r="AG9" s="24" t="s"/>
-      <x:c r="AI9" s="27" t="n">
+      <x:c r="AG9" s="23" t="s"/>
+      <x:c r="AI9" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AJ9" s="18">
@@ -14035,7 +13846,7 @@
       <x:c r="AK9" s="18">
         <x:f>E11</x:f>
       </x:c>
-      <x:c r="AQ9" s="24" t="s"/>
+      <x:c r="AQ9" s="23" t="s"/>
       <x:c r="AS9" s="18">
         <x:f>Z7</x:f>
       </x:c>
@@ -14050,116 +13861,116 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="1" t="n">
+      <x:c r="A10" s="8" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="n">
+      <x:c r="B10" s="8" t="n">
         <x:v>2.639057</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="n">
+      <x:c r="D10" s="8" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="n">
+      <x:c r="E10" s="8" t="n">
         <x:v>2.639057</x:v>
       </x:c>
-      <x:c r="G10" s="1" t="n">
+      <x:c r="G10" s="8" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H10" s="1" t="n">
+      <x:c r="H10" s="8" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O10" s="29" t="s"/>
-      <x:c r="W10" s="24" t="s"/>
-      <x:c r="Y10" s="29" t="s"/>
-      <x:c r="AG10" s="24" t="s"/>
-      <x:c r="AI10" s="29" t="s"/>
-      <x:c r="AQ10" s="24" t="s"/>
+      <x:c r="O10" s="28" t="s"/>
+      <x:c r="W10" s="23" t="s"/>
+      <x:c r="Y10" s="28" t="s"/>
+      <x:c r="AG10" s="23" t="s"/>
+      <x:c r="AI10" s="28" t="s"/>
+      <x:c r="AQ10" s="23" t="s"/>
       <x:c r="AS10" s="18">
         <x:f>AS9+1/4*(AS13-AS9)</x:f>
       </x:c>
       <x:c r="AT10" s="18">
-        <x:f> Z19 * (AS10 - AS9)^3 + AA19 * (AS10 - AS9)^2 + AB19 * (AS10 - AS9) + AC19</x:f>
+        <x:f>Z19 * (AS10 - AS9)^3 + AA19 * (AS10 - AS9)^2 + AB19 * (AS10 - AS9) + AC19</x:f>
       </x:c>
       <x:c r="AV10" s="18">
         <x:f>AV9+1/4*(AV13-AV9)</x:f>
       </x:c>
       <x:c r="AW10" s="18">
-        <x:f> AJ19 * (AV10 - AV9)^3 + AK19 * (AV10 - AV9)^2 + AL19 * (AV10 - AV9) + AM19</x:f>
+        <x:f>AJ19 * (AV10 - AV9)^3 + AK19 * (AV10 - AV9)^2 + AL19 * (AV10 - AV9) + AM19</x:f>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="1" t="n">
+      <x:c r="A11" s="8" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="n">
+      <x:c r="B11" s="8" t="n">
         <x:v>2.772589</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="n">
+      <x:c r="D11" s="8" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="n">
+      <x:c r="E11" s="8" t="n">
         <x:v>2.772589</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="n">
+      <x:c r="G11" s="8" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H11" s="1" t="n">
+      <x:c r="H11" s="8" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="O11" s="29" t="s"/>
-      <x:c r="P11" s="103" t="s">
+      <x:c r="O11" s="28" t="s"/>
+      <x:c r="P11" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="Q11" s="106" t="s"/>
-      <x:c r="R11" s="106" t="s"/>
-      <x:c r="S11" s="104" t="s"/>
+      <x:c r="Q11" s="4" t="s"/>
+      <x:c r="R11" s="4" t="s"/>
+      <x:c r="S11" s="3" t="s"/>
       <x:c r="U11" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="W11" s="26" t="s">
+      <x:c r="W11" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="Y11" s="29" t="s"/>
-      <x:c r="Z11" s="103" t="s">
+      <x:c r="Y11" s="28" t="s"/>
+      <x:c r="Z11" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AA11" s="106" t="s"/>
-      <x:c r="AB11" s="106" t="s"/>
-      <x:c r="AC11" s="104" t="s"/>
+      <x:c r="AA11" s="4" t="s"/>
+      <x:c r="AB11" s="4" t="s"/>
+      <x:c r="AC11" s="3" t="s"/>
       <x:c r="AE11" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AG11" s="26" t="s">
+      <x:c r="AG11" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AI11" s="29" t="s"/>
-      <x:c r="AJ11" s="103" t="s">
+      <x:c r="AI11" s="28" t="s"/>
+      <x:c r="AJ11" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AK11" s="106" t="s"/>
-      <x:c r="AL11" s="106" t="s"/>
-      <x:c r="AM11" s="104" t="s"/>
+      <x:c r="AK11" s="4" t="s"/>
+      <x:c r="AL11" s="4" t="s"/>
+      <x:c r="AM11" s="3" t="s"/>
       <x:c r="AO11" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AQ11" s="26" t="s">
+      <x:c r="AQ11" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="AS11" s="18">
         <x:f>AS9+2/4*(AS13-AS9)</x:f>
       </x:c>
       <x:c r="AT11" s="18">
-        <x:f> Z19 * (AS11 - AS9)^3 + AA19 * (AS11 - AS9)^2 + AB19 * (AS11 - AS9) + AC19</x:f>
+        <x:f>Z19 * (AS11 - AS9)^3 + AA19 * (AS11 - AS9)^2 + AB19 * (AS11 - AS9) + AC19</x:f>
       </x:c>
       <x:c r="AV11" s="18">
         <x:f>AV9+2/4*(AV13-AV9)</x:f>
       </x:c>
       <x:c r="AW11" s="18">
-        <x:f> AJ19 * (AV11 - AV9)^3 + AK19 * (AV11 - AV9)^2 + AL19 * (AV11 - AV9) + AM19</x:f>
+        <x:f>AJ19 * (AV11 - AV9)^3 + AK19 * (AV11 - AV9)^2 + AL19 * (AV11 - AV9) + AM19</x:f>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="O12" s="29" t="s"/>
+      <x:c r="O12" s="28" t="s"/>
       <x:c r="P12" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -14175,10 +13986,10 @@
       <x:c r="U12" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="W12" s="28" t="e">
-        <x:f t="array" ref="W12:W15"> MMULT( MINVERSE(P12:S15), U12:U15 )</x:f>
-      </x:c>
-      <x:c r="Y12" s="29" t="s"/>
+      <x:c r="W12" s="27" t="e">
+        <x:f t="array" ref="W12:W15">MMULT( MINVERSE(P12:S15), U12:U15 )</x:f>
+      </x:c>
+      <x:c r="Y12" s="28" t="s"/>
       <x:c r="Z12" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -14194,10 +14005,10 @@
       <x:c r="AE12" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG12" s="28">
-        <x:f t="array" ref="AG12:AG15"> MMULT( MINVERSE(Z12:AC15), AE12:AE15 )</x:f>
-      </x:c>
-      <x:c r="AI12" s="29" t="s"/>
+      <x:c r="AG12" s="27">
+        <x:f t="array" ref="AG12:AG15">MMULT( MINVERSE(Z12:AC15), AE12:AE15 )</x:f>
+      </x:c>
+      <x:c r="AI12" s="28" t="s"/>
       <x:c r="AJ12" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -14213,81 +14024,78 @@
       <x:c r="AO12" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ12" s="28">
-        <x:f t="array" ref="AQ12:AQ15"> MMULT( MINVERSE(AJ12:AM15), AO12:AO15 )</x:f>
+      <x:c r="AQ12" s="27">
+        <x:f t="array" ref="AQ12:AQ15">MMULT( MINVERSE(AJ12:AM15), AO12:AO15 )</x:f>
       </x:c>
       <x:c r="AS12" s="18">
         <x:f>AS9+3/4*(AS13-AS9)</x:f>
       </x:c>
       <x:c r="AT12" s="18">
-        <x:f> Z19 * (AS12 - AS9)^3 + AA19 * (AS12 - AS9)^2 + AB19 * (AS12 - AS9) + AC19</x:f>
+        <x:f>Z19 * (AS12 - AS9)^3 + AA19 * (AS12 - AS9)^2 + AB19 * (AS12 - AS9) + AC19</x:f>
       </x:c>
       <x:c r="AV12" s="18">
         <x:f>AV9+3/4*(AV13-AV9)</x:f>
       </x:c>
       <x:c r="AW12" s="18">
-        <x:f> AJ19 * (AV12 - AV9)^3 + AK19 * (AV12 - AV9)^2 + AL19 * (AV12 - AV9) + AM19</x:f>
+        <x:f>AJ19 * (AV12 - AV9)^3 + AK19 * (AV12 - AV9)^2 + AL19 * (AV12 - AV9) + AM19</x:f>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O13" s="29" t="s"/>
+      <x:c r="O13" s="28" t="s"/>
       <x:c r="P13" s="18" t="e">
-        <x:f> T6 / U6</x:f>
+        <x:f>T6 / U6</x:f>
       </x:c>
       <x:c r="Q13" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R13" s="18" t="e">
-        <x:f> 1 - P13</x:f>
+        <x:f>1 - P13</x:f>
       </x:c>
       <x:c r="S13" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U13" s="18" t="e">
-        <x:f> 3 * (W7 - W6) / U6</x:f>
-      </x:c>
-      <x:c r="W13" s="28" t="e">
+        <x:f>3 * (W7 - W6) / U6</x:f>
+      </x:c>
+      <x:c r="W13" s="27" t="e">
         <x:f t="array"/>
       </x:c>
-      <x:c r="Y13" s="29" t="s"/>
+      <x:c r="Y13" s="28" t="s"/>
       <x:c r="Z13" s="18">
-        <x:f> AD6 / AE6</x:f>
+        <x:f>AD6 / AE6</x:f>
       </x:c>
       <x:c r="AA13" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AB13" s="18">
-        <x:f> 1 - Z13</x:f>
+        <x:f>1 - Z13</x:f>
       </x:c>
       <x:c r="AC13" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE13" s="18">
-        <x:f> 3 * (AG7 - AG6) / AE6</x:f>
-      </x:c>
-      <x:c r="AG13" s="28">
+        <x:f>3 * (AG7 - AG6) / AE6</x:f>
+      </x:c>
+      <x:c r="AG13" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI13" s="29" t="s"/>
+      <x:c r="AI13" s="28" t="s"/>
       <x:c r="AJ13" s="18">
-        <x:f> AN6 / AO6</x:f>
+        <x:f>AN6 / AO6</x:f>
       </x:c>
       <x:c r="AK13" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AL13" s="18">
-        <x:f> 1 - AJ13</x:f>
+        <x:f>1 - AJ13</x:f>
       </x:c>
       <x:c r="AM13" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO13" s="18">
-        <x:f> 3 * (AQ7 - AQ6) / AO6</x:f>
-      </x:c>
-      <x:c r="AQ13" s="28">
+        <x:f>3 * (AQ7 - AQ6) / AO6</x:f>
+      </x:c>
+      <x:c r="AQ13" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS13" s="18">
@@ -14304,133 +14112,79 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B14" s="11" t="s"/>
-      <x:c r="C14" s="11" t="s"/>
-      <x:c r="D14" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E14" s="11" t="s"/>
-      <x:c r="F14" s="11" t="s"/>
-      <x:c r="G14" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H14" s="11" t="s"/>
-      <x:c r="I14" s="11" t="s"/>
-      <x:c r="J14" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K14" s="11" t="s"/>
-      <x:c r="L14" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M14" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O14" s="29" t="s"/>
+      <x:c r="O14" s="28" t="s"/>
       <x:c r="P14" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q14" s="18" t="e">
-        <x:f> T7 / U7</x:f>
+        <x:f>T7 / U7</x:f>
       </x:c>
       <x:c r="R14" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="S14" s="18" t="e">
-        <x:f> 1 - Q14</x:f>
+        <x:f>1 - Q14</x:f>
       </x:c>
       <x:c r="U14" s="18" t="e">
-        <x:f> 3 * (W8 - W7) / U7</x:f>
-      </x:c>
-      <x:c r="W14" s="28" t="e">
+        <x:f>3 * (W8 - W7) / U7</x:f>
+      </x:c>
+      <x:c r="W14" s="27" t="e">
         <x:f t="array"/>
       </x:c>
-      <x:c r="Y14" s="29" t="s"/>
+      <x:c r="Y14" s="28" t="s"/>
       <x:c r="Z14" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AA14" s="18">
-        <x:f> AD7 / AE7</x:f>
+        <x:f>AD7 / AE7</x:f>
       </x:c>
       <x:c r="AB14" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AC14" s="18">
-        <x:f> 1 - AA14</x:f>
+        <x:f>1 - AA14</x:f>
       </x:c>
       <x:c r="AE14" s="18">
-        <x:f> 3 * (AG8 - AG7) / AE7</x:f>
-      </x:c>
-      <x:c r="AG14" s="28">
+        <x:f>3 * (AG8 - AG7) / AE7</x:f>
+      </x:c>
+      <x:c r="AG14" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI14" s="29" t="s"/>
+      <x:c r="AI14" s="28" t="s"/>
       <x:c r="AJ14" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AK14" s="18">
-        <x:f> AN7 / AO7</x:f>
+        <x:f>AN7 / AO7</x:f>
       </x:c>
       <x:c r="AL14" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AM14" s="18">
-        <x:f> 1 - AK14</x:f>
+        <x:f>1 - AK14</x:f>
       </x:c>
       <x:c r="AO14" s="18">
-        <x:f> 3 * (AQ8 - AQ7) / AO7</x:f>
-      </x:c>
-      <x:c r="AQ14" s="28">
+        <x:f>3 * (AQ8 - AQ7) / AO7</x:f>
+      </x:c>
+      <x:c r="AQ14" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS14" s="18">
         <x:f>AS13+1/4*(AS17-AS13)</x:f>
       </x:c>
       <x:c r="AT14" s="18">
-        <x:f> Z20 * (AS14 - AS13)^3 + AA20 * (AS14 - AS13)^2 + AB20 * (AS14 - AS13) + AC20</x:f>
+        <x:f>Z20 * (AS14 - AS13)^3 + AA20 * (AS14 - AS13)^2 + AB20 * (AS14 - AS13) + AC20</x:f>
       </x:c>
       <x:c r="AV14" s="18">
         <x:f>AV13+1/4*(AV17-AV13)</x:f>
       </x:c>
       <x:c r="AW14" s="18">
-        <x:f> AJ20 * (AV14 - AV13)^3 + AK20 * (AV14 - AV13)^2 + AL20 * (AV14 - AV13) + AM20</x:f>
+        <x:f>AJ20 * (AV14 - AV13)^3 + AK20 * (AV14 - AV13)^2 + AL20 * (AV14 - AV13) + AM20</x:f>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B15" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="6" t="s"/>
-      <x:c r="D15" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F15" s="6" t="s"/>
-      <x:c r="G15" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H15" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="I15" s="6" t="s"/>
-      <x:c r="J15" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K15" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L15" s="6" t="s"/>
-      <x:c r="M15" s="8" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="29" t="s"/>
+      <x:c r="N15" s="9" t="s"/>
+      <x:c r="O15" s="28" t="s"/>
       <x:c r="P15" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -14446,10 +14200,10 @@
       <x:c r="U15" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="W15" s="28" t="e">
+      <x:c r="W15" s="27" t="e">
         <x:f t="array"/>
       </x:c>
-      <x:c r="Y15" s="29" t="s"/>
+      <x:c r="Y15" s="28" t="s"/>
       <x:c r="Z15" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -14465,10 +14219,10 @@
       <x:c r="AE15" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG15" s="28">
+      <x:c r="AG15" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI15" s="29" t="s"/>
+      <x:c r="AI15" s="28" t="s"/>
       <x:c r="AJ15" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -14484,84 +14238,46 @@
       <x:c r="AO15" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ15" s="28">
+      <x:c r="AQ15" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS15" s="18">
         <x:f>AS13+2/4*(AS17-AS13)</x:f>
       </x:c>
       <x:c r="AT15" s="18">
-        <x:f> Z20 * (AS15 - AS13)^3 + AA20 * (AS15 - AS13)^2 + AB20 * (AS15 - AS13) + AC20</x:f>
+        <x:f>Z20 * (AS15 - AS13)^3 + AA20 * (AS15 - AS13)^2 + AB20 * (AS15 - AS13) + AC20</x:f>
       </x:c>
       <x:c r="AV15" s="18">
         <x:f>AV13+2/4*(AV17-AV13)</x:f>
       </x:c>
       <x:c r="AW15" s="18">
-        <x:f> AJ20 * (AV15 - AV13)^3 + AK20 * (AV15 - AV13)^2 + AL20 * (AV15 - AV13) + AM20</x:f>
+        <x:f>AJ20 * (AV15 - AV13)^3 + AK20 * (AV15 - AV13)^2 + AL20 * (AV15 - AV13) + AM20</x:f>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="1" t="n">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="n">
-        <x:v>9.86587644913328E-10</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
-        <x:v>0.158655253931457</x:v>
-      </x:c>
-      <x:c r="G16" s="87" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="n">
-        <x:v>100.008</x:v>
-      </x:c>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="29" t="s"/>
-      <x:c r="W16" s="24" t="s"/>
-      <x:c r="Y16" s="29" t="s"/>
-      <x:c r="AG16" s="24" t="s"/>
-      <x:c r="AI16" s="29" t="s"/>
-      <x:c r="AQ16" s="24" t="s"/>
+      <x:c r="N16" s="9" t="s"/>
+      <x:c r="O16" s="28" t="s"/>
+      <x:c r="W16" s="23" t="s"/>
+      <x:c r="Y16" s="28" t="s"/>
+      <x:c r="AG16" s="23" t="s"/>
+      <x:c r="AI16" s="28" t="s"/>
+      <x:c r="AQ16" s="23" t="s"/>
       <x:c r="AS16" s="18">
         <x:f>AS13+3/4*(AS17-AS13)</x:f>
       </x:c>
       <x:c r="AT16" s="18">
-        <x:f> Z20 * (AS16 - AS13)^3 + AA20 * (AS16 - AS13)^2 + AB20 * (AS16 - AS13) + AC20</x:f>
+        <x:f>Z20 * (AS16 - AS13)^3 + AA20 * (AS16 - AS13)^2 + AB20 * (AS16 - AS13) + AC20</x:f>
       </x:c>
       <x:c r="AV16" s="18">
         <x:f>AV13+3/4*(AV17-AV13)</x:f>
       </x:c>
       <x:c r="AW16" s="18">
-        <x:f> AJ20 * (AV16 - AV13)^3 + AK20 * (AV16 - AV13)^2 + AL20 * (AV16 - AV13) + AM20</x:f>
+        <x:f>AJ20 * (AV16 - AV13)^3 + AK20 * (AV16 - AV13)^2 + AL20 * (AV16 - AV13) + AM20</x:f>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="1" t="n">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="n">
-        <x:v>0.0227501319481792</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="n">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="n">
-        <x:v>0.460172162722971</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>100.695</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="n">
-        <x:v>102.496</x:v>
-      </x:c>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="25" t="s">
+      <x:c r="N17" s="9" t="s"/>
+      <x:c r="O17" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="P17" s="17" t="s">
@@ -14576,13 +14292,13 @@
       <x:c r="S17" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="T17" s="35" t="s">
+      <x:c r="T17" s="33" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="U17" s="107" t="s"/>
-      <x:c r="V17" s="107" t="s"/>
-      <x:c r="W17" s="24" t="s"/>
-      <x:c r="Y17" s="25" t="s">
+      <x:c r="U17" s="45" t="s"/>
+      <x:c r="V17" s="45" t="s"/>
+      <x:c r="W17" s="23" t="s"/>
+      <x:c r="Y17" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z17" s="17" t="s">
@@ -14597,13 +14313,13 @@
       <x:c r="AC17" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AD17" s="35" t="s">
+      <x:c r="AD17" s="33" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="AE17" s="107" t="s"/>
-      <x:c r="AF17" s="107" t="s"/>
-      <x:c r="AG17" s="24" t="s"/>
-      <x:c r="AI17" s="25" t="s">
+      <x:c r="AE17" s="45" t="s"/>
+      <x:c r="AF17" s="45" t="s"/>
+      <x:c r="AG17" s="23" t="s"/>
+      <x:c r="AI17" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ17" s="17" t="s">
@@ -14618,12 +14334,12 @@
       <x:c r="AM17" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AN17" s="35" t="s">
+      <x:c r="AN17" s="33" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="AO17" s="107" t="s"/>
-      <x:c r="AP17" s="107" t="s"/>
-      <x:c r="AQ17" s="24" t="s"/>
+      <x:c r="AO17" s="45" t="s"/>
+      <x:c r="AP17" s="45" t="s"/>
+      <x:c r="AQ17" s="23" t="s"/>
       <x:c r="AS17" s="18">
         <x:f>Z9</x:f>
       </x:c>
@@ -14638,253 +14354,212 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="1" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="n">
-        <x:v>0.5</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="n">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="n">
-        <x:v>0.598706325682924</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="n">
-        <x:v>101.366</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="n">
-        <x:v>105.069</x:v>
-      </x:c>
-      <x:c r="M18" s="3" t="s"/>
-      <x:c r="O18" s="27" t="n">
+      <x:c r="O18" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="P18" s="108" t="e">
-        <x:f> (W13 - W12) / (3 * T6)</x:f>
-      </x:c>
-      <x:c r="Q18" s="108" t="e">
-        <x:f> W12</x:f>
-      </x:c>
-      <x:c r="R18" s="108" t="e">
-        <x:f> W6 - T6 * (W13 + 2 * W12) / 3</x:f>
-      </x:c>
-      <x:c r="S18" s="108">
-        <x:f> Q6</x:f>
-      </x:c>
-      <x:c r="T18" s="35" t="s"/>
-      <x:c r="U18" s="107" t="s"/>
-      <x:c r="V18" s="107" t="s"/>
-      <x:c r="W18" s="24" t="s"/>
-      <x:c r="Y18" s="27" t="n">
+      <x:c r="P18" s="61" t="e">
+        <x:f>(W13 - W12) / (3 * T6)</x:f>
+      </x:c>
+      <x:c r="Q18" s="61" t="e">
+        <x:f>W12</x:f>
+      </x:c>
+      <x:c r="R18" s="61" t="e">
+        <x:f>W6 - T6 * (W13 + 2 * W12) / 3</x:f>
+      </x:c>
+      <x:c r="S18" s="61">
+        <x:f>Q6</x:f>
+      </x:c>
+      <x:c r="T18" s="33" t="s"/>
+      <x:c r="U18" s="45" t="s"/>
+      <x:c r="V18" s="45" t="s"/>
+      <x:c r="W18" s="23" t="s"/>
+      <x:c r="Y18" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z18" s="18">
-        <x:f> (AG13 - AG12) / (3 * AD6)</x:f>
+        <x:f>(AG13 - AG12) / (3 * AD6)</x:f>
       </x:c>
       <x:c r="AA18" s="18">
-        <x:f> AG12</x:f>
+        <x:f>AG12</x:f>
       </x:c>
       <x:c r="AB18" s="18">
-        <x:f> AG6 - AD6 * (AG13 + 2 * AG12) / 3</x:f>
+        <x:f>AG6 - AD6 * (AG13 + 2 * AG12) / 3</x:f>
       </x:c>
       <x:c r="AC18" s="18">
         <x:f>AA6</x:f>
       </x:c>
-      <x:c r="AD18" s="35" t="s"/>
-      <x:c r="AE18" s="107" t="s"/>
-      <x:c r="AF18" s="107" t="s"/>
-      <x:c r="AG18" s="24" t="s"/>
-      <x:c r="AI18" s="27" t="n">
+      <x:c r="AD18" s="33" t="s"/>
+      <x:c r="AE18" s="45" t="s"/>
+      <x:c r="AF18" s="45" t="s"/>
+      <x:c r="AG18" s="23" t="s"/>
+      <x:c r="AI18" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ18" s="18">
-        <x:f> (AQ13 - AQ12) / (3 * AN6)</x:f>
+        <x:f>(AQ13 - AQ12) / (3 * AN6)</x:f>
       </x:c>
       <x:c r="AK18" s="18">
-        <x:f> AQ12</x:f>
+        <x:f>AQ12</x:f>
       </x:c>
       <x:c r="AL18" s="18">
-        <x:f> AQ6 - AN6 * (AQ13 + 2 * AQ12) / 3</x:f>
+        <x:f>AQ6 - AN6 * (AQ13 + 2 * AQ12) / 3</x:f>
       </x:c>
       <x:c r="AM18" s="18">
         <x:f>AK6</x:f>
       </x:c>
-      <x:c r="AN18" s="35" t="s"/>
-      <x:c r="AO18" s="107" t="s"/>
-      <x:c r="AP18" s="107" t="s"/>
-      <x:c r="AQ18" s="24" t="s"/>
+      <x:c r="AN18" s="33" t="s"/>
+      <x:c r="AO18" s="45" t="s"/>
+      <x:c r="AP18" s="45" t="s"/>
+      <x:c r="AQ18" s="23" t="s"/>
     </x:row>
     <x:row r="19" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="1" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="n">
-        <x:v>0.725746882249926</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="n">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="n">
-        <x:v>0.933192798731142</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="n">
-        <x:v>102.022</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="n">
-        <x:v>107.864</x:v>
-      </x:c>
-      <x:c r="O19" s="27" t="n">
+      <x:c r="O19" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="P19" s="108" t="e">
-        <x:f> (W14 - W13) / (3 * T7)</x:f>
-      </x:c>
-      <x:c r="Q19" s="108" t="e">
-        <x:f> W13</x:f>
-      </x:c>
-      <x:c r="R19" s="108" t="e">
-        <x:f> W7 - T7 * (W14 + 2 * W13) / 3</x:f>
-      </x:c>
-      <x:c r="S19" s="108">
-        <x:f> Q7</x:f>
-      </x:c>
-      <x:c r="T19" s="35" t="s"/>
-      <x:c r="U19" s="107" t="s"/>
-      <x:c r="V19" s="107" t="s"/>
-      <x:c r="W19" s="24" t="s"/>
-      <x:c r="Y19" s="27" t="n">
+      <x:c r="P19" s="61" t="e">
+        <x:f>(W14 - W13) / (3 * T7)</x:f>
+      </x:c>
+      <x:c r="Q19" s="61" t="e">
+        <x:f>W13</x:f>
+      </x:c>
+      <x:c r="R19" s="61" t="e">
+        <x:f>W7 - T7 * (W14 + 2 * W13) / 3</x:f>
+      </x:c>
+      <x:c r="S19" s="61">
+        <x:f>Q7</x:f>
+      </x:c>
+      <x:c r="T19" s="33" t="s"/>
+      <x:c r="U19" s="45" t="s"/>
+      <x:c r="V19" s="45" t="s"/>
+      <x:c r="W19" s="23" t="s"/>
+      <x:c r="Y19" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z19" s="18">
-        <x:f> (AG14 - AG13) / (3 * AD7)</x:f>
+        <x:f>(AG14 - AG13) / (3 * AD7)</x:f>
       </x:c>
       <x:c r="AA19" s="18">
-        <x:f> AG13</x:f>
+        <x:f>AG13</x:f>
       </x:c>
       <x:c r="AB19" s="18">
-        <x:f> AG7 - AD7 * (AG14 + 2 * AG13) / 3</x:f>
+        <x:f>AG7 - AD7 * (AG14 + 2 * AG13) / 3</x:f>
       </x:c>
       <x:c r="AC19" s="18">
         <x:f>AA7</x:f>
       </x:c>
-      <x:c r="AD19" s="35" t="s"/>
-      <x:c r="AE19" s="107" t="s"/>
-      <x:c r="AF19" s="107" t="s"/>
-      <x:c r="AG19" s="24" t="s"/>
-      <x:c r="AI19" s="27" t="n">
+      <x:c r="AD19" s="33" t="s"/>
+      <x:c r="AE19" s="45" t="s"/>
+      <x:c r="AF19" s="45" t="s"/>
+      <x:c r="AG19" s="23" t="s"/>
+      <x:c r="AI19" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ19" s="18">
-        <x:f> (AQ14 - AQ13) / (3 * AN7)</x:f>
+        <x:f>(AQ14 - AQ13) / (3 * AN7)</x:f>
       </x:c>
       <x:c r="AK19" s="18">
-        <x:f> AQ13</x:f>
+        <x:f>AQ13</x:f>
       </x:c>
       <x:c r="AL19" s="18">
-        <x:f> AQ7 - AN7 * (AQ14 + 2 * AQ13) / 3</x:f>
+        <x:f>AQ7 - AN7 * (AQ14 + 2 * AQ13) / 3</x:f>
       </x:c>
       <x:c r="AM19" s="18">
         <x:f>AK7</x:f>
       </x:c>
-      <x:c r="AN19" s="35" t="s"/>
-      <x:c r="AO19" s="107" t="s"/>
-      <x:c r="AP19" s="107" t="s"/>
-      <x:c r="AQ19" s="24" t="s"/>
+      <x:c r="AN19" s="33" t="s"/>
+      <x:c r="AO19" s="45" t="s"/>
+      <x:c r="AP19" s="45" t="s"/>
+      <x:c r="AQ19" s="23" t="s"/>
     </x:row>
     <x:row r="20" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="O20" s="30" t="n">
+      <x:c r="B20" s="8" t="s"/>
+      <x:c r="C20" s="8" t="s"/>
+      <x:c r="D20" s="8" t="s"/>
+      <x:c r="E20" s="8" t="s"/>
+      <x:c r="F20" s="8" t="s"/>
+      <x:c r="G20" s="8" t="s"/>
+      <x:c r="H20" s="8" t="s"/>
+      <x:c r="I20" s="8" t="s"/>
+      <x:c r="J20" s="8" t="s"/>
+      <x:c r="K20" s="8" t="s"/>
+      <x:c r="L20" s="8" t="s"/>
+      <x:c r="M20" s="8" t="s"/>
+      <x:c r="O20" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="P20" s="109" t="e">
-        <x:f> (W15 - W14) / (3 * T8)</x:f>
-      </x:c>
-      <x:c r="Q20" s="109" t="e">
-        <x:f> W14</x:f>
-      </x:c>
-      <x:c r="R20" s="109" t="e">
-        <x:f> W8 - T8 * (W15 + 2 * W14) / 3</x:f>
-      </x:c>
-      <x:c r="S20" s="109">
-        <x:f> Q8</x:f>
-      </x:c>
-      <x:c r="T20" s="36" t="s"/>
-      <x:c r="U20" s="38" t="s"/>
-      <x:c r="V20" s="38" t="s"/>
-      <x:c r="W20" s="33" t="s"/>
-      <x:c r="Y20" s="30" t="n">
+      <x:c r="P20" s="62" t="e">
+        <x:f>(W15 - W14) / (3 * T8)</x:f>
+      </x:c>
+      <x:c r="Q20" s="62" t="e">
+        <x:f>W14</x:f>
+      </x:c>
+      <x:c r="R20" s="62" t="e">
+        <x:f>W8 - T8 * (W15 + 2 * W14) / 3</x:f>
+      </x:c>
+      <x:c r="S20" s="62">
+        <x:f>Q8</x:f>
+      </x:c>
+      <x:c r="T20" s="34" t="s"/>
+      <x:c r="U20" s="35" t="s"/>
+      <x:c r="V20" s="35" t="s"/>
+      <x:c r="W20" s="32" t="s"/>
+      <x:c r="Y20" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="Z20" s="31">
-        <x:f> (AG15 - AG14) / (3 * AD8)</x:f>
-      </x:c>
-      <x:c r="AA20" s="31">
-        <x:f> AG14</x:f>
-      </x:c>
-      <x:c r="AB20" s="31">
-        <x:f> AG8 - AD8 * (AG15 + 2 * AG14) / 3</x:f>
-      </x:c>
-      <x:c r="AC20" s="31">
+      <x:c r="Z20" s="30">
+        <x:f>(AG15 - AG14) / (3 * AD8)</x:f>
+      </x:c>
+      <x:c r="AA20" s="30">
+        <x:f>AG14</x:f>
+      </x:c>
+      <x:c r="AB20" s="30">
+        <x:f>AG8 - AD8 * (AG15 + 2 * AG14) / 3</x:f>
+      </x:c>
+      <x:c r="AC20" s="30">
         <x:f>AA8</x:f>
       </x:c>
-      <x:c r="AD20" s="36" t="s"/>
-      <x:c r="AE20" s="38" t="s"/>
-      <x:c r="AF20" s="38" t="s"/>
-      <x:c r="AG20" s="33" t="s"/>
-      <x:c r="AI20" s="30" t="n">
+      <x:c r="AD20" s="34" t="s"/>
+      <x:c r="AE20" s="35" t="s"/>
+      <x:c r="AF20" s="35" t="s"/>
+      <x:c r="AG20" s="32" t="s"/>
+      <x:c r="AI20" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="AJ20" s="31">
-        <x:f> (AQ15 - AQ14) / (3 * AN8)</x:f>
-      </x:c>
-      <x:c r="AK20" s="31">
-        <x:f> AQ14</x:f>
-      </x:c>
-      <x:c r="AL20" s="31">
-        <x:f> AQ8 - AN8 * (AQ15 + 2 * AQ14) / 3</x:f>
-      </x:c>
-      <x:c r="AM20" s="31">
+      <x:c r="AJ20" s="30">
+        <x:f>(AQ15 - AQ14) / (3 * AN8)</x:f>
+      </x:c>
+      <x:c r="AK20" s="30">
+        <x:f>AQ14</x:f>
+      </x:c>
+      <x:c r="AL20" s="30">
+        <x:f>AQ8 - AN8 * (AQ15 + 2 * AQ14) / 3</x:f>
+      </x:c>
+      <x:c r="AM20" s="30">
         <x:f>AK8</x:f>
       </x:c>
-      <x:c r="AN20" s="36" t="s"/>
-      <x:c r="AO20" s="38" t="s"/>
-      <x:c r="AP20" s="38" t="s"/>
-      <x:c r="AQ20" s="33" t="s"/>
+      <x:c r="AN20" s="34" t="s"/>
+      <x:c r="AO20" s="35" t="s"/>
+      <x:c r="AP20" s="35" t="s"/>
+      <x:c r="AQ20" s="32" t="s"/>
     </x:row>
     <x:row r="21" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A21" s="5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="BF21" s="73" t="s">
+      <x:c r="B21" s="8" t="s"/>
+      <x:c r="C21" s="8" t="s"/>
+      <x:c r="D21" s="8" t="s"/>
+      <x:c r="E21" s="8" t="s"/>
+      <x:c r="F21" s="8" t="s"/>
+      <x:c r="G21" s="8" t="s"/>
+      <x:c r="H21" s="8" t="s"/>
+      <x:c r="I21" s="8" t="s"/>
+      <x:c r="J21" s="8" t="s"/>
+      <x:c r="K21" s="8" t="s"/>
+      <x:c r="L21" s="8" t="s"/>
+      <x:c r="M21" s="8" t="s"/>
+      <x:c r="BF21" s="37" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A22" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B22" s="11" t="s"/>
-      <x:c r="C22" s="11" t="s"/>
-      <x:c r="D22" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E22" s="11" t="s"/>
-      <x:c r="F22" s="11" t="s"/>
-      <x:c r="G22" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H22" s="11" t="s"/>
-      <x:c r="I22" s="11" t="s"/>
-      <x:c r="J22" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K22" s="11" t="s"/>
-      <x:c r="L22" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M22" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="O22" s="19" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -14918,61 +14593,32 @@
       <x:c r="AO22" s="20" t="s"/>
       <x:c r="AP22" s="20" t="s"/>
       <x:c r="AQ22" s="21" t="s"/>
-      <x:c r="AS22" s="103" t="s">
+      <x:c r="AS22" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="AT22" s="104" t="s"/>
-      <x:c r="AV22" s="103" t="s">
+      <x:c r="AT22" s="3" t="s"/>
+      <x:c r="AV22" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AW22" s="104" t="s"/>
-      <x:c r="BF22" s="4" t="s">
+      <x:c r="AW22" s="3" t="s"/>
+      <x:c r="BF22" s="11" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A23" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B23" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C23" s="6" t="s"/>
-      <x:c r="D23" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E23" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F23" s="6" t="s"/>
-      <x:c r="G23" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H23" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="I23" s="6" t="s"/>
-      <x:c r="J23" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K23" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L23" s="6" t="s"/>
-      <x:c r="M23" s="9" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
+      <x:c r="N23" s="9" t="s"/>
       <x:c r="O23" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="W23" s="24" t="s"/>
+      <x:c r="W23" s="23" t="s"/>
       <x:c r="Y23" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AG23" s="24" t="s"/>
+      <x:c r="AG23" s="23" t="s"/>
       <x:c r="AI23" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AQ23" s="24" t="s"/>
+      <x:c r="AQ23" s="23" t="s"/>
       <x:c r="AS23" s="17" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -14985,32 +14631,13 @@
       <x:c r="AW23" s="17" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="BF23" s="4" t="s">
+      <x:c r="BF23" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A24" s="1" t="n">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="n">
-        <x:v>9.86587644913328E-10</x:v>
-      </x:c>
-      <x:c r="D24" s="1" t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="n">
-        <x:v>0.158655253931457</x:v>
-      </x:c>
-      <x:c r="G24" s="1" t="n">
-        <x:v>93.959</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="n">
-        <x:v>80.087</x:v>
-      </x:c>
-      <x:c r="M24" s="3" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="25" t="s">
+      <x:c r="N24" s="9" t="s"/>
+      <x:c r="O24" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="P24" s="17" t="s">
@@ -15031,10 +14658,10 @@
       <x:c r="V24" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="W24" s="26" t="s">
+      <x:c r="W24" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="Y24" s="25" t="s">
+      <x:c r="Y24" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z24" s="17" t="s">
@@ -15055,10 +14682,10 @@
       <x:c r="AF24" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AG24" s="26" t="s">
+      <x:c r="AG24" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="AI24" s="25" t="s">
+      <x:c r="AI24" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ24" s="17" t="s">
@@ -15079,7 +14706,7 @@
       <x:c r="AP24" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AQ24" s="26" t="s">
+      <x:c r="AQ24" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="AS24" s="18">
@@ -15094,38 +14721,19 @@
       <x:c r="AW24" s="18">
         <x:f>AK25</x:f>
       </x:c>
-      <x:c r="BF24" s="6" t="s">
+      <x:c r="BF24" s="13" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="BG24" s="6" t="s">
+      <x:c r="BG24" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="BH24" s="6" t="s">
+      <x:c r="BH24" s="13" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A25" s="1" t="n">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="n">
-        <x:v>0.0227501319481792</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="n">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="n">
-        <x:v>0.460172162722971</x:v>
-      </x:c>
-      <x:c r="G25" s="1" t="n">
-        <x:v>94.854</x:v>
-      </x:c>
-      <x:c r="H25" s="1" t="n">
-        <x:v>82.682</x:v>
-      </x:c>
-      <x:c r="M25" s="3" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="27" t="n">
+      <x:c r="N25" s="9" t="s"/>
+      <x:c r="O25" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P25" s="18" t="n">
@@ -15138,108 +14746,103 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T25" s="18">
-        <x:f> P26 - P25</x:f>
+        <x:f>P26 - P25</x:f>
       </x:c>
       <x:c r="U25" s="18">
-        <x:f> T25 + T26</x:f>
+        <x:f>T25 + T26</x:f>
       </x:c>
       <x:c r="V25" s="18">
-        <x:f> Q26 - Q25</x:f>
-      </x:c>
-      <x:c r="W25" s="28">
-        <x:f> V25 / T25</x:f>
-      </x:c>
-      <x:c r="Y25" s="27" t="n">
+        <x:f>Q26 - Q25</x:f>
+      </x:c>
+      <x:c r="W25" s="27">
+        <x:f>V25 / T25</x:f>
+      </x:c>
+      <x:c r="Y25" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z25" s="18">
-        <x:f>A16</x:f>
+        <x:f>Sheet1!A5</x:f>
       </x:c>
       <x:c r="AA25" s="18">
-        <x:f>B16</x:f>
+        <x:f>Sheet1!B5</x:f>
       </x:c>
       <x:c r="AC25" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD25" s="18">
-        <x:f> Z26 - Z25</x:f>
+        <x:f>Z26 - Z25</x:f>
       </x:c>
       <x:c r="AE25" s="18">
-        <x:f> AD25 + AD26</x:f>
+        <x:f>AD25 + AD26</x:f>
       </x:c>
       <x:c r="AF25" s="18">
-        <x:f> AA26 - AA25</x:f>
-      </x:c>
-      <x:c r="AG25" s="28">
-        <x:f> AF25 / AD25</x:f>
-      </x:c>
-      <x:c r="AI25" s="27" t="n">
+        <x:f>AA26 - AA25</x:f>
+      </x:c>
+      <x:c r="AG25" s="27">
+        <x:f>AF25 / AD25</x:f>
+      </x:c>
+      <x:c r="AI25" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ25" s="18">
-        <x:f>D16</x:f>
+        <x:f>Sheet1!D5</x:f>
       </x:c>
       <x:c r="AK25" s="18">
-        <x:f>E16</x:f>
+        <x:f>Sheet1!E5</x:f>
       </x:c>
       <x:c r="AM25" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN25" s="18">
-        <x:f> AJ26 - AJ25</x:f>
+        <x:f>AJ26 - AJ25</x:f>
       </x:c>
       <x:c r="AO25" s="18">
-        <x:f> AN25 + AN26</x:f>
+        <x:f>AN25 + AN26</x:f>
       </x:c>
       <x:c r="AP25" s="18">
-        <x:f> AK26 - AK25</x:f>
-      </x:c>
-      <x:c r="AQ25" s="28">
-        <x:f> AP25 / AN25</x:f>
+        <x:f>AK26 - AK25</x:f>
+      </x:c>
+      <x:c r="AQ25" s="27">
+        <x:f>AP25 / AN25</x:f>
       </x:c>
       <x:c r="AS25" s="18">
         <x:f>AS24+1/4*(AS28-AS24)</x:f>
       </x:c>
       <x:c r="AT25" s="18">
-        <x:f> Z37 * (AS25 - AS24)^3 + AA37 * (AS25 - AS24)^2 + AB37 * (AS25 - AS24) + AC37</x:f>
+        <x:f>Z37 * (AS25 - AS24)^3 + AA37 * (AS25 - AS24)^2 + AB37 * (AS25 - AS24) + AC37</x:f>
       </x:c>
       <x:c r="AV25" s="18">
         <x:f>AV24+1/4*(AV28-AV24)</x:f>
       </x:c>
       <x:c r="AW25" s="18">
-        <x:f> AJ37 * (AV25 - AV24)^3 + AK37 * (AV25 - AV24)^2 + AL37 * (AV25 - AV24) + AM37</x:f>
-      </x:c>
-      <x:c r="BF25" s="89" t="n">
+        <x:f>AJ37 * (AV25 - AV24)^3 + AK37 * (AV25 - AV24)^2 + AL37 * (AV25 - AV24) + AM37</x:f>
+      </x:c>
+      <x:c r="BF25" s="44" t="n">
         <x:v>0.5</x:v>
       </x:c>
-      <x:c r="BG25" s="87" t="n">
+      <x:c r="BG25" s="43" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="BH25" s="1" t="n">
+      <x:c r="BH25" s="8" t="n">
         <x:v>100.008</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="1" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B26" s="1" t="n">
-        <x:v>0.5</x:v>
-      </x:c>
-      <x:c r="D26" s="1" t="n">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E26" s="1" t="n">
-        <x:v>0.598706325682924</x:v>
-      </x:c>
-      <x:c r="G26" s="1" t="n">
-        <x:v>95.876</x:v>
-      </x:c>
-      <x:c r="H26" s="1" t="n">
-        <x:v>85.882</x:v>
-      </x:c>
-      <x:c r="M26" s="3" t="s"/>
-      <x:c r="O26" s="27" t="n">
+    <x:row r="26" spans="1:62" s="0" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s"/>
+      <x:c r="G26" s="0" t="s"/>
+      <x:c r="H26" s="0" t="s"/>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+      <x:c r="K26" s="0" t="s"/>
+      <x:c r="L26" s="0" t="s"/>
+      <x:c r="M26" s="0" t="s"/>
+      <x:c r="N26" s="0" t="s"/>
+      <x:c r="O26" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P26" s="18" t="n">
@@ -15248,111 +14851,109 @@
       <x:c r="Q26" s="18" t="n">
         <x:v>1.791759</x:v>
       </x:c>
+      <x:c r="R26" s="0" t="s"/>
       <x:c r="S26" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T26" s="18">
-        <x:f> P27 - P26</x:f>
+        <x:f>P27 - P26</x:f>
       </x:c>
       <x:c r="U26" s="18">
-        <x:f> T26 + T27</x:f>
+        <x:f>T26 + T27</x:f>
       </x:c>
       <x:c r="V26" s="18">
-        <x:f> Q27 - Q26</x:f>
-      </x:c>
-      <x:c r="W26" s="28">
-        <x:f> V26 / T26</x:f>
-      </x:c>
-      <x:c r="Y26" s="27" t="n">
+        <x:f>Q27 - Q26</x:f>
+      </x:c>
+      <x:c r="W26" s="27">
+        <x:f>V26 / T26</x:f>
+      </x:c>
+      <x:c r="X26" s="0" t="s"/>
+      <x:c r="Y26" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z26" s="18">
-        <x:f>A17</x:f>
+        <x:f>Sheet1!A6</x:f>
       </x:c>
       <x:c r="AA26" s="18">
-        <x:f>B17</x:f>
-      </x:c>
+        <x:f>Sheet1!B6</x:f>
+      </x:c>
+      <x:c r="AB26" s="0" t="s"/>
       <x:c r="AC26" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AD26" s="18">
-        <x:f> Z27 - Z26</x:f>
+        <x:f>Z27 - Z26</x:f>
       </x:c>
       <x:c r="AE26" s="18">
-        <x:f> AD26 + AD27</x:f>
+        <x:f>AD26 + AD27</x:f>
       </x:c>
       <x:c r="AF26" s="18">
-        <x:f> AA27 - AA26</x:f>
-      </x:c>
-      <x:c r="AG26" s="28">
-        <x:f> AF26 / AD26</x:f>
-      </x:c>
-      <x:c r="AI26" s="27" t="n">
+        <x:f>AA27 - AA26</x:f>
+      </x:c>
+      <x:c r="AG26" s="27">
+        <x:f>AF26 / AD26</x:f>
+      </x:c>
+      <x:c r="AH26" s="0" t="s"/>
+      <x:c r="AI26" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ26" s="18">
-        <x:f>D17</x:f>
+        <x:f>Sheet1!D6</x:f>
       </x:c>
       <x:c r="AK26" s="18">
-        <x:f>E17</x:f>
-      </x:c>
+        <x:f>Sheet1!E6</x:f>
+      </x:c>
+      <x:c r="AL26" s="0" t="s"/>
       <x:c r="AM26" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AN26" s="18">
-        <x:f> AJ27 - AJ26</x:f>
+        <x:f>AJ27 - AJ26</x:f>
       </x:c>
       <x:c r="AO26" s="18">
-        <x:f> AN26 + AN27</x:f>
+        <x:f>AN26 + AN27</x:f>
       </x:c>
       <x:c r="AP26" s="18">
-        <x:f> AK27 - AK26</x:f>
-      </x:c>
-      <x:c r="AQ26" s="28">
-        <x:f> AP26 / AN26</x:f>
-      </x:c>
+        <x:f>AK27 - AK26</x:f>
+      </x:c>
+      <x:c r="AQ26" s="27">
+        <x:f>AP26 / AN26</x:f>
+      </x:c>
+      <x:c r="AR26" s="0" t="s"/>
       <x:c r="AS26" s="18">
         <x:f>AS24+2/4*(AS28-AS24)</x:f>
       </x:c>
       <x:c r="AT26" s="18">
-        <x:f> Z37 * (AS26 - AS24)^3 + AA37 * (AS26 - AS24)^2 + AB37 * (AS26 - AS24) + AC37</x:f>
-      </x:c>
+        <x:f>Z37 * (AS26 - AS24)^3 + AA37 * (AS26 - AS24)^2 + AB37 * (AS26 - AS24) + AC37</x:f>
+      </x:c>
+      <x:c r="AU26" s="0" t="s"/>
       <x:c r="AV26" s="18">
         <x:f>AV24+2/4*(AV28-AV24)</x:f>
       </x:c>
       <x:c r="AW26" s="18">
-        <x:f> AJ37 * (AV26 - AV24)^3 + AK37 * (AV26 - AV24)^2 + AL37 * (AV26 - AV24) + AM37</x:f>
-      </x:c>
-      <x:c r="BF26" s="89" t="n">
+        <x:f>AJ37 * (AV26 - AV24)^3 + AK37 * (AV26 - AV24)^2 + AL37 * (AV26 - AV24) + AM37</x:f>
+      </x:c>
+      <x:c r="AX26" s="0" t="s"/>
+      <x:c r="AY26" s="0" t="s"/>
+      <x:c r="AZ26" s="0" t="s"/>
+      <x:c r="BA26" s="0" t="s"/>
+      <x:c r="BB26" s="0" t="s"/>
+      <x:c r="BC26" s="0" t="s"/>
+      <x:c r="BD26" s="0" t="s"/>
+      <x:c r="BE26" s="0" t="s"/>
+      <x:c r="BF26" s="44" t="n">
         <x:v>0.55</x:v>
       </x:c>
-      <x:c r="BG26" s="87" t="n">
+      <x:c r="BG26" s="43" t="n">
         <x:v>100.695</x:v>
       </x:c>
-      <x:c r="BH26" s="1" t="n">
+      <x:c r="BH26" s="8" t="n">
         <x:v>102.496</x:v>
       </x:c>
+      <x:c r="BI26" s="0" t="s"/>
     </x:row>
     <x:row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A27" s="1" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B27" s="1" t="n">
-        <x:v>0.725746882249926</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="n">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E27" s="1" t="n">
-        <x:v>0.933192798731142</x:v>
-      </x:c>
-      <x:c r="G27" s="1" t="n">
-        <x:v>96.815</x:v>
-      </x:c>
-      <x:c r="H27" s="1" t="n">
-        <x:v>88.989</x:v>
-      </x:c>
-      <x:c r="O27" s="27" t="n">
+      <x:c r="O27" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P27" s="18" t="n">
@@ -15365,83 +14966,83 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T27" s="18">
-        <x:f> P28 - P27</x:f>
+        <x:f>P28 - P27</x:f>
       </x:c>
       <x:c r="U27" s="18" t="s"/>
       <x:c r="V27" s="18">
-        <x:f> Q28 - Q27</x:f>
-      </x:c>
-      <x:c r="W27" s="28">
-        <x:f> V27 / T27</x:f>
-      </x:c>
-      <x:c r="Y27" s="27" t="n">
+        <x:f>Q28 - Q27</x:f>
+      </x:c>
+      <x:c r="W27" s="27">
+        <x:f>V27 / T27</x:f>
+      </x:c>
+      <x:c r="Y27" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="Z27" s="18">
-        <x:f>A18</x:f>
+        <x:f>Sheet1!A7</x:f>
       </x:c>
       <x:c r="AA27" s="18">
-        <x:f>B18</x:f>
+        <x:f>Sheet1!B7</x:f>
       </x:c>
       <x:c r="AC27" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AD27" s="18">
-        <x:f> Z28 - Z27</x:f>
+        <x:f>Z28 - Z27</x:f>
       </x:c>
       <x:c r="AE27" s="18" t="s"/>
       <x:c r="AF27" s="18">
-        <x:f> AA28 - AA27</x:f>
-      </x:c>
-      <x:c r="AG27" s="28">
-        <x:f> AF27 / AD27</x:f>
-      </x:c>
-      <x:c r="AI27" s="27" t="n">
+        <x:f>AA28 - AA27</x:f>
+      </x:c>
+      <x:c r="AG27" s="27">
+        <x:f>AF27 / AD27</x:f>
+      </x:c>
+      <x:c r="AI27" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AJ27" s="18">
-        <x:f>D18</x:f>
+        <x:f>Sheet1!D7</x:f>
       </x:c>
       <x:c r="AK27" s="18">
-        <x:f>E18</x:f>
+        <x:f>Sheet1!E7</x:f>
       </x:c>
       <x:c r="AM27" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AN27" s="18">
-        <x:f> AJ28 - AJ27</x:f>
+        <x:f>AJ28 - AJ27</x:f>
       </x:c>
       <x:c r="AO27" s="18" t="s"/>
       <x:c r="AP27" s="18">
-        <x:f> AK28 - AK27</x:f>
-      </x:c>
-      <x:c r="AQ27" s="28">
-        <x:f> AP27 / AN27</x:f>
+        <x:f>AK28 - AK27</x:f>
+      </x:c>
+      <x:c r="AQ27" s="27">
+        <x:f>AP27 / AN27</x:f>
       </x:c>
       <x:c r="AS27" s="18">
         <x:f>AS24+3/4*(AS28-AS24)</x:f>
       </x:c>
       <x:c r="AT27" s="18">
-        <x:f> Z37 * (AS27 - AS24)^3 + AA37 * (AS27 - AS24)^2 + AB37 * (AS27 - AS24) + AC37</x:f>
+        <x:f>Z37 * (AS27 - AS24)^3 + AA37 * (AS27 - AS24)^2 + AB37 * (AS27 - AS24) + AC37</x:f>
       </x:c>
       <x:c r="AV27" s="18">
         <x:f>AV24+3/4*(AV28-AV24)</x:f>
       </x:c>
       <x:c r="AW27" s="18">
-        <x:f> AJ37 * (AV27 - AV24)^3 + AK37 * (AV27 - AV24)^2 + AL37 * (AV27 - AV24) + AM37</x:f>
-      </x:c>
-      <x:c r="BF27" s="89" t="n">
+        <x:f>AJ37 * (AV27 - AV24)^3 + AK37 * (AV27 - AV24)^2 + AL37 * (AV27 - AV24) + AM37</x:f>
+      </x:c>
+      <x:c r="BF27" s="44" t="n">
         <x:v>0.6</x:v>
       </x:c>
-      <x:c r="BG27" s="87" t="n">
+      <x:c r="BG27" s="43" t="n">
         <x:v>101.366</x:v>
       </x:c>
-      <x:c r="BH27" s="1" t="n">
+      <x:c r="BH27" s="8" t="n">
         <x:v>105.069</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="O28" s="27" t="n">
+      <x:c r="O28" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P28" s="18" t="n">
@@ -15450,27 +15051,27 @@
       <x:c r="Q28" s="18" t="n">
         <x:v>2.772589</x:v>
       </x:c>
-      <x:c r="W28" s="24" t="s"/>
-      <x:c r="Y28" s="27" t="n">
+      <x:c r="W28" s="23" t="s"/>
+      <x:c r="Y28" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="Z28" s="18">
-        <x:f>A19</x:f>
+        <x:f>Sheet1!A8</x:f>
       </x:c>
       <x:c r="AA28" s="18">
-        <x:f>B19</x:f>
-      </x:c>
-      <x:c r="AG28" s="24" t="s"/>
-      <x:c r="AI28" s="27" t="n">
+        <x:f>Sheet1!B8</x:f>
+      </x:c>
+      <x:c r="AG28" s="23" t="s"/>
+      <x:c r="AI28" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AJ28" s="18">
-        <x:f>D19</x:f>
+        <x:f>Sheet1!D8</x:f>
       </x:c>
       <x:c r="AK28" s="18">
-        <x:f>E19</x:f>
-      </x:c>
-      <x:c r="AQ28" s="24" t="s"/>
+        <x:f>Sheet1!E8</x:f>
+      </x:c>
+      <x:c r="AQ28" s="23" t="s"/>
       <x:c r="AS28" s="18">
         <x:f>Z26</x:f>
       </x:c>
@@ -15483,167 +15084,110 @@
       <x:c r="AW28" s="18">
         <x:f>AK26</x:f>
       </x:c>
-      <x:c r="BF28" s="89" t="n">
+      <x:c r="BF28" s="44" t="n">
         <x:v>0.65</x:v>
       </x:c>
-      <x:c r="BG28" s="87" t="n">
+      <x:c r="BG28" s="43" t="n">
         <x:v>102.022</x:v>
       </x:c>
-      <x:c r="BH28" s="1" t="n">
+      <x:c r="BH28" s="8" t="n">
         <x:v>107.864</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A29" s="5" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O29" s="29" t="s"/>
-      <x:c r="W29" s="24" t="s"/>
-      <x:c r="Y29" s="29" t="s"/>
-      <x:c r="AG29" s="24" t="s"/>
-      <x:c r="AI29" s="29" t="s"/>
-      <x:c r="AQ29" s="24" t="s"/>
+      <x:c r="O29" s="28" t="s"/>
+      <x:c r="W29" s="23" t="s"/>
+      <x:c r="Y29" s="28" t="s"/>
+      <x:c r="AG29" s="23" t="s"/>
+      <x:c r="AI29" s="28" t="s"/>
+      <x:c r="AQ29" s="23" t="s"/>
       <x:c r="AS29" s="18">
         <x:f>AS28+1/4*(AS32-AS28)</x:f>
       </x:c>
       <x:c r="AT29" s="18">
-        <x:f> Z38 * (AS29 - AS28)^3 + AA38 * (AS29 - AS28)^2 + AB38 * (AS29 - AS28) + AC38</x:f>
+        <x:f>Z38 * (AS29 - AS28)^3 + AA38 * (AS29 - AS28)^2 + AB38 * (AS29 - AS28) + AC38</x:f>
       </x:c>
       <x:c r="AV29" s="18">
         <x:f>AV28+1/4*(AV32-AV28)</x:f>
       </x:c>
       <x:c r="AW29" s="18">
-        <x:f> AJ38 * (AV29 - AV28)^3 + AK38 * (AV29 - AV28)^2 + AL38 * (AV29 - AV28) + AM38</x:f>
-      </x:c>
-      <x:c r="BF29" s="89" t="n">
+        <x:f>AJ38 * (AV29 - AV28)^3 + AK38 * (AV29 - AV28)^2 + AL38 * (AV29 - AV28) + AM38</x:f>
+      </x:c>
+      <x:c r="BF29" s="44" t="n">
         <x:v>0.7</x:v>
       </x:c>
-      <x:c r="BG29" s="87" t="n">
+      <x:c r="BG29" s="43" t="n">
         <x:v>102.668</x:v>
       </x:c>
-      <x:c r="BH29" s="87" t="n">
+      <x:c r="BH29" s="43" t="n">
         <x:v>110.95</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A30" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B30" s="11" t="s"/>
-      <x:c r="C30" s="11" t="s"/>
-      <x:c r="D30" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E30" s="11" t="s"/>
-      <x:c r="F30" s="11" t="s"/>
-      <x:c r="G30" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H30" s="11" t="s"/>
-      <x:c r="I30" s="11" t="s"/>
-      <x:c r="J30" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K30" s="11" t="s"/>
-      <x:c r="L30" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M30" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O30" s="29" t="s"/>
-      <x:c r="P30" s="103" t="s">
+      <x:c r="O30" s="28" t="s"/>
+      <x:c r="P30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="Q30" s="106" t="s"/>
-      <x:c r="R30" s="106" t="s"/>
-      <x:c r="S30" s="104" t="s"/>
+      <x:c r="Q30" s="4" t="s"/>
+      <x:c r="R30" s="4" t="s"/>
+      <x:c r="S30" s="3" t="s"/>
       <x:c r="U30" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="W30" s="26" t="s">
+      <x:c r="W30" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="Y30" s="29" t="s"/>
-      <x:c r="Z30" s="103" t="s">
+      <x:c r="Y30" s="28" t="s"/>
+      <x:c r="Z30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AA30" s="106" t="s"/>
-      <x:c r="AB30" s="106" t="s"/>
-      <x:c r="AC30" s="104" t="s"/>
+      <x:c r="AA30" s="4" t="s"/>
+      <x:c r="AB30" s="4" t="s"/>
+      <x:c r="AC30" s="3" t="s"/>
       <x:c r="AE30" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AG30" s="26" t="s">
+      <x:c r="AG30" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AI30" s="29" t="s"/>
-      <x:c r="AJ30" s="103" t="s">
+      <x:c r="AI30" s="28" t="s"/>
+      <x:c r="AJ30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AK30" s="106" t="s"/>
-      <x:c r="AL30" s="106" t="s"/>
-      <x:c r="AM30" s="104" t="s"/>
+      <x:c r="AK30" s="4" t="s"/>
+      <x:c r="AL30" s="4" t="s"/>
+      <x:c r="AM30" s="3" t="s"/>
       <x:c r="AO30" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AQ30" s="26" t="s">
+      <x:c r="AQ30" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="AS30" s="18">
         <x:f>AS28+2/4*(AS32-AS28)</x:f>
       </x:c>
       <x:c r="AT30" s="18">
-        <x:f> Z38 * (AS30 - AS28)^3 + AA38 * (AS30 - AS28)^2 + AB38 * (AS30 - AS28) + AC38</x:f>
+        <x:f>Z38 * (AS30 - AS28)^3 + AA38 * (AS30 - AS28)^2 + AB38 * (AS30 - AS28) + AC38</x:f>
       </x:c>
       <x:c r="AV30" s="18">
         <x:f>AV28+2/4*(AV32-AV28)</x:f>
       </x:c>
       <x:c r="AW30" s="18">
-        <x:f> AJ38 * (AV30 - AV28)^3 + AK38 * (AV30 - AV28)^2 + AL38 * (AV30 - AV28) + AM38</x:f>
-      </x:c>
-      <x:c r="BF30" s="89" t="n">
+        <x:f>AJ38 * (AV30 - AV28)^3 + AK38 * (AV30 - AV28)^2 + AL38 * (AV30 - AV28) + AM38</x:f>
+      </x:c>
+      <x:c r="BF30" s="44" t="n">
         <x:v>0.72</x:v>
       </x:c>
-      <x:c r="BG30" s="87" t="n">
+      <x:c r="BG30" s="43" t="n">
         <x:v>102.926</x:v>
       </x:c>
-      <x:c r="BH30" s="1" t="n">
+      <x:c r="BH30" s="8" t="n">
         <x:v>112.277</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A31" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B31" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C31" s="6" t="s"/>
-      <x:c r="D31" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E31" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F31" s="6" t="s"/>
-      <x:c r="G31" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H31" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="I31" s="6" t="s"/>
-      <x:c r="J31" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K31" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L31" s="6" t="s"/>
-      <x:c r="M31" s="9" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="29" t="s"/>
+      <x:c r="N31" s="9" t="s"/>
+      <x:c r="O31" s="28" t="s"/>
       <x:c r="P31" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -15659,10 +15203,10 @@
       <x:c r="U31" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="W31" s="28">
-        <x:f t="array" ref="W31:W34"> MMULT( MINVERSE(P31:S34), U31:U34 )</x:f>
-      </x:c>
-      <x:c r="Y31" s="29" t="s"/>
+      <x:c r="W31" s="27">
+        <x:f t="array" ref="W31:W34">MMULT( MINVERSE(P31:S34), U31:U34 )</x:f>
+      </x:c>
+      <x:c r="Y31" s="28" t="s"/>
       <x:c r="Z31" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -15678,10 +15222,10 @@
       <x:c r="AE31" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG31" s="28">
-        <x:f t="array" ref="AG31:AG34"> MMULT( MINVERSE(Z31:AC34), AE31:AE34 )</x:f>
-      </x:c>
-      <x:c r="AI31" s="29" t="s"/>
+      <x:c r="AG31" s="27">
+        <x:f t="array" ref="AG31:AG34">MMULT( MINVERSE(Z31:AC34), AE31:AE34 )</x:f>
+      </x:c>
+      <x:c r="AI31" s="28" t="s"/>
       <x:c r="AJ31" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -15697,98 +15241,79 @@
       <x:c r="AO31" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ31" s="28">
-        <x:f t="array" ref="AQ31:AQ34"> MMULT( MINVERSE(AJ31:AM34), AO31:AO34 )</x:f>
+      <x:c r="AQ31" s="27">
+        <x:f t="array" ref="AQ31:AQ34">MMULT( MINVERSE(AJ31:AM34), AO31:AO34 )</x:f>
       </x:c>
       <x:c r="AS31" s="18">
         <x:f>AS28+3/4*(AS32-AS28)</x:f>
       </x:c>
       <x:c r="AT31" s="18">
-        <x:f> Z38 * (AS31 - AS28)^3 + AA38 * (AS31 - AS28)^2 + AB38 * (AS31 - AS28) + AC38</x:f>
+        <x:f>Z38 * (AS31 - AS28)^3 + AA38 * (AS31 - AS28)^2 + AB38 * (AS31 - AS28) + AC38</x:f>
       </x:c>
       <x:c r="AV31" s="18">
         <x:f>AV28+3/4*(AV32-AV28)</x:f>
       </x:c>
       <x:c r="AW31" s="18">
-        <x:f> AJ38 * (AV31 - AV28)^3 + AK38 * (AV31 - AV28)^2 + AL38 * (AV31 - AV28) + AM38</x:f>
+        <x:f>AJ38 * (AV31 - AV28)^3 + AK38 * (AV31 - AV28)^2 + AL38 * (AV31 - AV28) + AM38</x:f>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A32" s="1" t="n">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="B32" s="1" t="n">
-        <x:v>0.708594519303253</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="n">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="E32" s="1">
-        <x:f>0.778800783071405-0.6</x:f>
-      </x:c>
-      <x:c r="G32" s="1" t="n">
-        <x:v>-9999</x:v>
-      </x:c>
-      <x:c r="H32" s="1" t="n">
-        <x:v>-9999</x:v>
-      </x:c>
-      <x:c r="M32" s="3" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="29" t="s"/>
+      <x:c r="N32" s="9" t="s"/>
+      <x:c r="O32" s="28" t="s"/>
       <x:c r="P32" s="18">
-        <x:f> T25 / U25</x:f>
+        <x:f>T25 / U25</x:f>
       </x:c>
       <x:c r="Q32" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R32" s="18">
-        <x:f> 1 - P32</x:f>
+        <x:f>1 - P32</x:f>
       </x:c>
       <x:c r="S32" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U32" s="18">
-        <x:f> 3 * (W26 - W25) / U25</x:f>
-      </x:c>
-      <x:c r="W32" s="28">
+        <x:f>3 * (W26 - W25) / U25</x:f>
+      </x:c>
+      <x:c r="W32" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="Y32" s="29" t="s"/>
+      <x:c r="Y32" s="28" t="s"/>
       <x:c r="Z32" s="18">
-        <x:f> AD25 / AE25</x:f>
+        <x:f>AD25 / AE25</x:f>
       </x:c>
       <x:c r="AA32" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AB32" s="18">
-        <x:f> 1 - Z32</x:f>
+        <x:f>1 - Z32</x:f>
       </x:c>
       <x:c r="AC32" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE32" s="18">
-        <x:f> 3 * (AG26 - AG25) / AE25</x:f>
-      </x:c>
-      <x:c r="AG32" s="28">
+        <x:f>3 * (AG26 - AG25) / AE25</x:f>
+      </x:c>
+      <x:c r="AG32" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI32" s="29" t="s"/>
+      <x:c r="AI32" s="28" t="s"/>
       <x:c r="AJ32" s="18">
-        <x:f> AN25 / AO25</x:f>
+        <x:f>AN25 / AO25</x:f>
       </x:c>
       <x:c r="AK32" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AL32" s="18">
-        <x:f> 1 - AJ32</x:f>
+        <x:f>1 - AJ32</x:f>
       </x:c>
       <x:c r="AM32" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO32" s="18">
-        <x:f> 3 * (AQ26 - AQ25) / AO25</x:f>
-      </x:c>
-      <x:c r="AQ32" s="28">
+        <x:f>3 * (AQ26 - AQ25) / AO25</x:f>
+      </x:c>
+      <x:c r="AQ32" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS32" s="18">
@@ -15805,105 +15330,79 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A33" s="1" t="n">
-        <x:v>0.5</x:v>
-      </x:c>
-      <x:c r="B33" s="1" t="n">
-        <x:v>0.444180840345708</x:v>
-      </x:c>
-      <x:c r="D33" s="1" t="n">
-        <x:v>0.5</x:v>
-      </x:c>
-      <x:c r="E33" s="1">
-        <x:f>0.606530659712633-0.6</x:f>
-      </x:c>
-      <x:c r="M33" s="3" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="29" t="s"/>
+      <x:c r="N33" s="9" t="s"/>
+      <x:c r="O33" s="28" t="s"/>
       <x:c r="P33" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q33" s="18">
-        <x:f> T26 / U26</x:f>
+        <x:f>T26 / U26</x:f>
       </x:c>
       <x:c r="R33" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="S33" s="18">
-        <x:f> 1 - Q33</x:f>
+        <x:f>1 - Q33</x:f>
       </x:c>
       <x:c r="U33" s="18">
-        <x:f> 3 * (W27 - W26) / U26</x:f>
-      </x:c>
-      <x:c r="W33" s="28">
+        <x:f>3 * (W27 - W26) / U26</x:f>
+      </x:c>
+      <x:c r="W33" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="Y33" s="29" t="s"/>
+      <x:c r="Y33" s="28" t="s"/>
       <x:c r="Z33" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AA33" s="18">
-        <x:f> AD26 / AE26</x:f>
+        <x:f>AD26 / AE26</x:f>
       </x:c>
       <x:c r="AB33" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AC33" s="18">
-        <x:f> 1 - AA33</x:f>
+        <x:f>1 - AA33</x:f>
       </x:c>
       <x:c r="AE33" s="18">
-        <x:f> 3 * (AG27 - AG26) / AE26</x:f>
-      </x:c>
-      <x:c r="AG33" s="28">
+        <x:f>3 * (AG27 - AG26) / AE26</x:f>
+      </x:c>
+      <x:c r="AG33" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI33" s="29" t="s"/>
+      <x:c r="AI33" s="28" t="s"/>
       <x:c r="AJ33" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AK33" s="18">
-        <x:f> AN26 / AO26</x:f>
+        <x:f>AN26 / AO26</x:f>
       </x:c>
       <x:c r="AL33" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AM33" s="18">
-        <x:f> 1 - AK33</x:f>
+        <x:f>1 - AK33</x:f>
       </x:c>
       <x:c r="AO33" s="18">
-        <x:f> 3 * (AQ27 - AQ26) / AO26</x:f>
-      </x:c>
-      <x:c r="AQ33" s="28">
+        <x:f>3 * (AQ27 - AQ26) / AO26</x:f>
+      </x:c>
+      <x:c r="AQ33" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS33" s="18">
         <x:f>AS32+1/4*(AS36-AS32)</x:f>
       </x:c>
       <x:c r="AT33" s="18">
-        <x:f> Z39 * (AS33 - AS32)^3 + AA39 * (AS33 - AS32)^2 + AB39 * (AS33 - AS32) + AC39</x:f>
+        <x:f>Z39 * (AS33 - AS32)^3 + AA39 * (AS33 - AS32)^2 + AB39 * (AS33 - AS32) + AC39</x:f>
       </x:c>
       <x:c r="AV33" s="18">
         <x:f>AV32+1/4*(AV36-AV32)</x:f>
       </x:c>
       <x:c r="AW33" s="18">
-        <x:f> AJ39 * (AV33 - AV32)^3 + AK39 * (AV33 - AV32)^2 + AL39 * (AV33 - AV32) + AM39</x:f>
+        <x:f>AJ39 * (AV33 - AV32)^3 + AK39 * (AV33 - AV32)^2 + AL39 * (AV33 - AV32) + AM39</x:f>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A34" s="1" t="n">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="B34" s="1" t="n">
-        <x:v>0.320565172552049</x:v>
-      </x:c>
-      <x:c r="D34" s="1" t="n">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="E34" s="1">
-        <x:f>0.472366552741015-0.6</x:f>
-      </x:c>
-      <x:c r="M34" s="3" t="s"/>
-      <x:c r="O34" s="29" t="s"/>
+      <x:c r="O34" s="28" t="s"/>
       <x:c r="P34" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -15919,10 +15418,10 @@
       <x:c r="U34" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="W34" s="28">
+      <x:c r="W34" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="Y34" s="29" t="s"/>
+      <x:c r="Y34" s="28" t="s"/>
       <x:c r="Z34" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -15938,10 +15437,10 @@
       <x:c r="AE34" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG34" s="28">
+      <x:c r="AG34" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI34" s="29" t="s"/>
+      <x:c r="AI34" s="28" t="s"/>
       <x:c r="AJ34" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -15957,56 +15456,44 @@
       <x:c r="AO34" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ34" s="28">
+      <x:c r="AQ34" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS34" s="18">
         <x:f>AS32+2/4*(AS36-AS32)</x:f>
       </x:c>
       <x:c r="AT34" s="18">
-        <x:f> Z39 * (AS34 - AS32)^3 + AA39 * (AS34 - AS32)^2 + AB39 * (AS34 - AS32) + AC39</x:f>
+        <x:f>Z39 * (AS34 - AS32)^3 + AA39 * (AS34 - AS32)^2 + AB39 * (AS34 - AS32) + AC39</x:f>
       </x:c>
       <x:c r="AV34" s="18">
         <x:f>AV32+2/4*(AV36-AV32)</x:f>
       </x:c>
       <x:c r="AW34" s="18">
-        <x:f> AJ39 * (AV34 - AV32)^3 + AK39 * (AV34 - AV32)^2 + AL39 * (AV34 - AV32) + AM39</x:f>
+        <x:f>AJ39 * (AV34 - AV32)^3 + AK39 * (AV34 - AV32)^2 + AL39 * (AV34 - AV32) + AM39</x:f>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="A35" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B35" s="1" t="n">
-        <x:v>0.245090879108584</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E35" s="1">
-        <x:f>0.367879441171442-0.6</x:f>
-      </x:c>
-      <x:c r="O35" s="29" t="s"/>
-      <x:c r="W35" s="24" t="s"/>
-      <x:c r="Y35" s="29" t="s"/>
-      <x:c r="AG35" s="24" t="s"/>
-      <x:c r="AI35" s="29" t="s"/>
-      <x:c r="AQ35" s="24" t="s"/>
+      <x:c r="O35" s="28" t="s"/>
+      <x:c r="W35" s="23" t="s"/>
+      <x:c r="Y35" s="28" t="s"/>
+      <x:c r="AG35" s="23" t="s"/>
+      <x:c r="AI35" s="28" t="s"/>
+      <x:c r="AQ35" s="23" t="s"/>
       <x:c r="AS35" s="18">
         <x:f>AS32+3/4*(AS36-AS32)</x:f>
       </x:c>
       <x:c r="AT35" s="18">
-        <x:f> Z39 * (AS35 - AS32)^3 + AA39 * (AS35 - AS32)^2 + AB39 * (AS35 - AS32) + AC39</x:f>
+        <x:f>Z39 * (AS35 - AS32)^3 + AA39 * (AS35 - AS32)^2 + AB39 * (AS35 - AS32) + AC39</x:f>
       </x:c>
       <x:c r="AV35" s="18">
         <x:f>AV32+3/4*(AV36-AV32)</x:f>
       </x:c>
       <x:c r="AW35" s="18">
-        <x:f> AJ39 * (AV35 - AV32)^3 + AK39 * (AV35 - AV32)^2 + AL39 * (AV35 - AV32) + AM39</x:f>
+        <x:f>AJ39 * (AV35 - AV32)^3 + AK39 * (AV35 - AV32)^2 + AL39 * (AV35 - AV32) + AM39</x:f>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="O36" s="25" t="s">
+      <x:c r="O36" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="P36" s="17" t="s">
@@ -16021,8 +15508,8 @@
       <x:c r="S36" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="W36" s="24" t="s"/>
-      <x:c r="Y36" s="25" t="s">
+      <x:c r="W36" s="23" t="s"/>
+      <x:c r="Y36" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z36" s="17" t="s">
@@ -16037,13 +15524,13 @@
       <x:c r="AC36" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AD36" s="35" t="s">
+      <x:c r="AD36" s="33" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="AE36" s="107" t="s"/>
-      <x:c r="AF36" s="107" t="s"/>
-      <x:c r="AG36" s="24" t="s"/>
-      <x:c r="AI36" s="25" t="s">
+      <x:c r="AE36" s="45" t="s"/>
+      <x:c r="AF36" s="45" t="s"/>
+      <x:c r="AG36" s="23" t="s"/>
+      <x:c r="AI36" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ36" s="17" t="s">
@@ -16058,12 +15545,12 @@
       <x:c r="AM36" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AN36" s="35" t="s">
+      <x:c r="AN36" s="33" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="AO36" s="107" t="s"/>
-      <x:c r="AP36" s="107" t="s"/>
-      <x:c r="AQ36" s="24" t="s"/>
+      <x:c r="AO36" s="45" t="s"/>
+      <x:c r="AP36" s="45" t="s"/>
+      <x:c r="AQ36" s="23" t="s"/>
       <x:c r="AS36" s="18">
         <x:f>Z28</x:f>
       </x:c>
@@ -16078,215 +15565,197 @@
       </x:c>
     </x:row>
     <x:row r="37" spans="1:62" s="0" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A37" s="0" t="s"/>
-      <x:c r="B37" s="0" t="s"/>
-      <x:c r="C37" s="0" t="s"/>
-      <x:c r="D37" s="0" t="s"/>
-      <x:c r="E37" s="0" t="s"/>
-      <x:c r="F37" s="0" t="s"/>
-      <x:c r="G37" s="0" t="s"/>
-      <x:c r="H37" s="0" t="s"/>
-      <x:c r="I37" s="0" t="s"/>
-      <x:c r="J37" s="0" t="s"/>
-      <x:c r="K37" s="0" t="s"/>
-      <x:c r="L37" s="0" t="s"/>
-      <x:c r="M37" s="0" t="s"/>
-      <x:c r="N37" s="0" t="s"/>
-      <x:c r="O37" s="27" t="n">
+      <x:c r="B37" s="8" t="s"/>
+      <x:c r="C37" s="8" t="s"/>
+      <x:c r="D37" s="8" t="s"/>
+      <x:c r="E37" s="8" t="s"/>
+      <x:c r="F37" s="8" t="s"/>
+      <x:c r="G37" s="8" t="s"/>
+      <x:c r="H37" s="8" t="s"/>
+      <x:c r="I37" s="8" t="s"/>
+      <x:c r="J37" s="8" t="s"/>
+      <x:c r="K37" s="8" t="s"/>
+      <x:c r="L37" s="8" t="s"/>
+      <x:c r="M37" s="8" t="s"/>
+      <x:c r="O37" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P37" s="18">
-        <x:f> (W32 - W31) / (3 * T25)</x:f>
+        <x:f>(W32 - W31) / (3 * T25)</x:f>
       </x:c>
       <x:c r="Q37" s="18">
-        <x:f> W31</x:f>
+        <x:f>W31</x:f>
       </x:c>
       <x:c r="R37" s="18">
-        <x:f> W25 - T25 * (W32 + 2 * W31) / 3</x:f>
+        <x:f>W25 - T25 * (W32 + 2 * W31) / 3</x:f>
       </x:c>
       <x:c r="S37" s="18">
-        <x:f> Q25</x:f>
-      </x:c>
-      <x:c r="T37" s="35" t="s">
+        <x:f>Q25</x:f>
+      </x:c>
+      <x:c r="T37" s="33" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="U37" s="1" t="s"/>
-      <x:c r="V37" s="1" t="s"/>
-      <x:c r="W37" s="24" t="s"/>
-      <x:c r="X37" s="0" t="s"/>
-      <x:c r="Y37" s="27" t="n">
+      <x:c r="U37" s="8" t="s"/>
+      <x:c r="V37" s="8" t="s"/>
+      <x:c r="W37" s="23" t="s"/>
+      <x:c r="Y37" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z37" s="18">
-        <x:f> (AG32 - AG31) / (3 * AD25)</x:f>
+        <x:f>(AG32 - AG31) / (3 * AD25)</x:f>
       </x:c>
       <x:c r="AA37" s="18">
-        <x:f> AG31</x:f>
+        <x:f>AG31</x:f>
       </x:c>
       <x:c r="AB37" s="18">
-        <x:f> AG25 - AD25 * (AG32 + 2 * AG31) / 3</x:f>
+        <x:f>AG25 - AD25 * (AG32 + 2 * AG31) / 3</x:f>
       </x:c>
       <x:c r="AC37" s="18">
         <x:f>AA25</x:f>
       </x:c>
-      <x:c r="AD37" s="35" t="s"/>
-      <x:c r="AE37" s="107" t="s"/>
-      <x:c r="AF37" s="107" t="s"/>
-      <x:c r="AG37" s="24" t="s"/>
-      <x:c r="AH37" s="0" t="s"/>
-      <x:c r="AI37" s="27" t="n">
+      <x:c r="AD37" s="33" t="s"/>
+      <x:c r="AE37" s="45" t="s"/>
+      <x:c r="AF37" s="45" t="s"/>
+      <x:c r="AG37" s="23" t="s"/>
+      <x:c r="AI37" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ37" s="18">
-        <x:f> (AQ32 - AQ31) / (3 * AN25)</x:f>
+        <x:f>(AQ32 - AQ31) / (3 * AN25)</x:f>
       </x:c>
       <x:c r="AK37" s="18">
-        <x:f> AQ31</x:f>
+        <x:f>AQ31</x:f>
       </x:c>
       <x:c r="AL37" s="18">
-        <x:f> AQ25 - AN25 * (AQ32 + 2 * AQ31) / 3</x:f>
+        <x:f>AQ25 - AN25 * (AQ32 + 2 * AQ31) / 3</x:f>
       </x:c>
       <x:c r="AM37" s="18">
         <x:f>AK25</x:f>
       </x:c>
-      <x:c r="AN37" s="35" t="s"/>
-      <x:c r="AO37" s="107" t="s"/>
-      <x:c r="AP37" s="107" t="s"/>
-      <x:c r="AQ37" s="24" t="s"/>
-      <x:c r="AR37" s="0" t="s"/>
-      <x:c r="AS37" s="0" t="s"/>
-      <x:c r="AT37" s="0" t="s"/>
-      <x:c r="AU37" s="0" t="s"/>
-      <x:c r="AV37" s="0" t="s"/>
-      <x:c r="AW37" s="0" t="s"/>
-      <x:c r="AX37" s="0" t="s"/>
-      <x:c r="AY37" s="0" t="s"/>
-      <x:c r="AZ37" s="0" t="s"/>
-      <x:c r="BA37" s="0" t="s"/>
-      <x:c r="BB37" s="0" t="s"/>
-      <x:c r="BC37" s="0" t="s"/>
-      <x:c r="BD37" s="0" t="s"/>
-      <x:c r="BE37" s="0" t="s"/>
-      <x:c r="BF37" s="1" t="s"/>
-      <x:c r="BG37" s="1" t="s"/>
-      <x:c r="BH37" s="1" t="s"/>
-      <x:c r="BI37" s="1" t="s"/>
-      <x:c r="BJ37" s="1" t="s"/>
+      <x:c r="AN37" s="33" t="s"/>
+      <x:c r="AO37" s="45" t="s"/>
+      <x:c r="AP37" s="45" t="s"/>
+      <x:c r="AQ37" s="23" t="s"/>
+      <x:c r="BF37" s="8" t="s"/>
+      <x:c r="BG37" s="8" t="s"/>
+      <x:c r="BH37" s="8" t="s"/>
+      <x:c r="BI37" s="8" t="s"/>
+      <x:c r="BJ37" s="8" t="s"/>
     </x:row>
     <x:row r="38" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="O38" s="27" t="n">
+      <x:c r="O38" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P38" s="18">
-        <x:f> (W33 - W32) / (3 * T26)</x:f>
+        <x:f>(W33 - W32) / (3 * T26)</x:f>
       </x:c>
       <x:c r="Q38" s="18">
-        <x:f> W32</x:f>
+        <x:f>W32</x:f>
       </x:c>
       <x:c r="R38" s="18">
-        <x:f> W26 - T26 * (W33 + 2 * W32) / 3</x:f>
+        <x:f>W26 - T26 * (W33 + 2 * W32) / 3</x:f>
       </x:c>
       <x:c r="S38" s="18">
-        <x:f> Q26</x:f>
-      </x:c>
-      <x:c r="W38" s="24" t="s"/>
-      <x:c r="Y38" s="27" t="n">
+        <x:f>Q26</x:f>
+      </x:c>
+      <x:c r="W38" s="23" t="s"/>
+      <x:c r="Y38" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z38" s="18">
-        <x:f> (AG33 - AG32) / (3 * AD26)</x:f>
+        <x:f>(AG33 - AG32) / (3 * AD26)</x:f>
       </x:c>
       <x:c r="AA38" s="18">
-        <x:f> AG32</x:f>
+        <x:f>AG32</x:f>
       </x:c>
       <x:c r="AB38" s="18">
-        <x:f> AG26 - AD26 * (AG33 + 2 * AG32) / 3</x:f>
+        <x:f>AG26 - AD26 * (AG33 + 2 * AG32) / 3</x:f>
       </x:c>
       <x:c r="AC38" s="18">
         <x:f>AA26</x:f>
       </x:c>
-      <x:c r="AD38" s="35" t="s"/>
-      <x:c r="AE38" s="107" t="s"/>
-      <x:c r="AF38" s="107" t="s"/>
-      <x:c r="AG38" s="24" t="s"/>
-      <x:c r="AI38" s="27" t="n">
+      <x:c r="AD38" s="33" t="s"/>
+      <x:c r="AE38" s="45" t="s"/>
+      <x:c r="AF38" s="45" t="s"/>
+      <x:c r="AG38" s="23" t="s"/>
+      <x:c r="AI38" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ38" s="18">
-        <x:f> (AQ33 - AQ32) / (3 * AN26)</x:f>
+        <x:f>(AQ33 - AQ32) / (3 * AN26)</x:f>
       </x:c>
       <x:c r="AK38" s="18">
-        <x:f> AQ32</x:f>
+        <x:f>AQ32</x:f>
       </x:c>
       <x:c r="AL38" s="18">
-        <x:f> AQ26 - AN26 * (AQ33 + 2 * AQ32) / 3</x:f>
+        <x:f>AQ26 - AN26 * (AQ33 + 2 * AQ32) / 3</x:f>
       </x:c>
       <x:c r="AM38" s="18">
         <x:f>AK26</x:f>
       </x:c>
-      <x:c r="AN38" s="35" t="s"/>
-      <x:c r="AO38" s="107" t="s"/>
-      <x:c r="AP38" s="107" t="s"/>
-      <x:c r="AQ38" s="24" t="s"/>
+      <x:c r="AN38" s="33" t="s"/>
+      <x:c r="AO38" s="45" t="s"/>
+      <x:c r="AP38" s="45" t="s"/>
+      <x:c r="AQ38" s="23" t="s"/>
     </x:row>
     <x:row r="39" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="O39" s="30" t="n">
+      <x:c r="O39" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="P39" s="31">
-        <x:f> (W34 - W33) / (3 * T27)</x:f>
-      </x:c>
-      <x:c r="Q39" s="31">
-        <x:f> W33</x:f>
-      </x:c>
-      <x:c r="R39" s="31">
-        <x:f> W27 - T27 * (W34 + 2 * W33) / 3</x:f>
-      </x:c>
-      <x:c r="S39" s="31">
-        <x:f> Q27</x:f>
-      </x:c>
-      <x:c r="T39" s="32" t="s"/>
-      <x:c r="U39" s="32" t="s"/>
-      <x:c r="V39" s="32" t="s"/>
-      <x:c r="W39" s="33" t="s"/>
-      <x:c r="Y39" s="30" t="n">
+      <x:c r="P39" s="30">
+        <x:f>(W34 - W33) / (3 * T27)</x:f>
+      </x:c>
+      <x:c r="Q39" s="30">
+        <x:f>W33</x:f>
+      </x:c>
+      <x:c r="R39" s="30">
+        <x:f>W27 - T27 * (W34 + 2 * W33) / 3</x:f>
+      </x:c>
+      <x:c r="S39" s="30">
+        <x:f>Q27</x:f>
+      </x:c>
+      <x:c r="T39" s="31" t="s"/>
+      <x:c r="U39" s="31" t="s"/>
+      <x:c r="V39" s="31" t="s"/>
+      <x:c r="W39" s="32" t="s"/>
+      <x:c r="Y39" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="Z39" s="31">
-        <x:f> (AG34 - AG33) / (3 * AD27)</x:f>
-      </x:c>
-      <x:c r="AA39" s="31">
-        <x:f> AG33</x:f>
-      </x:c>
-      <x:c r="AB39" s="31">
-        <x:f> AG27 - AD27 * (AG34 + 2 * AG33) / 3</x:f>
-      </x:c>
-      <x:c r="AC39" s="31">
+      <x:c r="Z39" s="30">
+        <x:f>(AG34 - AG33) / (3 * AD27)</x:f>
+      </x:c>
+      <x:c r="AA39" s="30">
+        <x:f>AG33</x:f>
+      </x:c>
+      <x:c r="AB39" s="30">
+        <x:f>AG27 - AD27 * (AG34 + 2 * AG33) / 3</x:f>
+      </x:c>
+      <x:c r="AC39" s="30">
         <x:f>AA27</x:f>
       </x:c>
-      <x:c r="AD39" s="36" t="s"/>
-      <x:c r="AE39" s="38" t="s"/>
-      <x:c r="AF39" s="38" t="s"/>
-      <x:c r="AG39" s="33" t="s"/>
-      <x:c r="AI39" s="30" t="n">
+      <x:c r="AD39" s="34" t="s"/>
+      <x:c r="AE39" s="35" t="s"/>
+      <x:c r="AF39" s="35" t="s"/>
+      <x:c r="AG39" s="32" t="s"/>
+      <x:c r="AI39" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="AJ39" s="31">
-        <x:f> (AQ34 - AQ33) / (3 * AN27)</x:f>
-      </x:c>
-      <x:c r="AK39" s="31">
-        <x:f> AQ33</x:f>
-      </x:c>
-      <x:c r="AL39" s="31">
-        <x:f> AQ27 - AN27 * (AQ34 + 2 * AQ33) / 3</x:f>
-      </x:c>
-      <x:c r="AM39" s="31">
+      <x:c r="AJ39" s="30">
+        <x:f>(AQ34 - AQ33) / (3 * AN27)</x:f>
+      </x:c>
+      <x:c r="AK39" s="30">
+        <x:f>AQ33</x:f>
+      </x:c>
+      <x:c r="AL39" s="30">
+        <x:f>AQ27 - AN27 * (AQ34 + 2 * AQ33) / 3</x:f>
+      </x:c>
+      <x:c r="AM39" s="30">
         <x:f>AK27</x:f>
       </x:c>
-      <x:c r="AN39" s="36" t="s"/>
-      <x:c r="AO39" s="38" t="s"/>
-      <x:c r="AP39" s="38" t="s"/>
-      <x:c r="AQ39" s="33" t="s"/>
+      <x:c r="AN39" s="34" t="s"/>
+      <x:c r="AO39" s="35" t="s"/>
+      <x:c r="AP39" s="35" t="s"/>
+      <x:c r="AQ39" s="32" t="s"/>
     </x:row>
     <x:row r="40" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <x:row r="41" spans="1:62" x14ac:dyDescent="0.25">
@@ -16312,15 +15781,15 @@
       <x:c r="AO41" s="20" t="s"/>
       <x:c r="AP41" s="20" t="s"/>
       <x:c r="AQ41" s="21" t="s"/>
-      <x:c r="AS41" s="103" t="s">
+      <x:c r="AS41" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="AT41" s="104" t="s"/>
-      <x:c r="AV41" s="103" t="s">
+      <x:c r="AT41" s="3" t="s"/>
+      <x:c r="AV41" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AW41" s="104" t="s"/>
-      <x:c r="BF41" s="73" t="s">
+      <x:c r="AW41" s="3" t="s"/>
+      <x:c r="BF41" s="37" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
@@ -16328,11 +15797,11 @@
       <x:c r="Y42" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AG42" s="24" t="s"/>
+      <x:c r="AG42" s="23" t="s"/>
       <x:c r="AI42" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AQ42" s="24" t="s"/>
+      <x:c r="AQ42" s="23" t="s"/>
       <x:c r="AS42" s="17" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -16345,12 +15814,12 @@
       <x:c r="AW42" s="17" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="BF42" s="4" t="s">
+      <x:c r="BF42" s="11" t="s">
         <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y43" s="25" t="s">
+      <x:c r="Y43" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z43" s="17" t="s">
@@ -16371,10 +15840,10 @@
       <x:c r="AF43" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AG43" s="26" t="s">
+      <x:c r="AG43" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="AI43" s="25" t="s">
+      <x:c r="AI43" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ43" s="17" t="s">
@@ -16395,7 +15864,7 @@
       <x:c r="AP43" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AQ43" s="26" t="s">
+      <x:c r="AQ43" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="AS43" s="18">
@@ -16410,240 +15879,240 @@
       <x:c r="AW43" s="18">
         <x:f>AK44</x:f>
       </x:c>
-      <x:c r="BF43" s="4" t="s">
+      <x:c r="BF43" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y44" s="27" t="n">
+      <x:c r="Y44" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z44" s="18">
-        <x:f>A24</x:f>
+        <x:f>Sheet1!A13</x:f>
       </x:c>
       <x:c r="AA44" s="18">
-        <x:f>B24</x:f>
+        <x:f>Sheet1!B13</x:f>
       </x:c>
       <x:c r="AC44" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD44" s="18">
-        <x:f> Z45 - Z44</x:f>
+        <x:f>Z45 - Z44</x:f>
       </x:c>
       <x:c r="AE44" s="18">
-        <x:f> AD44 + AD45</x:f>
+        <x:f>AD44 + AD45</x:f>
       </x:c>
       <x:c r="AF44" s="18">
-        <x:f> AA45 - AA44</x:f>
-      </x:c>
-      <x:c r="AG44" s="28">
-        <x:f> AF44 / AD44</x:f>
-      </x:c>
-      <x:c r="AI44" s="27" t="n">
+        <x:f>AA45 - AA44</x:f>
+      </x:c>
+      <x:c r="AG44" s="27">
+        <x:f>AF44 / AD44</x:f>
+      </x:c>
+      <x:c r="AI44" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ44" s="18">
-        <x:f>D24</x:f>
+        <x:f>Sheet1!D13</x:f>
       </x:c>
       <x:c r="AK44" s="18">
-        <x:f>E24</x:f>
+        <x:f>Sheet1!E13</x:f>
       </x:c>
       <x:c r="AM44" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN44" s="18">
-        <x:f> AJ45 - AJ44</x:f>
+        <x:f>AJ45 - AJ44</x:f>
       </x:c>
       <x:c r="AO44" s="18">
-        <x:f> AN44 + AN45</x:f>
+        <x:f>AN44 + AN45</x:f>
       </x:c>
       <x:c r="AP44" s="18">
-        <x:f> AK45 - AK44</x:f>
-      </x:c>
-      <x:c r="AQ44" s="28">
-        <x:f> AP44 / AN44</x:f>
+        <x:f>AK45 - AK44</x:f>
+      </x:c>
+      <x:c r="AQ44" s="27">
+        <x:f>AP44 / AN44</x:f>
       </x:c>
       <x:c r="AS44" s="18">
         <x:f>AS43+1/4*(AS47-AS43)</x:f>
       </x:c>
       <x:c r="AT44" s="18">
-        <x:f> Z56 * (AS44 - AS43)^3 + AA56 * (AS44 - AS43)^2 + AB56 * (AS44 - AS43) + AC56</x:f>
+        <x:f>Z56 * (AS44 - AS43)^3 + AA56 * (AS44 - AS43)^2 + AB56 * (AS44 - AS43) + AC56</x:f>
       </x:c>
       <x:c r="AV44" s="18">
         <x:f>AV43+1/4*(AV47-AV43)</x:f>
       </x:c>
       <x:c r="AW44" s="18">
-        <x:f> AJ56 * (AV44 - AV43)^3 + AK56 * (AV44 - AV43)^2 + AL56 * (AV44 - AV43) + AM56</x:f>
-      </x:c>
-      <x:c r="BF44" s="6" t="s">
+        <x:f>AJ56 * (AV44 - AV43)^3 + AK56 * (AV44 - AV43)^2 + AL56 * (AV44 - AV43) + AM56</x:f>
+      </x:c>
+      <x:c r="BF44" s="13" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="BG44" s="6" t="s">
+      <x:c r="BG44" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="BH44" s="6" t="s">
+      <x:c r="BH44" s="13" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y45" s="27" t="n">
+      <x:c r="Y45" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z45" s="18">
-        <x:f>A25</x:f>
+        <x:f>Sheet1!A14</x:f>
       </x:c>
       <x:c r="AA45" s="18">
-        <x:f>B25</x:f>
+        <x:f>Sheet1!B14</x:f>
       </x:c>
       <x:c r="AC45" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AD45" s="18">
-        <x:f> Z46 - Z45</x:f>
+        <x:f>Z46 - Z45</x:f>
       </x:c>
       <x:c r="AE45" s="18">
-        <x:f> AD45 + AD46</x:f>
+        <x:f>AD45 + AD46</x:f>
       </x:c>
       <x:c r="AF45" s="18">
-        <x:f> AA46 - AA45</x:f>
-      </x:c>
-      <x:c r="AG45" s="28">
-        <x:f> AF45 / AD45</x:f>
-      </x:c>
-      <x:c r="AI45" s="27" t="n">
+        <x:f>AA46 - AA45</x:f>
+      </x:c>
+      <x:c r="AG45" s="27">
+        <x:f>AF45 / AD45</x:f>
+      </x:c>
+      <x:c r="AI45" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ45" s="18">
-        <x:f>D25</x:f>
+        <x:f>Sheet1!D14</x:f>
       </x:c>
       <x:c r="AK45" s="18">
-        <x:f>E25</x:f>
+        <x:f>Sheet1!E14</x:f>
       </x:c>
       <x:c r="AM45" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AN45" s="18">
-        <x:f> AJ46 - AJ45</x:f>
+        <x:f>AJ46 - AJ45</x:f>
       </x:c>
       <x:c r="AO45" s="18">
-        <x:f> AN45 + AN46</x:f>
+        <x:f>AN45 + AN46</x:f>
       </x:c>
       <x:c r="AP45" s="18">
-        <x:f> AK46 - AK45</x:f>
-      </x:c>
-      <x:c r="AQ45" s="28">
-        <x:f> AP45 / AN45</x:f>
+        <x:f>AK46 - AK45</x:f>
+      </x:c>
+      <x:c r="AQ45" s="27">
+        <x:f>AP45 / AN45</x:f>
       </x:c>
       <x:c r="AS45" s="18">
         <x:f>AS43+2/4*(AS47-AS43)</x:f>
       </x:c>
       <x:c r="AT45" s="18">
-        <x:f> Z56 * (AS45 - AS43)^3 + AA56 * (AS45 - AS43)^2 + AB56 * (AS45 - AS43) + AC56</x:f>
+        <x:f>Z56 * (AS45 - AS43)^3 + AA56 * (AS45 - AS43)^2 + AB56 * (AS45 - AS43) + AC56</x:f>
       </x:c>
       <x:c r="AV45" s="18">
         <x:f>AV43+2/4*(AV47-AV43)</x:f>
       </x:c>
       <x:c r="AW45" s="18">
-        <x:f> AJ56 * (AV45 - AV43)^3 + AK56 * (AV45 - AV43)^2 + AL56 * (AV45 - AV43) + AM56</x:f>
-      </x:c>
-      <x:c r="BF45" s="89" t="n">
+        <x:f>AJ56 * (AV45 - AV43)^3 + AK56 * (AV45 - AV43)^2 + AL56 * (AV45 - AV43) + AM56</x:f>
+      </x:c>
+      <x:c r="BF45" s="44" t="n">
         <x:v>0.16</x:v>
       </x:c>
-      <x:c r="BG45" s="1" t="n">
+      <x:c r="BG45" s="8" t="n">
         <x:v>93.959</x:v>
       </x:c>
-      <x:c r="BH45" s="1" t="n">
+      <x:c r="BH45" s="8" t="n">
         <x:v>80.087</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y46" s="27" t="n">
+      <x:c r="Y46" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="Z46" s="18">
-        <x:f>A26</x:f>
+        <x:f>Sheet1!A15</x:f>
       </x:c>
       <x:c r="AA46" s="18">
-        <x:f>B26</x:f>
+        <x:f>Sheet1!B15</x:f>
       </x:c>
       <x:c r="AC46" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AD46" s="18">
-        <x:f> Z47 - Z46</x:f>
+        <x:f>Z47 - Z46</x:f>
       </x:c>
       <x:c r="AE46" s="18" t="s"/>
       <x:c r="AF46" s="18">
-        <x:f> AA47 - AA46</x:f>
-      </x:c>
-      <x:c r="AG46" s="28">
-        <x:f> AF46 / AD46</x:f>
-      </x:c>
-      <x:c r="AI46" s="27" t="n">
+        <x:f>AA47 - AA46</x:f>
+      </x:c>
+      <x:c r="AG46" s="27">
+        <x:f>AF46 / AD46</x:f>
+      </x:c>
+      <x:c r="AI46" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AJ46" s="18">
-        <x:f>D26</x:f>
+        <x:f>Sheet1!D15</x:f>
       </x:c>
       <x:c r="AK46" s="18">
-        <x:f>E26</x:f>
+        <x:f>Sheet1!E15</x:f>
       </x:c>
       <x:c r="AM46" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AN46" s="18">
-        <x:f> AJ47 - AJ46</x:f>
+        <x:f>AJ47 - AJ46</x:f>
       </x:c>
       <x:c r="AO46" s="18" t="s"/>
       <x:c r="AP46" s="18">
-        <x:f> AK47 - AK46</x:f>
-      </x:c>
-      <x:c r="AQ46" s="28">
-        <x:f> AP46 / AN46</x:f>
+        <x:f>AK47 - AK46</x:f>
+      </x:c>
+      <x:c r="AQ46" s="27">
+        <x:f>AP46 / AN46</x:f>
       </x:c>
       <x:c r="AS46" s="18">
         <x:f>AS43+3/4*(AS47-AS43)</x:f>
       </x:c>
       <x:c r="AT46" s="18">
-        <x:f> Z56 * (AS46 - AS43)^3 + AA56 * (AS46 - AS43)^2 + AB56 * (AS46 - AS43) + AC56</x:f>
+        <x:f>Z56 * (AS46 - AS43)^3 + AA56 * (AS46 - AS43)^2 + AB56 * (AS46 - AS43) + AC56</x:f>
       </x:c>
       <x:c r="AV46" s="18">
         <x:f>AV43+3/4*(AV47-AV43)</x:f>
       </x:c>
       <x:c r="AW46" s="18">
-        <x:f> AJ56 * (AV46 - AV43)^3 + AK56 * (AV46 - AV43)^2 + AL56 * (AV46 - AV43) + AM56</x:f>
-      </x:c>
-      <x:c r="BF46" s="89" t="n">
+        <x:f>AJ56 * (AV46 - AV43)^3 + AK56 * (AV46 - AV43)^2 + AL56 * (AV46 - AV43) + AM56</x:f>
+      </x:c>
+      <x:c r="BF46" s="44" t="n">
         <x:v>0.2</x:v>
       </x:c>
-      <x:c r="BG46" s="1" t="n">
+      <x:c r="BG46" s="8" t="n">
         <x:v>94.854</x:v>
       </x:c>
-      <x:c r="BH46" s="1" t="n">
+      <x:c r="BH46" s="8" t="n">
         <x:v>82.682</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y47" s="27" t="n">
+      <x:c r="Y47" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="Z47" s="18">
-        <x:f>A27</x:f>
+        <x:f>Sheet1!A16</x:f>
       </x:c>
       <x:c r="AA47" s="18">
-        <x:f>B27</x:f>
-      </x:c>
-      <x:c r="AG47" s="24" t="s"/>
-      <x:c r="AI47" s="27" t="n">
+        <x:f>Sheet1!B16</x:f>
+      </x:c>
+      <x:c r="AG47" s="23" t="s"/>
+      <x:c r="AI47" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AJ47" s="18">
-        <x:f>D27</x:f>
+        <x:f>Sheet1!D16</x:f>
       </x:c>
       <x:c r="AK47" s="18">
-        <x:f>E27</x:f>
-      </x:c>
-      <x:c r="AQ47" s="24" t="s"/>
+        <x:f>Sheet1!E16</x:f>
+      </x:c>
+      <x:c r="AQ47" s="23" t="s"/>
       <x:c r="AS47" s="18">
         <x:f>Z45</x:f>
       </x:c>
@@ -16656,94 +16125,94 @@
       <x:c r="AW47" s="18">
         <x:f>AK45</x:f>
       </x:c>
-      <x:c r="BF47" s="89" t="n">
+      <x:c r="BF47" s="44" t="n">
         <x:v>0.25</x:v>
       </x:c>
-      <x:c r="BG47" s="1" t="n">
+      <x:c r="BG47" s="8" t="n">
         <x:v>95.876</x:v>
       </x:c>
-      <x:c r="BH47" s="1" t="n">
+      <x:c r="BH47" s="8" t="n">
         <x:v>85.882</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y48" s="29" t="s"/>
-      <x:c r="AG48" s="24" t="s"/>
-      <x:c r="AI48" s="29" t="s"/>
-      <x:c r="AQ48" s="24" t="s"/>
+      <x:c r="Y48" s="28" t="s"/>
+      <x:c r="AG48" s="23" t="s"/>
+      <x:c r="AI48" s="28" t="s"/>
+      <x:c r="AQ48" s="23" t="s"/>
       <x:c r="AS48" s="18">
         <x:f>AS47+1/4*(AS51-AS47)</x:f>
       </x:c>
       <x:c r="AT48" s="18">
-        <x:f> Z57 * (AS48 - AS47)^3 + AA57 * (AS48 - AS47)^2 + AB57 * (AS48 - AS47) + AC57</x:f>
+        <x:f>Z57 * (AS48 - AS47)^3 + AA57 * (AS48 - AS47)^2 + AB57 * (AS48 - AS47) + AC57</x:f>
       </x:c>
       <x:c r="AV48" s="18">
         <x:f>AV47+1/4*(AV51-AV47)</x:f>
       </x:c>
       <x:c r="AW48" s="18">
-        <x:f> AJ57 * (AV48 - AV47)^3 + AK57 * (AV48 - AV47)^2 + AL57 * (AV48 - AV47) + AM57</x:f>
-      </x:c>
-      <x:c r="BF48" s="89" t="n">
+        <x:f>AJ57 * (AV48 - AV47)^3 + AK57 * (AV48 - AV47)^2 + AL57 * (AV48 - AV47) + AM57</x:f>
+      </x:c>
+      <x:c r="BF48" s="44" t="n">
         <x:v>0.3</x:v>
       </x:c>
-      <x:c r="BG48" s="1" t="n">
+      <x:c r="BG48" s="8" t="n">
         <x:v>96.815</x:v>
       </x:c>
-      <x:c r="BH48" s="1" t="n">
+      <x:c r="BH48" s="8" t="n">
         <x:v>88.989</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y49" s="29" t="s"/>
-      <x:c r="Z49" s="103" t="s">
+      <x:c r="Y49" s="28" t="s"/>
+      <x:c r="Z49" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AA49" s="106" t="s"/>
-      <x:c r="AB49" s="106" t="s"/>
-      <x:c r="AC49" s="104" t="s"/>
+      <x:c r="AA49" s="4" t="s"/>
+      <x:c r="AB49" s="4" t="s"/>
+      <x:c r="AC49" s="3" t="s"/>
       <x:c r="AE49" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AG49" s="26" t="s">
+      <x:c r="AG49" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AI49" s="29" t="s"/>
-      <x:c r="AJ49" s="103" t="s">
+      <x:c r="AI49" s="28" t="s"/>
+      <x:c r="AJ49" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AK49" s="106" t="s"/>
-      <x:c r="AL49" s="106" t="s"/>
-      <x:c r="AM49" s="104" t="s"/>
+      <x:c r="AK49" s="4" t="s"/>
+      <x:c r="AL49" s="4" t="s"/>
+      <x:c r="AM49" s="3" t="s"/>
       <x:c r="AO49" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AQ49" s="26" t="s">
+      <x:c r="AQ49" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="AS49" s="18">
         <x:f>AS47+2/4*(AS51-AS47)</x:f>
       </x:c>
       <x:c r="AT49" s="18">
-        <x:f> Z57 * (AS49 - AS47)^3 + AA57 * (AS49 - AS47)^2 + AB57 * (AS49 - AS47) + AC57</x:f>
+        <x:f>Z57 * (AS49 - AS47)^3 + AA57 * (AS49 - AS47)^2 + AB57 * (AS49 - AS47) + AC57</x:f>
       </x:c>
       <x:c r="AV49" s="18">
         <x:f>AV47+2/4*(AV51-AV47)</x:f>
       </x:c>
       <x:c r="AW49" s="18">
-        <x:f> AJ57 * (AV49 - AV47)^3 + AK57 * (AV49 - AV47)^2 + AL57 * (AV49 - AV47) + AM57</x:f>
-      </x:c>
-      <x:c r="BF49" s="89" t="n">
+        <x:f>AJ57 * (AV49 - AV47)^3 + AK57 * (AV49 - AV47)^2 + AL57 * (AV49 - AV47) + AM57</x:f>
+      </x:c>
+      <x:c r="BF49" s="44" t="n">
         <x:v>0.35</x:v>
       </x:c>
-      <x:c r="BG49" s="1" t="n">
+      <x:c r="BG49" s="8" t="n">
         <x:v>97.686</x:v>
       </x:c>
-      <x:c r="BH49" s="1" t="n">
+      <x:c r="BH49" s="8" t="n">
         <x:v>91.968</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y50" s="29" t="s"/>
+      <x:c r="Y50" s="28" t="s"/>
       <x:c r="Z50" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -16759,10 +16228,10 @@
       <x:c r="AE50" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG50" s="28">
-        <x:f t="array" ref="AG50:AG53"> MMULT( MINVERSE(Z50:AC53), AE50:AE53 )</x:f>
-      </x:c>
-      <x:c r="AI50" s="29" t="s"/>
+      <x:c r="AG50" s="27">
+        <x:f t="array" ref="AG50:AG53">MMULT( MINVERSE(Z50:AC53), AE50:AE53 )</x:f>
+      </x:c>
+      <x:c r="AI50" s="28" t="s"/>
       <x:c r="AJ50" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -16778,68 +16247,68 @@
       <x:c r="AO50" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ50" s="28">
-        <x:f t="array" ref="AQ50:AQ53"> MMULT( MINVERSE(AJ50:AM53), AO50:AO53 )</x:f>
+      <x:c r="AQ50" s="27">
+        <x:f t="array" ref="AQ50:AQ53">MMULT( MINVERSE(AJ50:AM53), AO50:AO53 )</x:f>
       </x:c>
       <x:c r="AS50" s="18">
         <x:f>AS47+3/4*(AS51-AS47)</x:f>
       </x:c>
       <x:c r="AT50" s="18">
-        <x:f> Z57 * (AS50 - AS47)^3 + AA57 * (AS50 - AS47)^2 + AB57 * (AS50 - AS47) + AC57</x:f>
+        <x:f>Z57 * (AS50 - AS47)^3 + AA57 * (AS50 - AS47)^2 + AB57 * (AS50 - AS47) + AC57</x:f>
       </x:c>
       <x:c r="AV50" s="18">
         <x:f>AV47+3/4*(AV51-AV47)</x:f>
       </x:c>
       <x:c r="AW50" s="18">
-        <x:f> AJ57 * (AV50 - AV47)^3 + AK57 * (AV50 - AV47)^2 + AL57 * (AV50 - AV47) + AM57</x:f>
-      </x:c>
-      <x:c r="BF50" s="89" t="n">
+        <x:f>AJ57 * (AV50 - AV47)^3 + AK57 * (AV50 - AV47)^2 + AL57 * (AV50 - AV47) + AM57</x:f>
+      </x:c>
+      <x:c r="BF50" s="44" t="n">
         <x:v>0.4</x:v>
       </x:c>
-      <x:c r="BG50" s="1" t="n">
+      <x:c r="BG50" s="8" t="n">
         <x:v>98.502</x:v>
       </x:c>
-      <x:c r="BH50" s="87" t="n">
+      <x:c r="BH50" s="43" t="n">
         <x:v>94.8</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y51" s="29" t="s"/>
+      <x:c r="Y51" s="28" t="s"/>
       <x:c r="Z51" s="18">
-        <x:f> AD44 / AE44</x:f>
+        <x:f>AD44 / AE44</x:f>
       </x:c>
       <x:c r="AA51" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AB51" s="18">
-        <x:f> 1 - Z51</x:f>
+        <x:f>1 - Z51</x:f>
       </x:c>
       <x:c r="AC51" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE51" s="18">
-        <x:f> 3 * (AG45 - AG44) / AE44</x:f>
-      </x:c>
-      <x:c r="AG51" s="28">
+        <x:f>3 * (AG45 - AG44) / AE44</x:f>
+      </x:c>
+      <x:c r="AG51" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI51" s="29" t="s"/>
+      <x:c r="AI51" s="28" t="s"/>
       <x:c r="AJ51" s="18">
-        <x:f> AN44 / AO44</x:f>
+        <x:f>AN44 / AO44</x:f>
       </x:c>
       <x:c r="AK51" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AL51" s="18">
-        <x:f> 1 - AJ51</x:f>
+        <x:f>1 - AJ51</x:f>
       </x:c>
       <x:c r="AM51" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO51" s="18">
-        <x:f> 3 * (AQ45 - AQ44) / AO44</x:f>
-      </x:c>
-      <x:c r="AQ51" s="28">
+        <x:f>3 * (AQ45 - AQ44) / AO44</x:f>
+      </x:c>
+      <x:c r="AQ51" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS51" s="18">
@@ -16854,79 +16323,79 @@
       <x:c r="AW51" s="18">
         <x:f>AK46</x:f>
       </x:c>
-      <x:c r="BF51" s="89" t="n">
+      <x:c r="BF51" s="44" t="n">
         <x:v>0.45</x:v>
       </x:c>
-      <x:c r="BG51" s="1" t="n">
+      <x:c r="BG51" s="8" t="n">
         <x:v>99.271</x:v>
       </x:c>
-      <x:c r="BH51" s="1" t="n">
+      <x:c r="BH51" s="8" t="n">
         <x:v>97.475</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y52" s="29" t="s"/>
+      <x:c r="Y52" s="28" t="s"/>
       <x:c r="Z52" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AA52" s="18">
-        <x:f> AD45 / AE45</x:f>
+        <x:f>AD45 / AE45</x:f>
       </x:c>
       <x:c r="AB52" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AC52" s="18">
-        <x:f> 1 - AA52</x:f>
+        <x:f>1 - AA52</x:f>
       </x:c>
       <x:c r="AE52" s="18">
-        <x:f> 3 * (AG46 - AG45) / AE45</x:f>
-      </x:c>
-      <x:c r="AG52" s="28">
+        <x:f>3 * (AG46 - AG45) / AE45</x:f>
+      </x:c>
+      <x:c r="AG52" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI52" s="29" t="s"/>
+      <x:c r="AI52" s="28" t="s"/>
       <x:c r="AJ52" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AK52" s="18">
-        <x:f> AN45 / AO45</x:f>
+        <x:f>AN45 / AO45</x:f>
       </x:c>
       <x:c r="AL52" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AM52" s="18">
-        <x:f> 1 - AK52</x:f>
+        <x:f>1 - AK52</x:f>
       </x:c>
       <x:c r="AO52" s="18">
-        <x:f> 3 * (AQ46 - AQ45) / AO45</x:f>
-      </x:c>
-      <x:c r="AQ52" s="28">
+        <x:f>3 * (AQ46 - AQ45) / AO45</x:f>
+      </x:c>
+      <x:c r="AQ52" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS52" s="18">
         <x:f>AS51+1/4*(AS55-AS51)</x:f>
       </x:c>
       <x:c r="AT52" s="18">
-        <x:f> Z58 * (AS52 - AS51)^3 + AA58 * (AS52 - AS51)^2 + AB58 * (AS52 - AS51) + AC58</x:f>
+        <x:f>Z58 * (AS52 - AS51)^3 + AA58 * (AS52 - AS51)^2 + AB58 * (AS52 - AS51) + AC58</x:f>
       </x:c>
       <x:c r="AV52" s="18">
         <x:f>AV51+1/4*(AV55-AV51)</x:f>
       </x:c>
       <x:c r="AW52" s="18">
-        <x:f> AJ58 * (AV52 - AV51)^3 + AK58 * (AV52 - AV51)^2 + AL58 * (AV52 - AV51) + AM58</x:f>
-      </x:c>
-      <x:c r="BF52" s="89" t="n">
+        <x:f>AJ58 * (AV52 - AV51)^3 + AK58 * (AV52 - AV51)^2 + AL58 * (AV52 - AV51) + AM58</x:f>
+      </x:c>
+      <x:c r="BF52" s="44" t="n">
         <x:v>0.49</x:v>
       </x:c>
-      <x:c r="BG52" s="1" t="n">
+      <x:c r="BG52" s="8" t="n">
         <x:v>99.857</x:v>
       </x:c>
-      <x:c r="BH52" s="1" t="n">
+      <x:c r="BH52" s="8" t="n">
         <x:v>97.992</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y53" s="29" t="s"/>
+      <x:c r="Y53" s="28" t="s"/>
       <x:c r="Z53" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16942,10 +16411,10 @@
       <x:c r="AE53" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG53" s="28">
+      <x:c r="AG53" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI53" s="29" t="s"/>
+      <x:c r="AI53" s="28" t="s"/>
       <x:c r="AJ53" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16961,42 +16430,42 @@
       <x:c r="AO53" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ53" s="28">
+      <x:c r="AQ53" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS53" s="18">
         <x:f>AS51+2/4*(AS55-AS51)</x:f>
       </x:c>
       <x:c r="AT53" s="18">
-        <x:f> Z58 * (AS53 - AS51)^3 + AA58 * (AS53 - AS51)^2 + AB58 * (AS53 - AS51) + AC58</x:f>
+        <x:f>Z58 * (AS53 - AS51)^3 + AA58 * (AS53 - AS51)^2 + AB58 * (AS53 - AS51) + AC58</x:f>
       </x:c>
       <x:c r="AV53" s="18">
         <x:f>AV51+2/4*(AV55-AV51)</x:f>
       </x:c>
       <x:c r="AW53" s="18">
-        <x:f> AJ58 * (AV53 - AV51)^3 + AK58 * (AV53 - AV51)^2 + AL58 * (AV53 - AV51) + AM58</x:f>
+        <x:f>AJ58 * (AV53 - AV51)^3 + AK58 * (AV53 - AV51)^2 + AL58 * (AV53 - AV51) + AM58</x:f>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y54" s="29" t="s"/>
-      <x:c r="AG54" s="24" t="s"/>
-      <x:c r="AI54" s="29" t="s"/>
-      <x:c r="AQ54" s="24" t="s"/>
+      <x:c r="Y54" s="28" t="s"/>
+      <x:c r="AG54" s="23" t="s"/>
+      <x:c r="AI54" s="28" t="s"/>
+      <x:c r="AQ54" s="23" t="s"/>
       <x:c r="AS54" s="18">
         <x:f>AS51+3/4*(AS55-AS51)</x:f>
       </x:c>
       <x:c r="AT54" s="18">
-        <x:f> Z58 * (AS54 - AS51)^3 + AA58 * (AS54 - AS51)^2 + AB58 * (AS54 - AS51) + AC58</x:f>
+        <x:f>Z58 * (AS54 - AS51)^3 + AA58 * (AS54 - AS51)^2 + AB58 * (AS54 - AS51) + AC58</x:f>
       </x:c>
       <x:c r="AV54" s="18">
         <x:f>AV51+3/4*(AV55-AV51)</x:f>
       </x:c>
       <x:c r="AW54" s="18">
-        <x:f> AJ58 * (AV54 - AV51)^3 + AK58 * (AV54 - AV51)^2 + AL58 * (AV54 - AV51) + AM58</x:f>
+        <x:f>AJ58 * (AV54 - AV51)^3 + AK58 * (AV54 - AV51)^2 + AL58 * (AV54 - AV51) + AM58</x:f>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y55" s="25" t="s">
+      <x:c r="Y55" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z55" s="17" t="s">
@@ -17011,13 +16480,13 @@
       <x:c r="AC55" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AD55" s="35" t="s">
+      <x:c r="AD55" s="33" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="AE55" s="107" t="s"/>
-      <x:c r="AF55" s="107" t="s"/>
-      <x:c r="AG55" s="24" t="s"/>
-      <x:c r="AI55" s="25" t="s">
+      <x:c r="AE55" s="45" t="s"/>
+      <x:c r="AF55" s="45" t="s"/>
+      <x:c r="AG55" s="23" t="s"/>
+      <x:c r="AI55" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ55" s="17" t="s">
@@ -17032,12 +16501,12 @@
       <x:c r="AM55" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AN55" s="35" t="s">
+      <x:c r="AN55" s="33" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="AO55" s="107" t="s"/>
-      <x:c r="AP55" s="107" t="s"/>
-      <x:c r="AQ55" s="24" t="s"/>
+      <x:c r="AO55" s="45" t="s"/>
+      <x:c r="AP55" s="45" t="s"/>
+      <x:c r="AQ55" s="23" t="s"/>
       <x:c r="AS55" s="18">
         <x:f>Z47</x:f>
       </x:c>
@@ -17052,124 +16521,124 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y56" s="27" t="n">
+      <x:c r="Y56" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z56" s="18">
-        <x:f> (AG51 - AG50) / (3 * AD44)</x:f>
+        <x:f>(AG51 - AG50) / (3 * AD44)</x:f>
       </x:c>
       <x:c r="AA56" s="18">
-        <x:f> AG50</x:f>
+        <x:f>AG50</x:f>
       </x:c>
       <x:c r="AB56" s="18">
-        <x:f> AG44 - AD44 * (AG51 + 2 * AG50) / 3</x:f>
+        <x:f>AG44 - AD44 * (AG51 + 2 * AG50) / 3</x:f>
       </x:c>
       <x:c r="AC56" s="18">
         <x:f>AA44</x:f>
       </x:c>
-      <x:c r="AD56" s="35" t="s"/>
-      <x:c r="AE56" s="107" t="s"/>
-      <x:c r="AF56" s="107" t="s"/>
-      <x:c r="AG56" s="24" t="s"/>
-      <x:c r="AI56" s="27" t="n">
+      <x:c r="AD56" s="33" t="s"/>
+      <x:c r="AE56" s="45" t="s"/>
+      <x:c r="AF56" s="45" t="s"/>
+      <x:c r="AG56" s="23" t="s"/>
+      <x:c r="AI56" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ56" s="18">
-        <x:f> (AQ51 - AQ50) / (3 * AN44)</x:f>
+        <x:f>(AQ51 - AQ50) / (3 * AN44)</x:f>
       </x:c>
       <x:c r="AK56" s="18">
-        <x:f> AQ50</x:f>
+        <x:f>AQ50</x:f>
       </x:c>
       <x:c r="AL56" s="18">
-        <x:f> AQ44 - AN44 * (AQ51 + 2 * AQ50) / 3</x:f>
+        <x:f>AQ44 - AN44 * (AQ51 + 2 * AQ50) / 3</x:f>
       </x:c>
       <x:c r="AM56" s="18">
         <x:f>AK44</x:f>
       </x:c>
-      <x:c r="AN56" s="35" t="s"/>
-      <x:c r="AO56" s="107" t="s"/>
-      <x:c r="AP56" s="107" t="s"/>
-      <x:c r="AQ56" s="24" t="s"/>
+      <x:c r="AN56" s="33" t="s"/>
+      <x:c r="AO56" s="45" t="s"/>
+      <x:c r="AP56" s="45" t="s"/>
+      <x:c r="AQ56" s="23" t="s"/>
     </x:row>
     <x:row r="57" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y57" s="27" t="n">
+      <x:c r="Y57" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z57" s="18">
-        <x:f> (AG52 - AG51) / (3 * AD45)</x:f>
+        <x:f>(AG52 - AG51) / (3 * AD45)</x:f>
       </x:c>
       <x:c r="AA57" s="18">
-        <x:f> AG51</x:f>
+        <x:f>AG51</x:f>
       </x:c>
       <x:c r="AB57" s="18">
-        <x:f> AG45 - AD45 * (AG52 + 2 * AG51) / 3</x:f>
+        <x:f>AG45 - AD45 * (AG52 + 2 * AG51) / 3</x:f>
       </x:c>
       <x:c r="AC57" s="18">
         <x:f>AA45</x:f>
       </x:c>
-      <x:c r="AD57" s="35" t="s"/>
-      <x:c r="AE57" s="107" t="s"/>
-      <x:c r="AF57" s="107" t="s"/>
-      <x:c r="AG57" s="24" t="s"/>
-      <x:c r="AI57" s="27" t="n">
+      <x:c r="AD57" s="33" t="s"/>
+      <x:c r="AE57" s="45" t="s"/>
+      <x:c r="AF57" s="45" t="s"/>
+      <x:c r="AG57" s="23" t="s"/>
+      <x:c r="AI57" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ57" s="18">
-        <x:f> (AQ52 - AQ51) / (3 * AN45)</x:f>
+        <x:f>(AQ52 - AQ51) / (3 * AN45)</x:f>
       </x:c>
       <x:c r="AK57" s="18">
-        <x:f> AQ51</x:f>
+        <x:f>AQ51</x:f>
       </x:c>
       <x:c r="AL57" s="18">
-        <x:f> AQ45 - AN45 * (AQ52 + 2 * AQ51) / 3</x:f>
+        <x:f>AQ45 - AN45 * (AQ52 + 2 * AQ51) / 3</x:f>
       </x:c>
       <x:c r="AM57" s="18">
         <x:f>AK45</x:f>
       </x:c>
-      <x:c r="AN57" s="35" t="s"/>
-      <x:c r="AO57" s="107" t="s"/>
-      <x:c r="AP57" s="107" t="s"/>
-      <x:c r="AQ57" s="24" t="s"/>
+      <x:c r="AN57" s="33" t="s"/>
+      <x:c r="AO57" s="45" t="s"/>
+      <x:c r="AP57" s="45" t="s"/>
+      <x:c r="AQ57" s="23" t="s"/>
     </x:row>
     <x:row r="58" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="Y58" s="30" t="n">
+      <x:c r="Y58" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="Z58" s="31">
-        <x:f> (AG53 - AG52) / (3 * AD46)</x:f>
-      </x:c>
-      <x:c r="AA58" s="31">
-        <x:f> AG52</x:f>
-      </x:c>
-      <x:c r="AB58" s="31">
-        <x:f> AG46 - AD46 * (AG53 + 2 * AG52) / 3</x:f>
-      </x:c>
-      <x:c r="AC58" s="31">
+      <x:c r="Z58" s="30">
+        <x:f>(AG53 - AG52) / (3 * AD46)</x:f>
+      </x:c>
+      <x:c r="AA58" s="30">
+        <x:f>AG52</x:f>
+      </x:c>
+      <x:c r="AB58" s="30">
+        <x:f>AG46 - AD46 * (AG53 + 2 * AG52) / 3</x:f>
+      </x:c>
+      <x:c r="AC58" s="30">
         <x:f>AA46</x:f>
       </x:c>
-      <x:c r="AD58" s="36" t="s"/>
-      <x:c r="AE58" s="38" t="s"/>
-      <x:c r="AF58" s="38" t="s"/>
-      <x:c r="AG58" s="33" t="s"/>
-      <x:c r="AI58" s="30" t="n">
+      <x:c r="AD58" s="34" t="s"/>
+      <x:c r="AE58" s="35" t="s"/>
+      <x:c r="AF58" s="35" t="s"/>
+      <x:c r="AG58" s="32" t="s"/>
+      <x:c r="AI58" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="AJ58" s="31">
-        <x:f> (AQ53 - AQ52) / (3 * AN46)</x:f>
-      </x:c>
-      <x:c r="AK58" s="31">
-        <x:f> AQ52</x:f>
-      </x:c>
-      <x:c r="AL58" s="31">
-        <x:f> AQ46 - AN46 * (AQ53 + 2 * AQ52) / 3</x:f>
-      </x:c>
-      <x:c r="AM58" s="31">
+      <x:c r="AJ58" s="30">
+        <x:f>(AQ53 - AQ52) / (3 * AN46)</x:f>
+      </x:c>
+      <x:c r="AK58" s="30">
+        <x:f>AQ52</x:f>
+      </x:c>
+      <x:c r="AL58" s="30">
+        <x:f>AQ46 - AN46 * (AQ53 + 2 * AQ52) / 3</x:f>
+      </x:c>
+      <x:c r="AM58" s="30">
         <x:f>AK46</x:f>
       </x:c>
-      <x:c r="AN58" s="36" t="s"/>
-      <x:c r="AO58" s="38" t="s"/>
-      <x:c r="AP58" s="38" t="s"/>
-      <x:c r="AQ58" s="33" t="s"/>
+      <x:c r="AN58" s="34" t="s"/>
+      <x:c r="AO58" s="35" t="s"/>
+      <x:c r="AP58" s="35" t="s"/>
+      <x:c r="AQ58" s="32" t="s"/>
     </x:row>
     <x:row r="59" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <x:row r="60" spans="1:62" x14ac:dyDescent="0.25">
@@ -17195,24 +16664,24 @@
       <x:c r="AO60" s="20" t="s"/>
       <x:c r="AP60" s="20" t="s"/>
       <x:c r="AQ60" s="21" t="s"/>
-      <x:c r="AS60" s="103" t="s">
+      <x:c r="AS60" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="AT60" s="104" t="s"/>
-      <x:c r="AV60" s="103" t="s">
+      <x:c r="AT60" s="3" t="s"/>
+      <x:c r="AV60" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AW60" s="104" t="s"/>
+      <x:c r="AW60" s="3" t="s"/>
     </x:row>
     <x:row r="61" spans="1:62" x14ac:dyDescent="0.25">
       <x:c r="Y61" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AG61" s="24" t="s"/>
+      <x:c r="AG61" s="23" t="s"/>
       <x:c r="AI61" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AQ61" s="24" t="s"/>
+      <x:c r="AQ61" s="23" t="s"/>
       <x:c r="AS61" s="17" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -17227,7 +16696,7 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y62" s="25" t="s">
+      <x:c r="Y62" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z62" s="17" t="s">
@@ -17248,10 +16717,10 @@
       <x:c r="AF62" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AG62" s="26" t="s">
+      <x:c r="AG62" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="AI62" s="25" t="s">
+      <x:c r="AI62" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ62" s="17" t="s">
@@ -17272,7 +16741,7 @@
       <x:c r="AP62" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AQ62" s="26" t="s">
+      <x:c r="AQ62" s="25" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="AS62" s="18">
@@ -17289,208 +16758,208 @@
       </x:c>
     </x:row>
     <x:row r="63" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y63" s="27" t="n">
+      <x:c r="Y63" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z63" s="18">
-        <x:f>A32</x:f>
+        <x:f>Sheet1!A21</x:f>
       </x:c>
       <x:c r="AA63" s="18">
-        <x:f>B32</x:f>
+        <x:f>Sheet1!B21</x:f>
       </x:c>
       <x:c r="AC63" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD63" s="18">
-        <x:f> Z64 - Z63</x:f>
+        <x:f>Z64 - Z63</x:f>
       </x:c>
       <x:c r="AE63" s="18">
-        <x:f> AD63 + AD64</x:f>
+        <x:f>AD63 + AD64</x:f>
       </x:c>
       <x:c r="AF63" s="18">
-        <x:f> AA64 - AA63</x:f>
-      </x:c>
-      <x:c r="AG63" s="28">
-        <x:f> AF63 / AD63</x:f>
-      </x:c>
-      <x:c r="AI63" s="27" t="n">
+        <x:f>AA64 - AA63</x:f>
+      </x:c>
+      <x:c r="AG63" s="27">
+        <x:f>AF63 / AD63</x:f>
+      </x:c>
+      <x:c r="AI63" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ63" s="18">
-        <x:f>D32</x:f>
+        <x:f>Sheet1!D21</x:f>
       </x:c>
       <x:c r="AK63" s="18">
-        <x:f>E32</x:f>
+        <x:f>Sheet1!E21</x:f>
       </x:c>
       <x:c r="AM63" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN63" s="18">
-        <x:f> AJ64 - AJ63</x:f>
+        <x:f>AJ64 - AJ63</x:f>
       </x:c>
       <x:c r="AO63" s="18">
-        <x:f> AN63 + AN64</x:f>
+        <x:f>AN63 + AN64</x:f>
       </x:c>
       <x:c r="AP63" s="18">
-        <x:f> AK64 - AK63</x:f>
-      </x:c>
-      <x:c r="AQ63" s="28">
-        <x:f> AP63 / AN63</x:f>
+        <x:f>AK64 - AK63</x:f>
+      </x:c>
+      <x:c r="AQ63" s="27">
+        <x:f>AP63 / AN63</x:f>
       </x:c>
       <x:c r="AS63" s="18">
         <x:f>AS62+1/4*(AS66-AS62)</x:f>
       </x:c>
       <x:c r="AT63" s="18">
-        <x:f> Z75 * (AS63 - AS62)^3 + AA75 * (AS63 - AS62)^2 + AB75 * (AS63 - AS62) + AC75</x:f>
+        <x:f>Z75 * (AS63 - AS62)^3 + AA75 * (AS63 - AS62)^2 + AB75 * (AS63 - AS62) + AC75</x:f>
       </x:c>
       <x:c r="AV63" s="18">
         <x:f>AV62+1/4*(AV66-AV62)</x:f>
       </x:c>
       <x:c r="AW63" s="18">
-        <x:f> AJ75 * (AV63 - AV62)^3 + AK75 * (AV63 - AV62)^2 + AL75 * (AV63 - AV62) + AM75</x:f>
+        <x:f>AJ75 * (AV63 - AV62)^3 + AK75 * (AV63 - AV62)^2 + AL75 * (AV63 - AV62) + AM75</x:f>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y64" s="27" t="n">
+      <x:c r="Y64" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z64" s="18">
-        <x:f>A33</x:f>
+        <x:f>Sheet1!A22</x:f>
       </x:c>
       <x:c r="AA64" s="18">
-        <x:f>B33</x:f>
+        <x:f>Sheet1!B22</x:f>
       </x:c>
       <x:c r="AC64" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AD64" s="18">
-        <x:f> Z65 - Z64</x:f>
+        <x:f>Z65 - Z64</x:f>
       </x:c>
       <x:c r="AE64" s="18">
-        <x:f> AD64 + AD65</x:f>
+        <x:f>AD64 + AD65</x:f>
       </x:c>
       <x:c r="AF64" s="18">
-        <x:f> AA65 - AA64</x:f>
-      </x:c>
-      <x:c r="AG64" s="28">
-        <x:f> AF64 / AD64</x:f>
-      </x:c>
-      <x:c r="AI64" s="27" t="n">
+        <x:f>AA65 - AA64</x:f>
+      </x:c>
+      <x:c r="AG64" s="27">
+        <x:f>AF64 / AD64</x:f>
+      </x:c>
+      <x:c r="AI64" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ64" s="18">
-        <x:f>D33</x:f>
+        <x:f>Sheet1!D22</x:f>
       </x:c>
       <x:c r="AK64" s="18">
-        <x:f>E33</x:f>
+        <x:f>Sheet1!E22</x:f>
       </x:c>
       <x:c r="AM64" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AN64" s="18">
-        <x:f> AJ65 - AJ64</x:f>
+        <x:f>AJ65 - AJ64</x:f>
       </x:c>
       <x:c r="AO64" s="18">
-        <x:f> AN64 + AN65</x:f>
+        <x:f>AN64 + AN65</x:f>
       </x:c>
       <x:c r="AP64" s="18">
-        <x:f> AK65 - AK64</x:f>
-      </x:c>
-      <x:c r="AQ64" s="28">
-        <x:f> AP64 / AN64</x:f>
+        <x:f>AK65 - AK64</x:f>
+      </x:c>
+      <x:c r="AQ64" s="27">
+        <x:f>AP64 / AN64</x:f>
       </x:c>
       <x:c r="AS64" s="18">
         <x:f>AS62+2/4*(AS66-AS62)</x:f>
       </x:c>
       <x:c r="AT64" s="18">
-        <x:f> Z75 * (AS64 - AS62)^3 + AA75 * (AS64 - AS62)^2 + AB75 * (AS64 - AS62) + AC75</x:f>
+        <x:f>Z75 * (AS64 - AS62)^3 + AA75 * (AS64 - AS62)^2 + AB75 * (AS64 - AS62) + AC75</x:f>
       </x:c>
       <x:c r="AV64" s="18">
         <x:f>AV62+2/4*(AV66-AV62)</x:f>
       </x:c>
       <x:c r="AW64" s="18">
-        <x:f> AJ75 * (AV64 - AV62)^3 + AK75 * (AV64 - AV62)^2 + AL75 * (AV64 - AV62) + AM75</x:f>
+        <x:f>AJ75 * (AV64 - AV62)^3 + AK75 * (AV64 - AV62)^2 + AL75 * (AV64 - AV62) + AM75</x:f>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y65" s="27" t="n">
+      <x:c r="Y65" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="Z65" s="18">
-        <x:f>A34</x:f>
+        <x:f>Sheet1!A23</x:f>
       </x:c>
       <x:c r="AA65" s="18">
-        <x:f>B34</x:f>
+        <x:f>Sheet1!B23</x:f>
       </x:c>
       <x:c r="AC65" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AD65" s="18">
-        <x:f> Z66 - Z65</x:f>
+        <x:f>Z66 - Z65</x:f>
       </x:c>
       <x:c r="AE65" s="18" t="s"/>
       <x:c r="AF65" s="18">
-        <x:f> AA66 - AA65</x:f>
-      </x:c>
-      <x:c r="AG65" s="28">
-        <x:f> AF65 / AD65</x:f>
-      </x:c>
-      <x:c r="AI65" s="27" t="n">
+        <x:f>AA66 - AA65</x:f>
+      </x:c>
+      <x:c r="AG65" s="27">
+        <x:f>AF65 / AD65</x:f>
+      </x:c>
+      <x:c r="AI65" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AJ65" s="18">
-        <x:f>D34</x:f>
+        <x:f>Sheet1!D23</x:f>
       </x:c>
       <x:c r="AK65" s="18">
-        <x:f>E34</x:f>
+        <x:f>Sheet1!E23</x:f>
       </x:c>
       <x:c r="AM65" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AN65" s="18">
-        <x:f> AJ66 - AJ65</x:f>
+        <x:f>AJ66 - AJ65</x:f>
       </x:c>
       <x:c r="AO65" s="18" t="s"/>
       <x:c r="AP65" s="18">
-        <x:f> AK66 - AK65</x:f>
-      </x:c>
-      <x:c r="AQ65" s="28">
-        <x:f> AP65 / AN65</x:f>
+        <x:f>AK66 - AK65</x:f>
+      </x:c>
+      <x:c r="AQ65" s="27">
+        <x:f>AP65 / AN65</x:f>
       </x:c>
       <x:c r="AS65" s="18">
         <x:f>AS62+3/4*(AS66-AS62)</x:f>
       </x:c>
       <x:c r="AT65" s="18">
-        <x:f> Z75 * (AS65 - AS62)^3 + AA75 * (AS65 - AS62)^2 + AB75 * (AS65 - AS62) + AC75</x:f>
+        <x:f>Z75 * (AS65 - AS62)^3 + AA75 * (AS65 - AS62)^2 + AB75 * (AS65 - AS62) + AC75</x:f>
       </x:c>
       <x:c r="AV65" s="18">
         <x:f>AV62+3/4*(AV66-AV62)</x:f>
       </x:c>
       <x:c r="AW65" s="18">
-        <x:f> AJ75 * (AV65 - AV62)^3 + AK75 * (AV65 - AV62)^2 + AL75 * (AV65 - AV62) + AM75</x:f>
+        <x:f>AJ75 * (AV65 - AV62)^3 + AK75 * (AV65 - AV62)^2 + AL75 * (AV65 - AV62) + AM75</x:f>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y66" s="27" t="n">
+      <x:c r="Y66" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="Z66" s="18">
-        <x:f>A35</x:f>
+        <x:f>Sheet1!A24</x:f>
       </x:c>
       <x:c r="AA66" s="18">
-        <x:f>B35</x:f>
-      </x:c>
-      <x:c r="AG66" s="24" t="s"/>
-      <x:c r="AI66" s="27" t="n">
+        <x:f>Sheet1!B24</x:f>
+      </x:c>
+      <x:c r="AG66" s="23" t="s"/>
+      <x:c r="AI66" s="26" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AJ66" s="18">
-        <x:f>D35</x:f>
+        <x:f>Sheet1!D24</x:f>
       </x:c>
       <x:c r="AK66" s="18">
-        <x:f>E35</x:f>
-      </x:c>
-      <x:c r="AQ66" s="24" t="s"/>
+        <x:f>Sheet1!E24</x:f>
+      </x:c>
+      <x:c r="AQ66" s="23" t="s"/>
       <x:c r="AS66" s="18">
         <x:f>Z64</x:f>
       </x:c>
@@ -17505,65 +16974,65 @@
       </x:c>
     </x:row>
     <x:row r="67" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y67" s="29" t="s"/>
-      <x:c r="AG67" s="24" t="s"/>
-      <x:c r="AI67" s="29" t="s"/>
-      <x:c r="AQ67" s="24" t="s"/>
+      <x:c r="Y67" s="28" t="s"/>
+      <x:c r="AG67" s="23" t="s"/>
+      <x:c r="AI67" s="28" t="s"/>
+      <x:c r="AQ67" s="23" t="s"/>
       <x:c r="AS67" s="18">
         <x:f>AS66+1/4*(AS70-AS66)</x:f>
       </x:c>
       <x:c r="AT67" s="18">
-        <x:f> Z76 * (AS67 - AS66)^3 + AA76 * (AS67 - AS66)^2 + AB76 * (AS67 - AS66) + AC76</x:f>
+        <x:f>Z76 * (AS67 - AS66)^3 + AA76 * (AS67 - AS66)^2 + AB76 * (AS67 - AS66) + AC76</x:f>
       </x:c>
       <x:c r="AV67" s="18">
         <x:f>AV66+1/4*(AV70-AV66)</x:f>
       </x:c>
       <x:c r="AW67" s="18">
-        <x:f> AJ76 * (AV67 - AV66)^3 + AK76 * (AV67 - AV66)^2 + AL76 * (AV67 - AV66) + AM76</x:f>
+        <x:f>AJ76 * (AV67 - AV66)^3 + AK76 * (AV67 - AV66)^2 + AL76 * (AV67 - AV66) + AM76</x:f>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y68" s="29" t="s"/>
-      <x:c r="Z68" s="103" t="s">
+      <x:c r="Y68" s="28" t="s"/>
+      <x:c r="Z68" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AA68" s="106" t="s"/>
-      <x:c r="AB68" s="106" t="s"/>
-      <x:c r="AC68" s="104" t="s"/>
+      <x:c r="AA68" s="4" t="s"/>
+      <x:c r="AB68" s="4" t="s"/>
+      <x:c r="AC68" s="3" t="s"/>
       <x:c r="AE68" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AG68" s="26" t="s">
+      <x:c r="AG68" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AI68" s="29" t="s"/>
-      <x:c r="AJ68" s="103" t="s">
+      <x:c r="AI68" s="28" t="s"/>
+      <x:c r="AJ68" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AK68" s="106" t="s"/>
-      <x:c r="AL68" s="106" t="s"/>
-      <x:c r="AM68" s="104" t="s"/>
+      <x:c r="AK68" s="4" t="s"/>
+      <x:c r="AL68" s="4" t="s"/>
+      <x:c r="AM68" s="3" t="s"/>
       <x:c r="AO68" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AQ68" s="26" t="s">
+      <x:c r="AQ68" s="25" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="AS68" s="18">
         <x:f>AS66+2/4*(AS70-AS66)</x:f>
       </x:c>
       <x:c r="AT68" s="18">
-        <x:f> Z76 * (AS68 - AS66)^3 + AA76 * (AS68 - AS66)^2 + AB76 * (AS68 - AS66) + AC76</x:f>
+        <x:f>Z76 * (AS68 - AS66)^3 + AA76 * (AS68 - AS66)^2 + AB76 * (AS68 - AS66) + AC76</x:f>
       </x:c>
       <x:c r="AV68" s="18">
         <x:f>AV66+2/4*(AV70-AV66)</x:f>
       </x:c>
       <x:c r="AW68" s="18">
-        <x:f> AJ76 * (AV68 - AV66)^3 + AK76 * (AV68 - AV66)^2 + AL76 * (AV68 - AV66) + AM76</x:f>
+        <x:f>AJ76 * (AV68 - AV66)^3 + AK76 * (AV68 - AV66)^2 + AL76 * (AV68 - AV66) + AM76</x:f>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y69" s="29" t="s"/>
+      <x:c r="Y69" s="28" t="s"/>
       <x:c r="Z69" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -17579,10 +17048,10 @@
       <x:c r="AE69" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG69" s="28">
-        <x:f t="array" ref="AG69:AG72"> MMULT( MINVERSE(Z69:AC72), AE69:AE72 )</x:f>
-      </x:c>
-      <x:c r="AI69" s="29" t="s"/>
+      <x:c r="AG69" s="27">
+        <x:f t="array" ref="AG69:AG72">MMULT( MINVERSE(Z69:AC72), AE69:AE72 )</x:f>
+      </x:c>
+      <x:c r="AI69" s="28" t="s"/>
       <x:c r="AJ69" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -17598,59 +17067,59 @@
       <x:c r="AO69" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ69" s="28">
-        <x:f t="array" ref="AQ69:AQ72"> MMULT( MINVERSE(AJ69:AM72), AO69:AO72 )</x:f>
+      <x:c r="AQ69" s="27">
+        <x:f t="array" ref="AQ69:AQ72">MMULT( MINVERSE(AJ69:AM72), AO69:AO72 )</x:f>
       </x:c>
       <x:c r="AS69" s="18">
         <x:f>AS66+3/4*(AS70-AS66)</x:f>
       </x:c>
       <x:c r="AT69" s="18">
-        <x:f> Z76 * (AS69 - AS66)^3 + AA76 * (AS69 - AS66)^2 + AB76 * (AS69 - AS66) + AC76</x:f>
+        <x:f>Z76 * (AS69 - AS66)^3 + AA76 * (AS69 - AS66)^2 + AB76 * (AS69 - AS66) + AC76</x:f>
       </x:c>
       <x:c r="AV69" s="18">
         <x:f>AV66+3/4*(AV70-AV66)</x:f>
       </x:c>
       <x:c r="AW69" s="18">
-        <x:f> AJ76 * (AV69 - AV66)^3 + AK76 * (AV69 - AV66)^2 + AL76 * (AV69 - AV66) + AM76</x:f>
+        <x:f>AJ76 * (AV69 - AV66)^3 + AK76 * (AV69 - AV66)^2 + AL76 * (AV69 - AV66) + AM76</x:f>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y70" s="29" t="s"/>
+      <x:c r="Y70" s="28" t="s"/>
       <x:c r="Z70" s="18">
-        <x:f> AD63 / AE63</x:f>
+        <x:f>AD63 / AE63</x:f>
       </x:c>
       <x:c r="AA70" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AB70" s="18">
-        <x:f> 1 - Z70</x:f>
+        <x:f>1 - Z70</x:f>
       </x:c>
       <x:c r="AC70" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE70" s="18">
-        <x:f> 3 * (AG64 - AG63) / AE63</x:f>
-      </x:c>
-      <x:c r="AG70" s="28">
+        <x:f>3 * (AG64 - AG63) / AE63</x:f>
+      </x:c>
+      <x:c r="AG70" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI70" s="29" t="s"/>
+      <x:c r="AI70" s="28" t="s"/>
       <x:c r="AJ70" s="18">
-        <x:f> AN63 / AO63</x:f>
+        <x:f>AN63 / AO63</x:f>
       </x:c>
       <x:c r="AK70" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AL70" s="18">
-        <x:f> 1 - AJ70</x:f>
+        <x:f>1 - AJ70</x:f>
       </x:c>
       <x:c r="AM70" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO70" s="18">
-        <x:f> 3 * (AQ64 - AQ63) / AO63</x:f>
-      </x:c>
-      <x:c r="AQ70" s="28">
+        <x:f>3 * (AQ64 - AQ63) / AO63</x:f>
+      </x:c>
+      <x:c r="AQ70" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS70" s="18">
@@ -17667,59 +17136,59 @@
       </x:c>
     </x:row>
     <x:row r="71" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y71" s="29" t="s"/>
+      <x:c r="Y71" s="28" t="s"/>
       <x:c r="Z71" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AA71" s="18">
-        <x:f> AD64 / AE64</x:f>
+        <x:f>AD64 / AE64</x:f>
       </x:c>
       <x:c r="AB71" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AC71" s="18">
-        <x:f> 1 - AA71</x:f>
+        <x:f>1 - AA71</x:f>
       </x:c>
       <x:c r="AE71" s="18">
-        <x:f> 3 * (AG65 - AG64) / AE64</x:f>
-      </x:c>
-      <x:c r="AG71" s="28">
+        <x:f>3 * (AG65 - AG64) / AE64</x:f>
+      </x:c>
+      <x:c r="AG71" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI71" s="29" t="s"/>
+      <x:c r="AI71" s="28" t="s"/>
       <x:c r="AJ71" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AK71" s="18">
-        <x:f> AN64 / AO64</x:f>
+        <x:f>AN64 / AO64</x:f>
       </x:c>
       <x:c r="AL71" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AM71" s="18">
-        <x:f> 1 - AK71</x:f>
+        <x:f>1 - AK71</x:f>
       </x:c>
       <x:c r="AO71" s="18">
-        <x:f> 3 * (AQ65 - AQ64) / AO64</x:f>
-      </x:c>
-      <x:c r="AQ71" s="28">
+        <x:f>3 * (AQ65 - AQ64) / AO64</x:f>
+      </x:c>
+      <x:c r="AQ71" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS71" s="18">
         <x:f>AS70+1/4*(AS74-AS70)</x:f>
       </x:c>
       <x:c r="AT71" s="18">
-        <x:f> Z77 * (AS71 - AS70)^3 + AA77 * (AS71 - AS70)^2 + AB77 * (AS71 - AS70) + AC77</x:f>
+        <x:f>Z77 * (AS71 - AS70)^3 + AA77 * (AS71 - AS70)^2 + AB77 * (AS71 - AS70) + AC77</x:f>
       </x:c>
       <x:c r="AV71" s="18">
         <x:f>AV70+1/4*(AV74-AV70)</x:f>
       </x:c>
       <x:c r="AW71" s="18">
-        <x:f> AJ77 * (AV71 - AV70)^3 + AK77 * (AV71 - AV70)^2 + AL77 * (AV71 - AV70) + AM77</x:f>
+        <x:f>AJ77 * (AV71 - AV70)^3 + AK77 * (AV71 - AV70)^2 + AL77 * (AV71 - AV70) + AM77</x:f>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y72" s="29" t="s"/>
+      <x:c r="Y72" s="28" t="s"/>
       <x:c r="Z72" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17735,10 +17204,10 @@
       <x:c r="AE72" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AG72" s="28">
+      <x:c r="AG72" s="27">
         <x:f t="array"/>
       </x:c>
-      <x:c r="AI72" s="29" t="s"/>
+      <x:c r="AI72" s="28" t="s"/>
       <x:c r="AJ72" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17754,42 +17223,42 @@
       <x:c r="AO72" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AQ72" s="28">
+      <x:c r="AQ72" s="27">
         <x:f t="array"/>
       </x:c>
       <x:c r="AS72" s="18">
         <x:f>AS70+2/4*(AS74-AS70)</x:f>
       </x:c>
       <x:c r="AT72" s="18">
-        <x:f> Z77 * (AS72 - AS70)^3 + AA77 * (AS72 - AS70)^2 + AB77 * (AS72 - AS70) + AC77</x:f>
+        <x:f>Z77 * (AS72 - AS70)^3 + AA77 * (AS72 - AS70)^2 + AB77 * (AS72 - AS70) + AC77</x:f>
       </x:c>
       <x:c r="AV72" s="18">
         <x:f>AV70+2/4*(AV74-AV70)</x:f>
       </x:c>
       <x:c r="AW72" s="18">
-        <x:f> AJ77 * (AV72 - AV70)^3 + AK77 * (AV72 - AV70)^2 + AL77 * (AV72 - AV70) + AM77</x:f>
+        <x:f>AJ77 * (AV72 - AV70)^3 + AK77 * (AV72 - AV70)^2 + AL77 * (AV72 - AV70) + AM77</x:f>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y73" s="29" t="s"/>
-      <x:c r="AG73" s="24" t="s"/>
-      <x:c r="AI73" s="29" t="s"/>
-      <x:c r="AQ73" s="24" t="s"/>
+      <x:c r="Y73" s="28" t="s"/>
+      <x:c r="AG73" s="23" t="s"/>
+      <x:c r="AI73" s="28" t="s"/>
+      <x:c r="AQ73" s="23" t="s"/>
       <x:c r="AS73" s="18">
         <x:f>AS70+3/4*(AS74-AS70)</x:f>
       </x:c>
       <x:c r="AT73" s="18">
-        <x:f> Z77 * (AS73 - AS70)^3 + AA77 * (AS73 - AS70)^2 + AB77 * (AS73 - AS70) + AC77</x:f>
+        <x:f>Z77 * (AS73 - AS70)^3 + AA77 * (AS73 - AS70)^2 + AB77 * (AS73 - AS70) + AC77</x:f>
       </x:c>
       <x:c r="AV73" s="18">
         <x:f>AV70+3/4*(AV74-AV70)</x:f>
       </x:c>
       <x:c r="AW73" s="18">
-        <x:f> AJ77 * (AV73 - AV70)^3 + AK77 * (AV73 - AV70)^2 + AL77 * (AV73 - AV70) + AM77</x:f>
+        <x:f>AJ77 * (AV73 - AV70)^3 + AK77 * (AV73 - AV70)^2 + AL77 * (AV73 - AV70) + AM77</x:f>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y74" s="25" t="s">
+      <x:c r="Y74" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="Z74" s="17" t="s">
@@ -17804,13 +17273,13 @@
       <x:c r="AC74" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AD74" s="35" t="s">
+      <x:c r="AD74" s="33" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="AE74" s="107" t="s"/>
-      <x:c r="AF74" s="107" t="s"/>
-      <x:c r="AG74" s="24" t="s"/>
-      <x:c r="AI74" s="25" t="s">
+      <x:c r="AE74" s="45" t="s"/>
+      <x:c r="AF74" s="45" t="s"/>
+      <x:c r="AG74" s="23" t="s"/>
+      <x:c r="AI74" s="24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="AJ74" s="17" t="s">
@@ -17825,12 +17294,12 @@
       <x:c r="AM74" s="17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AN74" s="35" t="s">
+      <x:c r="AN74" s="33" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="AO74" s="107" t="s"/>
-      <x:c r="AP74" s="107" t="s"/>
-      <x:c r="AQ74" s="24" t="s"/>
+      <x:c r="AO74" s="45" t="s"/>
+      <x:c r="AP74" s="45" t="s"/>
+      <x:c r="AQ74" s="23" t="s"/>
       <x:c r="AS74" s="18">
         <x:f>Z66</x:f>
       </x:c>
@@ -17845,146 +17314,134 @@
       </x:c>
     </x:row>
     <x:row r="75" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y75" s="27" t="n">
+      <x:c r="Y75" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z75" s="18">
-        <x:f> (AG70 - AG69) / (3 * AD63)</x:f>
+        <x:f>(AG70 - AG69) / (3 * AD63)</x:f>
       </x:c>
       <x:c r="AA75" s="18">
-        <x:f> AG69</x:f>
+        <x:f>AG69</x:f>
       </x:c>
       <x:c r="AB75" s="18">
-        <x:f> AG63 - AD63 * (AG70 + 2 * AG69) / 3</x:f>
+        <x:f>AG63 - AD63 * (AG70 + 2 * AG69) / 3</x:f>
       </x:c>
       <x:c r="AC75" s="18">
         <x:f>AA63</x:f>
       </x:c>
-      <x:c r="AD75" s="35" t="s"/>
-      <x:c r="AE75" s="107" t="s"/>
-      <x:c r="AF75" s="107" t="s"/>
-      <x:c r="AG75" s="24" t="s"/>
-      <x:c r="AI75" s="27" t="n">
+      <x:c r="AD75" s="33" t="s"/>
+      <x:c r="AE75" s="45" t="s"/>
+      <x:c r="AF75" s="45" t="s"/>
+      <x:c r="AG75" s="23" t="s"/>
+      <x:c r="AI75" s="26" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ75" s="18">
-        <x:f> (AQ70 - AQ69) / (3 * AN63)</x:f>
+        <x:f>(AQ70 - AQ69) / (3 * AN63)</x:f>
       </x:c>
       <x:c r="AK75" s="18">
-        <x:f> AQ69</x:f>
+        <x:f>AQ69</x:f>
       </x:c>
       <x:c r="AL75" s="18">
-        <x:f> AQ63 - AN63 * (AQ70 + 2 * AQ69) / 3</x:f>
+        <x:f>AQ63 - AN63 * (AQ70 + 2 * AQ69) / 3</x:f>
       </x:c>
       <x:c r="AM75" s="18">
         <x:f>AK63</x:f>
       </x:c>
-      <x:c r="AN75" s="35" t="s"/>
-      <x:c r="AO75" s="107" t="s"/>
-      <x:c r="AP75" s="107" t="s"/>
-      <x:c r="AQ75" s="24" t="s"/>
+      <x:c r="AN75" s="33" t="s"/>
+      <x:c r="AO75" s="45" t="s"/>
+      <x:c r="AP75" s="45" t="s"/>
+      <x:c r="AQ75" s="23" t="s"/>
     </x:row>
     <x:row r="76" spans="1:62" x14ac:dyDescent="0.25">
-      <x:c r="Y76" s="27" t="n">
+      <x:c r="Y76" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Z76" s="18">
-        <x:f> (AG71 - AG70) / (3 * AD64)</x:f>
+        <x:f>(AG71 - AG70) / (3 * AD64)</x:f>
       </x:c>
       <x:c r="AA76" s="18">
-        <x:f> AG70</x:f>
+        <x:f>AG70</x:f>
       </x:c>
       <x:c r="AB76" s="18">
-        <x:f> AG64 - AD64 * (AG71 + 2 * AG70) / 3</x:f>
+        <x:f>AG64 - AD64 * (AG71 + 2 * AG70) / 3</x:f>
       </x:c>
       <x:c r="AC76" s="18">
         <x:f>AA64</x:f>
       </x:c>
-      <x:c r="AD76" s="35" t="s"/>
-      <x:c r="AE76" s="107" t="s"/>
-      <x:c r="AF76" s="107" t="s"/>
-      <x:c r="AG76" s="24" t="s"/>
-      <x:c r="AI76" s="27" t="n">
+      <x:c r="AD76" s="33" t="s"/>
+      <x:c r="AE76" s="45" t="s"/>
+      <x:c r="AF76" s="45" t="s"/>
+      <x:c r="AG76" s="23" t="s"/>
+      <x:c r="AI76" s="26" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AJ76" s="18">
-        <x:f> (AQ71 - AQ70) / (3 * AN64)</x:f>
+        <x:f>(AQ71 - AQ70) / (3 * AN64)</x:f>
       </x:c>
       <x:c r="AK76" s="18">
-        <x:f> AQ70</x:f>
+        <x:f>AQ70</x:f>
       </x:c>
       <x:c r="AL76" s="18">
-        <x:f> AQ64 - AN64 * (AQ71 + 2 * AQ70) / 3</x:f>
+        <x:f>AQ64 - AN64 * (AQ71 + 2 * AQ70) / 3</x:f>
       </x:c>
       <x:c r="AM76" s="18">
         <x:f>AK64</x:f>
       </x:c>
-      <x:c r="AN76" s="35" t="s"/>
-      <x:c r="AO76" s="107" t="s"/>
-      <x:c r="AP76" s="107" t="s"/>
-      <x:c r="AQ76" s="24" t="s"/>
+      <x:c r="AN76" s="33" t="s"/>
+      <x:c r="AO76" s="45" t="s"/>
+      <x:c r="AP76" s="45" t="s"/>
+      <x:c r="AQ76" s="23" t="s"/>
     </x:row>
     <x:row r="77" spans="1:62" s="0" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="Y77" s="30" t="n">
+      <x:c r="Y77" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="Z77" s="31">
-        <x:f> (AG72 - AG71) / (3 * AD65)</x:f>
-      </x:c>
-      <x:c r="AA77" s="31">
-        <x:f> AG71</x:f>
-      </x:c>
-      <x:c r="AB77" s="31">
-        <x:f> AG65 - AD65 * (AG72 + 2 * AG71) / 3</x:f>
-      </x:c>
-      <x:c r="AC77" s="31">
+      <x:c r="Z77" s="30">
+        <x:f>(AG72 - AG71) / (3 * AD65)</x:f>
+      </x:c>
+      <x:c r="AA77" s="30">
+        <x:f>AG71</x:f>
+      </x:c>
+      <x:c r="AB77" s="30">
+        <x:f>AG65 - AD65 * (AG72 + 2 * AG71) / 3</x:f>
+      </x:c>
+      <x:c r="AC77" s="30">
         <x:f>AA65</x:f>
       </x:c>
-      <x:c r="AD77" s="36" t="s"/>
-      <x:c r="AE77" s="38" t="s"/>
-      <x:c r="AF77" s="38" t="s"/>
-      <x:c r="AG77" s="33" t="s"/>
-      <x:c r="AI77" s="30" t="n">
+      <x:c r="AD77" s="34" t="s"/>
+      <x:c r="AE77" s="35" t="s"/>
+      <x:c r="AF77" s="35" t="s"/>
+      <x:c r="AG77" s="32" t="s"/>
+      <x:c r="AI77" s="29" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="AJ77" s="31">
-        <x:f> (AQ72 - AQ71) / (3 * AN65)</x:f>
-      </x:c>
-      <x:c r="AK77" s="31">
-        <x:f> AQ71</x:f>
-      </x:c>
-      <x:c r="AL77" s="31">
-        <x:f> AQ65 - AN65 * (AQ72 + 2 * AQ71) / 3</x:f>
-      </x:c>
-      <x:c r="AM77" s="31">
+      <x:c r="AJ77" s="30">
+        <x:f>(AQ72 - AQ71) / (3 * AN65)</x:f>
+      </x:c>
+      <x:c r="AK77" s="30">
+        <x:f>AQ71</x:f>
+      </x:c>
+      <x:c r="AL77" s="30">
+        <x:f>AQ65 - AN65 * (AQ72 + 2 * AQ71) / 3</x:f>
+      </x:c>
+      <x:c r="AM77" s="30">
         <x:f>AK65</x:f>
       </x:c>
-      <x:c r="AN77" s="36" t="s"/>
-      <x:c r="AO77" s="38" t="s"/>
-      <x:c r="AP77" s="38" t="s"/>
-      <x:c r="AQ77" s="33" t="s"/>
+      <x:c r="AN77" s="34" t="s"/>
+      <x:c r="AO77" s="35" t="s"/>
+      <x:c r="AP77" s="35" t="s"/>
+      <x:c r="AQ77" s="32" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="34">
+  <x:mergeCells count="22">
     <x:mergeCell ref="P11:S11"/>
     <x:mergeCell ref="P30:S30"/>
     <x:mergeCell ref="A6:B6"/>
     <x:mergeCell ref="D6:E6"/>
     <x:mergeCell ref="G6:H6"/>
     <x:mergeCell ref="J6:K6"/>
-    <x:mergeCell ref="A14:B14"/>
-    <x:mergeCell ref="D14:E14"/>
-    <x:mergeCell ref="G14:H14"/>
-    <x:mergeCell ref="J14:K14"/>
     <x:mergeCell ref="Z11:AC11"/>
-    <x:mergeCell ref="A22:B22"/>
-    <x:mergeCell ref="D22:E22"/>
-    <x:mergeCell ref="G22:H22"/>
-    <x:mergeCell ref="J22:K22"/>
-    <x:mergeCell ref="A30:B30"/>
-    <x:mergeCell ref="D30:E30"/>
-    <x:mergeCell ref="G30:H30"/>
-    <x:mergeCell ref="J30:K30"/>
     <x:mergeCell ref="Z30:AC30"/>
     <x:mergeCell ref="AV3:AW3"/>
     <x:mergeCell ref="AV22:AW22"/>
@@ -18011,6 +17468,623 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{D795ECD5-AEEA-47F1-AB45-428F2DCDA4F8}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:M27"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="Q32" sqref="Q32"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="B1" s="8" t="s"/>
+      <x:c r="C1" s="8" t="s"/>
+      <x:c r="D1" s="8" t="s"/>
+      <x:c r="E1" s="8" t="s"/>
+      <x:c r="F1" s="8" t="s"/>
+      <x:c r="G1" s="8" t="s"/>
+      <x:c r="H1" s="8" t="s"/>
+      <x:c r="I1" s="8" t="s"/>
+      <x:c r="J1" s="8" t="s"/>
+      <x:c r="K1" s="8" t="s"/>
+      <x:c r="L1" s="8" t="s"/>
+      <x:c r="M1" s="8" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="12" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s"/>
+      <x:c r="C2" s="8" t="s"/>
+      <x:c r="D2" s="8" t="s"/>
+      <x:c r="E2" s="8" t="s"/>
+      <x:c r="F2" s="8" t="s"/>
+      <x:c r="G2" s="8" t="s"/>
+      <x:c r="H2" s="8" t="s"/>
+      <x:c r="I2" s="8" t="s"/>
+      <x:c r="J2" s="8" t="s"/>
+      <x:c r="K2" s="8" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="6" t="s"/>
+      <x:c r="C3" s="6" t="s"/>
+      <x:c r="D3" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="6" t="s"/>
+      <x:c r="F3" s="6" t="s"/>
+      <x:c r="G3" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H3" s="6" t="s"/>
+      <x:c r="I3" s="6" t="s"/>
+      <x:c r="J3" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K3" s="6" t="s"/>
+      <x:c r="L3" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M3" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="13" t="s"/>
+      <x:c r="D4" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E4" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="13" t="s"/>
+      <x:c r="G4" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H4" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I4" s="13" t="s"/>
+      <x:c r="J4" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K4" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="L4" s="13" t="s"/>
+      <x:c r="M4" s="14" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="8" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="n">
+        <x:v>9.86587644913328E-10</x:v>
+      </x:c>
+      <x:c r="C5" s="8" t="s"/>
+      <x:c r="D5" s="8" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="n">
+        <x:v>0.158655253931457</x:v>
+      </x:c>
+      <x:c r="F5" s="8" t="s"/>
+      <x:c r="G5" s="43" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H5" s="8" t="n">
+        <x:v>100.008</x:v>
+      </x:c>
+      <x:c r="I5" s="8" t="s"/>
+      <x:c r="J5" s="8" t="s"/>
+      <x:c r="K5" s="8" t="s"/>
+      <x:c r="L5" s="8" t="s"/>
+      <x:c r="M5" s="9" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="8" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B6" s="8" t="n">
+        <x:v>0.0227501319481792</x:v>
+      </x:c>
+      <x:c r="C6" s="8" t="s"/>
+      <x:c r="D6" s="8" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="n">
+        <x:v>0.460172162722971</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s"/>
+      <x:c r="G6" s="8" t="n">
+        <x:v>100.695</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="n">
+        <x:v>102.496</x:v>
+      </x:c>
+      <x:c r="I6" s="8" t="s"/>
+      <x:c r="J6" s="8" t="s"/>
+      <x:c r="K6" s="8" t="s"/>
+      <x:c r="L6" s="8" t="s"/>
+      <x:c r="M6" s="9" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="8" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s"/>
+      <x:c r="D7" s="8" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E7" s="8" t="n">
+        <x:v>0.598706325682924</x:v>
+      </x:c>
+      <x:c r="F7" s="8" t="s"/>
+      <x:c r="G7" s="8" t="n">
+        <x:v>101.366</x:v>
+      </x:c>
+      <x:c r="H7" s="8" t="n">
+        <x:v>105.069</x:v>
+      </x:c>
+      <x:c r="I7" s="8" t="s"/>
+      <x:c r="J7" s="8" t="s"/>
+      <x:c r="K7" s="8" t="s"/>
+      <x:c r="L7" s="8" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="8" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="n">
+        <x:v>0.725746882249926</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="s"/>
+      <x:c r="D8" s="8" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="n">
+        <x:v>0.933192798731142</x:v>
+      </x:c>
+      <x:c r="F8" s="8" t="s"/>
+      <x:c r="G8" s="8" t="n">
+        <x:v>102.022</x:v>
+      </x:c>
+      <x:c r="H8" s="8" t="n">
+        <x:v>107.864</x:v>
+      </x:c>
+      <x:c r="I8" s="8" t="s"/>
+      <x:c r="J8" s="8" t="s"/>
+      <x:c r="K8" s="8" t="s"/>
+      <x:c r="L8" s="8" t="s"/>
+      <x:c r="M8" s="8" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="6" t="s"/>
+      <x:c r="C11" s="6" t="s"/>
+      <x:c r="D11" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="s"/>
+      <x:c r="F11" s="6" t="s"/>
+      <x:c r="G11" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H11" s="6" t="s"/>
+      <x:c r="I11" s="6" t="s"/>
+      <x:c r="J11" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K11" s="6" t="s"/>
+      <x:c r="L11" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M11" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s"/>
+      <x:c r="D12" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E12" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F12" s="13" t="s"/>
+      <x:c r="G12" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H12" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I12" s="13" t="s"/>
+      <x:c r="J12" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K12" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="L12" s="13" t="s"/>
+      <x:c r="M12" s="15" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="8" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B13" s="8" t="n">
+        <x:v>9.86587644913328E-10</x:v>
+      </x:c>
+      <x:c r="C13" s="8" t="s"/>
+      <x:c r="D13" s="8" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E13" s="8" t="n">
+        <x:v>0.158655253931457</x:v>
+      </x:c>
+      <x:c r="F13" s="8" t="s"/>
+      <x:c r="G13" s="8" t="n">
+        <x:v>93.959</x:v>
+      </x:c>
+      <x:c r="H13" s="8" t="n">
+        <x:v>80.087</x:v>
+      </x:c>
+      <x:c r="I13" s="8" t="s"/>
+      <x:c r="J13" s="8" t="s"/>
+      <x:c r="K13" s="8" t="s"/>
+      <x:c r="L13" s="8" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="8" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B14" s="8" t="n">
+        <x:v>0.0227501319481792</x:v>
+      </x:c>
+      <x:c r="C14" s="8" t="s"/>
+      <x:c r="D14" s="8" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E14" s="8" t="n">
+        <x:v>0.460172162722971</x:v>
+      </x:c>
+      <x:c r="F14" s="8" t="s"/>
+      <x:c r="G14" s="8" t="n">
+        <x:v>94.854</x:v>
+      </x:c>
+      <x:c r="H14" s="8" t="n">
+        <x:v>82.682</x:v>
+      </x:c>
+      <x:c r="I14" s="8" t="s"/>
+      <x:c r="J14" s="8" t="s"/>
+      <x:c r="K14" s="8" t="s"/>
+      <x:c r="L14" s="8" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="8" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B15" s="8" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="C15" s="8" t="s"/>
+      <x:c r="D15" s="8" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E15" s="8" t="n">
+        <x:v>0.598706325682924</x:v>
+      </x:c>
+      <x:c r="F15" s="8" t="s"/>
+      <x:c r="G15" s="8" t="n">
+        <x:v>95.876</x:v>
+      </x:c>
+      <x:c r="H15" s="8" t="n">
+        <x:v>85.882</x:v>
+      </x:c>
+      <x:c r="I15" s="8" t="s"/>
+      <x:c r="J15" s="8" t="s"/>
+      <x:c r="K15" s="8" t="s"/>
+      <x:c r="L15" s="8" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="8" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B16" s="8" t="n">
+        <x:v>0.725746882249926</x:v>
+      </x:c>
+      <x:c r="C16" s="8" t="s"/>
+      <x:c r="D16" s="8" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E16" s="8" t="n">
+        <x:v>0.933192798731142</x:v>
+      </x:c>
+      <x:c r="F16" s="8" t="s"/>
+      <x:c r="G16" s="8" t="n">
+        <x:v>96.815</x:v>
+      </x:c>
+      <x:c r="H16" s="8" t="n">
+        <x:v>88.989</x:v>
+      </x:c>
+      <x:c r="I16" s="8" t="s"/>
+      <x:c r="J16" s="8" t="s"/>
+      <x:c r="K16" s="8" t="s"/>
+      <x:c r="L16" s="8" t="s"/>
+      <x:c r="M16" s="8" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="B17" s="8" t="s"/>
+      <x:c r="C17" s="8" t="s"/>
+      <x:c r="D17" s="8" t="s"/>
+      <x:c r="E17" s="8" t="s"/>
+      <x:c r="F17" s="8" t="s"/>
+      <x:c r="G17" s="8" t="s"/>
+      <x:c r="H17" s="8" t="s"/>
+      <x:c r="I17" s="8" t="s"/>
+      <x:c r="J17" s="8" t="s"/>
+      <x:c r="K17" s="8" t="s"/>
+      <x:c r="L17" s="8" t="s"/>
+      <x:c r="M17" s="8" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B18" s="8" t="s"/>
+      <x:c r="C18" s="8" t="s"/>
+      <x:c r="D18" s="8" t="s"/>
+      <x:c r="E18" s="8" t="s"/>
+      <x:c r="F18" s="8" t="s"/>
+      <x:c r="G18" s="8" t="s"/>
+      <x:c r="H18" s="8" t="s"/>
+      <x:c r="I18" s="8" t="s"/>
+      <x:c r="J18" s="8" t="s"/>
+      <x:c r="K18" s="8" t="s"/>
+      <x:c r="L18" s="8" t="s"/>
+      <x:c r="M18" s="8" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B19" s="6" t="s"/>
+      <x:c r="C19" s="6" t="s"/>
+      <x:c r="D19" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="s"/>
+      <x:c r="F19" s="6" t="s"/>
+      <x:c r="G19" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H19" s="6" t="s"/>
+      <x:c r="I19" s="6" t="s"/>
+      <x:c r="J19" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K19" s="6" t="s"/>
+      <x:c r="L19" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M19" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C20" s="13" t="s"/>
+      <x:c r="D20" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E20" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F20" s="13" t="s"/>
+      <x:c r="G20" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H20" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I20" s="13" t="s"/>
+      <x:c r="J20" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K20" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="L20" s="13" t="s"/>
+      <x:c r="M20" s="15" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="8" t="n">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="B21" s="8" t="n">
+        <x:v>0.708594519303253</x:v>
+      </x:c>
+      <x:c r="C21" s="8" t="s"/>
+      <x:c r="D21" s="8" t="n">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="E21" s="8">
+        <x:f>0.778800783071405-0.6</x:f>
+      </x:c>
+      <x:c r="F21" s="8" t="s"/>
+      <x:c r="G21" s="8" t="n">
+        <x:v>-9999</x:v>
+      </x:c>
+      <x:c r="H21" s="8" t="n">
+        <x:v>-9999</x:v>
+      </x:c>
+      <x:c r="I21" s="8" t="s"/>
+      <x:c r="J21" s="8" t="s"/>
+      <x:c r="K21" s="8" t="s"/>
+      <x:c r="L21" s="8" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="8" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="B22" s="8" t="n">
+        <x:v>0.444180840345708</x:v>
+      </x:c>
+      <x:c r="C22" s="8" t="s"/>
+      <x:c r="D22" s="8" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="E22" s="8">
+        <x:f>0.606530659712633-0.6</x:f>
+      </x:c>
+      <x:c r="F22" s="8" t="s"/>
+      <x:c r="G22" s="8" t="s"/>
+      <x:c r="H22" s="8" t="s"/>
+      <x:c r="I22" s="8" t="s"/>
+      <x:c r="J22" s="8" t="s"/>
+      <x:c r="K22" s="8" t="s"/>
+      <x:c r="L22" s="8" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="8" t="n">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="B23" s="8" t="n">
+        <x:v>0.320565172552049</x:v>
+      </x:c>
+      <x:c r="C23" s="8" t="s"/>
+      <x:c r="D23" s="8" t="n">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="E23" s="8">
+        <x:f>0.472366552741015-0.6</x:f>
+      </x:c>
+      <x:c r="F23" s="8" t="s"/>
+      <x:c r="G23" s="8" t="s"/>
+      <x:c r="H23" s="8" t="s"/>
+      <x:c r="I23" s="8" t="s"/>
+      <x:c r="J23" s="8" t="s"/>
+      <x:c r="K23" s="8" t="s"/>
+      <x:c r="L23" s="8" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A24" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B24" s="8" t="n">
+        <x:v>0.245090879108584</x:v>
+      </x:c>
+      <x:c r="C24" s="8" t="s"/>
+      <x:c r="D24" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E24" s="8">
+        <x:f>0.367879441171442-0.6</x:f>
+      </x:c>
+      <x:c r="F24" s="8" t="s"/>
+      <x:c r="G24" s="8" t="s"/>
+      <x:c r="H24" s="8" t="s"/>
+      <x:c r="I24" s="8" t="s"/>
+      <x:c r="J24" s="8" t="s"/>
+      <x:c r="K24" s="8" t="s"/>
+      <x:c r="L24" s="8" t="s"/>
+      <x:c r="M24" s="8" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="B25" s="8" t="s"/>
+      <x:c r="C25" s="8" t="s"/>
+      <x:c r="D25" s="8" t="s"/>
+      <x:c r="E25" s="8" t="s"/>
+      <x:c r="F25" s="8" t="s"/>
+      <x:c r="G25" s="8" t="s"/>
+      <x:c r="H25" s="8" t="s"/>
+      <x:c r="I25" s="8" t="s"/>
+      <x:c r="J25" s="8" t="s"/>
+      <x:c r="K25" s="8" t="s"/>
+      <x:c r="L25" s="8" t="s"/>
+      <x:c r="M25" s="8" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="B27" s="8" t="s"/>
+      <x:c r="C27" s="8" t="s"/>
+      <x:c r="D27" s="8" t="s"/>
+      <x:c r="E27" s="8" t="s"/>
+      <x:c r="F27" s="8" t="s"/>
+      <x:c r="G27" s="8" t="s"/>
+      <x:c r="H27" s="8" t="s"/>
+      <x:c r="I27" s="8" t="s"/>
+      <x:c r="J27" s="8" t="s"/>
+      <x:c r="K27" s="8" t="s"/>
+      <x:c r="L27" s="8" t="s"/>
+      <x:c r="M27" s="8" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="12">
+    <x:mergeCell ref="A3:B3"/>
+    <x:mergeCell ref="D3:E3"/>
+    <x:mergeCell ref="G3:H3"/>
+    <x:mergeCell ref="J3:K3"/>
+    <x:mergeCell ref="A19:B19"/>
+    <x:mergeCell ref="D19:E19"/>
+    <x:mergeCell ref="G19:H19"/>
+    <x:mergeCell ref="J19:K19"/>
+    <x:mergeCell ref="A11:B11"/>
+    <x:mergeCell ref="D11:E11"/>
+    <x:mergeCell ref="G11:H11"/>
+    <x:mergeCell ref="J11:K11"/>
+  </x:mergeCells>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4A163F86-8414-41B5-9CE9-6465B303B372}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18023,23 +18097,23 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="1.710938" style="1" customWidth="1"/>
-    <x:col min="2" max="23" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="24" max="24" width="9" style="1" customWidth="1"/>
-    <x:col min="25" max="25" width="9" style="110" customWidth="1"/>
-    <x:col min="26" max="27" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="1.710938" style="8" customWidth="1"/>
+    <x:col min="2" max="23" width="9.140625" style="8" customWidth="1"/>
+    <x:col min="24" max="24" width="9" style="8" customWidth="1"/>
+    <x:col min="25" max="25" width="9" style="63" customWidth="1"/>
+    <x:col min="26" max="27" width="9.140625" style="8" customWidth="1"/>
     <x:col min="28" max="28" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="29" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="29" max="16384" width="9.140625" style="8" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:35" s="0" customFormat="1" ht="9.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <x:row r="2" spans="1:35" s="0" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="O2" s="4" t="s">
+      <x:c r="O2" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O3" s="4" t="s">
+      <x:c r="O3" s="11" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
@@ -18083,16 +18157,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T5" s="18">
-        <x:f> P6 - P5</x:f>
+        <x:f>P6 - P5</x:f>
       </x:c>
       <x:c r="U5" s="18">
-        <x:f> T5 + T6</x:f>
+        <x:f>T5 + T6</x:f>
       </x:c>
       <x:c r="V5" s="18">
-        <x:f> Q6 - Q5</x:f>
+        <x:f>Q6 - Q5</x:f>
       </x:c>
       <x:c r="W5" s="18">
-        <x:f> V5 / T5</x:f>
+        <x:f>V5 / T5</x:f>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -18109,16 +18183,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T6" s="18">
-        <x:f> P7 - P6</x:f>
+        <x:f>P7 - P6</x:f>
       </x:c>
       <x:c r="U6" s="18">
-        <x:f> T6 + T7</x:f>
+        <x:f>T6 + T7</x:f>
       </x:c>
       <x:c r="V6" s="18">
-        <x:f> Q7 - Q6</x:f>
+        <x:f>Q7 - Q6</x:f>
       </x:c>
       <x:c r="W6" s="18">
-        <x:f> V6 / T6</x:f>
+        <x:f>V6 / T6</x:f>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -18135,14 +18209,14 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T7" s="18">
-        <x:f> P8 - P7</x:f>
+        <x:f>P8 - P7</x:f>
       </x:c>
       <x:c r="U7" s="18" t="s"/>
       <x:c r="V7" s="18">
-        <x:f> Q8 - Q7</x:f>
+        <x:f>Q8 - Q7</x:f>
       </x:c>
       <x:c r="W7" s="18">
-        <x:f> V7 / T7</x:f>
+        <x:f>V7 / T7</x:f>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -18157,12 +18231,12 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="P10" s="103" t="s">
+      <x:c r="P10" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="Q10" s="106" t="s"/>
-      <x:c r="R10" s="106" t="s"/>
-      <x:c r="S10" s="104" t="s"/>
+      <x:c r="Q10" s="4" t="s"/>
+      <x:c r="R10" s="4" t="s"/>
+      <x:c r="S10" s="3" t="s"/>
       <x:c r="U10" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -18187,24 +18261,24 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W11" s="18">
-        <x:f t="array" ref="W11:W14"> MMULT( MINVERSE(P11:S14), U11:U14 )</x:f>
+        <x:f t="array" ref="W11:W14">MMULT( MINVERSE(P11:S14), U11:U14 )</x:f>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="P12" s="18">
-        <x:f> T5 / U5</x:f>
+        <x:f>T5 / U5</x:f>
       </x:c>
       <x:c r="Q12" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R12" s="18">
-        <x:f> 1 - P12</x:f>
+        <x:f>1 - P12</x:f>
       </x:c>
       <x:c r="S12" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U12" s="18">
-        <x:f> 3 * (W6 - W5) / U5</x:f>
+        <x:f>3 * (W6 - W5) / U5</x:f>
       </x:c>
       <x:c r="W12" s="18">
         <x:f t="array"/>
@@ -18215,16 +18289,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="18">
-        <x:f> T6 / U6</x:f>
+        <x:f>T6 / U6</x:f>
       </x:c>
       <x:c r="R13" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="S13" s="18">
-        <x:f> 1 - Q13</x:f>
+        <x:f>1 - Q13</x:f>
       </x:c>
       <x:c r="U13" s="18">
-        <x:f> 3 * (W7 - W6) / U6</x:f>
+        <x:f>3 * (W7 - W6) / U6</x:f>
       </x:c>
       <x:c r="W13" s="18">
         <x:f t="array"/>
@@ -18272,19 +18346,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P17" s="18">
-        <x:f> (W12 - W11) / (3 * T5)</x:f>
+        <x:f>(W12 - W11) / (3 * T5)</x:f>
       </x:c>
       <x:c r="Q17" s="18">
-        <x:f> W11</x:f>
+        <x:f>W11</x:f>
       </x:c>
       <x:c r="R17" s="18">
-        <x:f> W5 - T5 * (W12 + 2 * W11) / 3</x:f>
+        <x:f>W5 - T5 * (W12 + 2 * W11) / 3</x:f>
       </x:c>
       <x:c r="S17" s="18">
-        <x:f> Q5</x:f>
-      </x:c>
-      <x:c r="U17" s="1">
-        <x:f> P17 * 2^3 + Q17 * 2^2 + R17 * 2 + S17</x:f>
+        <x:f>Q5</x:f>
+      </x:c>
+      <x:c r="U17" s="8">
+        <x:f>P17 * 2^3 + Q17 * 2^2 + R17 * 2 + S17</x:f>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -18292,19 +18366,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P18" s="18">
-        <x:f> (W13 - W12) / (3 * T6)</x:f>
+        <x:f>(W13 - W12) / (3 * T6)</x:f>
       </x:c>
       <x:c r="Q18" s="18">
-        <x:f> W12</x:f>
+        <x:f>W12</x:f>
       </x:c>
       <x:c r="R18" s="18">
-        <x:f> W6 - T6 * (W13 + 2 * W12) / 3</x:f>
+        <x:f>W6 - T6 * (W13 + 2 * W12) / 3</x:f>
       </x:c>
       <x:c r="S18" s="18">
-        <x:f> Q6</x:f>
-      </x:c>
-      <x:c r="U18" s="1">
-        <x:f> P18 * 2^3 + Q18 * 2^2 + R18 * 2 + S18</x:f>
+        <x:f>Q6</x:f>
+      </x:c>
+      <x:c r="U18" s="8">
+        <x:f>P18 * 2^3 + Q18 * 2^2 + R18 * 2 + S18</x:f>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -18312,56 +18386,56 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P19" s="18">
-        <x:f> (W14 - W13) / (3 * T7)</x:f>
+        <x:f>(W14 - W13) / (3 * T7)</x:f>
       </x:c>
       <x:c r="Q19" s="18">
-        <x:f> W13</x:f>
+        <x:f>W13</x:f>
       </x:c>
       <x:c r="R19" s="18">
-        <x:f> W7 - T7 * (W14 + 2 * W13) / 3</x:f>
+        <x:f>W7 - T7 * (W14 + 2 * W13) / 3</x:f>
       </x:c>
       <x:c r="S19" s="18">
-        <x:f> Q7</x:f>
-      </x:c>
-      <x:c r="U19" s="1">
-        <x:f> P19 * 2^3 + Q19 * 2^2 + R19 * 2 + S19</x:f>
+        <x:f>Q7</x:f>
+      </x:c>
+      <x:c r="U19" s="8">
+        <x:f>P19 * 2^3 + Q19 * 2^2 + R19 * 2 + S19</x:f>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O21" s="110" t="s"/>
-      <x:c r="P21" s="110" t="s"/>
-      <x:c r="Q21" s="110" t="s"/>
-      <x:c r="R21" s="110" t="s"/>
-      <x:c r="S21" s="110" t="s"/>
-      <x:c r="T21" s="110" t="s"/>
-      <x:c r="U21" s="110" t="s"/>
-      <x:c r="V21" s="110" t="s"/>
-      <x:c r="W21" s="110" t="s"/>
-      <x:c r="X21" s="110" t="s"/>
-      <x:c r="Z21" s="110" t="s"/>
-      <x:c r="AA21" s="110" t="s"/>
-      <x:c r="AB21" s="110" t="s"/>
-      <x:c r="AC21" s="110" t="s"/>
-      <x:c r="AD21" s="110" t="s"/>
-      <x:c r="AE21" s="110" t="s"/>
-      <x:c r="AF21" s="110" t="s"/>
-      <x:c r="AG21" s="110" t="s"/>
-      <x:c r="AH21" s="110" t="s"/>
-      <x:c r="AI21" s="110" t="s"/>
+      <x:c r="O21" s="63" t="s"/>
+      <x:c r="P21" s="63" t="s"/>
+      <x:c r="Q21" s="63" t="s"/>
+      <x:c r="R21" s="63" t="s"/>
+      <x:c r="S21" s="63" t="s"/>
+      <x:c r="T21" s="63" t="s"/>
+      <x:c r="U21" s="63" t="s"/>
+      <x:c r="V21" s="63" t="s"/>
+      <x:c r="W21" s="63" t="s"/>
+      <x:c r="X21" s="63" t="s"/>
+      <x:c r="Z21" s="63" t="s"/>
+      <x:c r="AA21" s="63" t="s"/>
+      <x:c r="AB21" s="63" t="s"/>
+      <x:c r="AC21" s="63" t="s"/>
+      <x:c r="AD21" s="63" t="s"/>
+      <x:c r="AE21" s="63" t="s"/>
+      <x:c r="AF21" s="63" t="s"/>
+      <x:c r="AG21" s="63" t="s"/>
+      <x:c r="AH21" s="63" t="s"/>
+      <x:c r="AI21" s="63" t="s"/>
     </x:row>
     <x:row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O23" s="75" t="s">
+      <x:c r="O23" s="38" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="Z23" s="75" t="s">
+      <x:c r="Z23" s="38" t="s">
         <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O24" s="4" t="s">
+      <x:c r="O24" s="11" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="Z24" s="4" t="s">
+      <x:c r="Z24" s="11" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
@@ -18369,10 +18443,10 @@
       <x:c r="O25" s="17" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="P25" s="111" t="s">
+      <x:c r="P25" s="64" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="Q25" s="111" t="s">
+      <x:c r="Q25" s="64" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="S25" s="17" t="s">
@@ -18393,10 +18467,10 @@
       <x:c r="Z25" s="17" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="AA25" s="111" t="s">
+      <x:c r="AA25" s="64" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="AB25" s="111" t="s">
+      <x:c r="AB25" s="64" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="AD25" s="17" t="s">
@@ -18419,171 +18493,171 @@
       <x:c r="O26" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="P26" s="105" t="n">
+      <x:c r="P26" s="60" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q26" s="105" t="n">
+      <x:c r="Q26" s="60" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S26" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T26" s="18">
-        <x:f> P27 - P26</x:f>
+        <x:f>P27 - P26</x:f>
       </x:c>
       <x:c r="U26" s="18">
-        <x:f> T26 + T27</x:f>
+        <x:f>T26 + T27</x:f>
       </x:c>
       <x:c r="V26" s="18">
-        <x:f> Q27 - Q26</x:f>
+        <x:f>Q27 - Q26</x:f>
       </x:c>
       <x:c r="W26" s="18">
-        <x:f> V26 / T26</x:f>
+        <x:f>V26 / T26</x:f>
       </x:c>
       <x:c r="Z26" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AA26" s="105" t="s"/>
-      <x:c r="AB26" s="105" t="s"/>
+      <x:c r="AA26" s="60" t="s"/>
+      <x:c r="AB26" s="60" t="s"/>
       <x:c r="AD26" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AE26" s="18">
-        <x:f> AA27 - AA26</x:f>
+        <x:f>AA27 - AA26</x:f>
       </x:c>
       <x:c r="AF26" s="18">
-        <x:f> AE26 + AE27</x:f>
+        <x:f>AE26 + AE27</x:f>
       </x:c>
       <x:c r="AG26" s="18">
-        <x:f> AB27 - AB26</x:f>
+        <x:f>AB27 - AB26</x:f>
       </x:c>
       <x:c r="AH26" s="18" t="e">
-        <x:f> AG26 / AE26</x:f>
+        <x:f>AG26 / AE26</x:f>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="O27" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="P27" s="105" t="n">
+      <x:c r="P27" s="60" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Q27" s="105" t="n">
+      <x:c r="Q27" s="60" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="S27" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T27" s="18">
-        <x:f> P28 - P27</x:f>
+        <x:f>P28 - P27</x:f>
       </x:c>
       <x:c r="U27" s="18">
-        <x:f> T27 + T28</x:f>
+        <x:f>T27 + T28</x:f>
       </x:c>
       <x:c r="V27" s="18">
-        <x:f> Q28 - Q27</x:f>
+        <x:f>Q28 - Q27</x:f>
       </x:c>
       <x:c r="W27" s="18">
-        <x:f> V27 / T27</x:f>
+        <x:f>V27 / T27</x:f>
       </x:c>
       <x:c r="Z27" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA27" s="105" t="s"/>
-      <x:c r="AB27" s="105" t="s"/>
+      <x:c r="AA27" s="60" t="s"/>
+      <x:c r="AB27" s="60" t="s"/>
       <x:c r="AD27" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AE27" s="18">
-        <x:f> AA28 - AA27</x:f>
+        <x:f>AA28 - AA27</x:f>
       </x:c>
       <x:c r="AF27" s="18">
-        <x:f> AE27 + AE28</x:f>
+        <x:f>AE27 + AE28</x:f>
       </x:c>
       <x:c r="AG27" s="18">
-        <x:f> AB28 - AB27</x:f>
+        <x:f>AB28 - AB27</x:f>
       </x:c>
       <x:c r="AH27" s="18" t="e">
-        <x:f> AG27 / AE27</x:f>
+        <x:f>AG27 / AE27</x:f>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="O28" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="P28" s="105" t="n">
+      <x:c r="P28" s="60" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="Q28" s="105" t="n">
+      <x:c r="Q28" s="60" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="S28" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="T28" s="18">
-        <x:f> P29 - P28</x:f>
+        <x:f>P29 - P28</x:f>
       </x:c>
       <x:c r="U28" s="18" t="s"/>
       <x:c r="V28" s="18">
-        <x:f> Q29 - Q28</x:f>
+        <x:f>Q29 - Q28</x:f>
       </x:c>
       <x:c r="W28" s="18">
-        <x:f> V28 / T28</x:f>
+        <x:f>V28 / T28</x:f>
       </x:c>
       <x:c r="Z28" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="AA28" s="105" t="s"/>
-      <x:c r="AB28" s="105" t="s"/>
+      <x:c r="AA28" s="60" t="s"/>
+      <x:c r="AB28" s="60" t="s"/>
       <x:c r="AD28" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AE28" s="18">
-        <x:f> AA29 - AA28</x:f>
+        <x:f>AA29 - AA28</x:f>
       </x:c>
       <x:c r="AF28" s="18" t="s"/>
       <x:c r="AG28" s="18">
-        <x:f> AB29 - AB28</x:f>
+        <x:f>AB29 - AB28</x:f>
       </x:c>
       <x:c r="AH28" s="18" t="e">
-        <x:f> AG28 / AE28</x:f>
+        <x:f>AG28 / AE28</x:f>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="O29" s="18" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="P29" s="105" t="n">
+      <x:c r="P29" s="60" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="Q29" s="105" t="n">
+      <x:c r="Q29" s="60" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="Z29" s="18" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="AA29" s="105" t="s"/>
-      <x:c r="AB29" s="105" t="s"/>
+      <x:c r="AA29" s="60" t="s"/>
+      <x:c r="AB29" s="60" t="s"/>
     </x:row>
     <x:row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="P31" s="103" t="s">
+      <x:c r="P31" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="Q31" s="106" t="s"/>
-      <x:c r="R31" s="106" t="s"/>
-      <x:c r="S31" s="104" t="s"/>
+      <x:c r="Q31" s="4" t="s"/>
+      <x:c r="R31" s="4" t="s"/>
+      <x:c r="S31" s="3" t="s"/>
       <x:c r="U31" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="W31" s="17" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AA31" s="103" t="s">
+      <x:c r="AA31" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AB31" s="106" t="s"/>
-      <x:c r="AC31" s="106" t="s"/>
-      <x:c r="AD31" s="104" t="s"/>
+      <x:c r="AB31" s="4" t="s"/>
+      <x:c r="AC31" s="4" t="s"/>
+      <x:c r="AD31" s="3" t="s"/>
       <x:c r="AF31" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -18608,7 +18682,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W32" s="18">
-        <x:f t="array" ref="W32:W35"> MMULT( MINVERSE(P32:S35), U32:U35 )</x:f>
+        <x:f t="array" ref="W32:W35">MMULT( MINVERSE(P32:S35), U32:U35 )</x:f>
       </x:c>
       <x:c r="AA32" s="18" t="n">
         <x:v>2</x:v>
@@ -18626,42 +18700,42 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH32" s="18" t="e">
-        <x:f t="array" ref="AH32:AH35"> MMULT( MINVERSE(AA32:AD35), AF32:AF35 )</x:f>
+        <x:f t="array" ref="AH32:AH35">MMULT( MINVERSE(AA32:AD35), AF32:AF35 )</x:f>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="P33" s="18">
-        <x:f> T26 / U26</x:f>
+        <x:f>T26 / U26</x:f>
       </x:c>
       <x:c r="Q33" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R33" s="18">
-        <x:f> 1 - P33</x:f>
+        <x:f>1 - P33</x:f>
       </x:c>
       <x:c r="S33" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U33" s="18">
-        <x:f> 3 * (W27 - W26) / U26</x:f>
+        <x:f>3 * (W27 - W26) / U26</x:f>
       </x:c>
       <x:c r="W33" s="18">
         <x:f t="array"/>
       </x:c>
       <x:c r="AA33" s="18" t="e">
-        <x:f> AE26 / AF26</x:f>
+        <x:f>AE26 / AF26</x:f>
       </x:c>
       <x:c r="AB33" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AC33" s="18" t="e">
-        <x:f> 1 - AA33</x:f>
+        <x:f>1 - AA33</x:f>
       </x:c>
       <x:c r="AD33" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AF33" s="18" t="e">
-        <x:f> 3 * (AH27 - AH26) / AF26</x:f>
+        <x:f>3 * (AH27 - AH26) / AF26</x:f>
       </x:c>
       <x:c r="AH33" s="18" t="e">
         <x:f t="array"/>
@@ -18672,16 +18746,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q34" s="18">
-        <x:f> T27 / U27</x:f>
+        <x:f>T27 / U27</x:f>
       </x:c>
       <x:c r="R34" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="S34" s="18">
-        <x:f> 1 - Q34</x:f>
+        <x:f>1 - Q34</x:f>
       </x:c>
       <x:c r="U34" s="18">
-        <x:f> 3 * (W28 - W27) / U27</x:f>
+        <x:f>3 * (W28 - W27) / U27</x:f>
       </x:c>
       <x:c r="W34" s="18">
         <x:f t="array"/>
@@ -18690,16 +18764,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AB34" s="18" t="e">
-        <x:f> AE27 / AF27</x:f>
+        <x:f>AE27 / AF27</x:f>
       </x:c>
       <x:c r="AC34" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AD34" s="18" t="e">
-        <x:f> 1 - AB34</x:f>
+        <x:f>1 - AB34</x:f>
       </x:c>
       <x:c r="AF34" s="18" t="e">
-        <x:f> 3 * (AH28 - AH27) / AF27</x:f>
+        <x:f>3 * (AH28 - AH27) / AF27</x:f>
       </x:c>
       <x:c r="AH34" s="18" t="e">
         <x:f t="array"/>
@@ -18780,31 +18854,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P38" s="18">
-        <x:f> (W33 - W32) / (3 * T26)</x:f>
+        <x:f>(W33 - W32) / (3 * T26)</x:f>
       </x:c>
       <x:c r="Q38" s="18">
-        <x:f> W32</x:f>
+        <x:f>W32</x:f>
       </x:c>
       <x:c r="R38" s="18">
-        <x:f> W26 - T26 * (W33 + 2 * W32) / 3</x:f>
+        <x:f>W26 - T26 * (W33 + 2 * W32) / 3</x:f>
       </x:c>
       <x:c r="S38" s="18">
-        <x:f> Q26</x:f>
+        <x:f>Q26</x:f>
       </x:c>
       <x:c r="Z38" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AA38" s="18" t="e">
-        <x:f> (AH33 - AH32) / (3 * AE26)</x:f>
+        <x:f>(AH33 - AH32) / (3 * AE26)</x:f>
       </x:c>
       <x:c r="AB38" s="18" t="e">
-        <x:f> AH32</x:f>
+        <x:f>AH32</x:f>
       </x:c>
       <x:c r="AC38" s="18" t="e">
-        <x:f> AH26 - AE26 * (AH33 + 2 * AH32) / 3</x:f>
+        <x:f>AH26 - AE26 * (AH33 + 2 * AH32) / 3</x:f>
       </x:c>
       <x:c r="AD38" s="18">
-        <x:f> AB26</x:f>
+        <x:f>AB26</x:f>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:35" x14ac:dyDescent="0.25">
@@ -18812,31 +18886,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P39" s="18">
-        <x:f> (W34 - W33) / (3 * T27)</x:f>
+        <x:f>(W34 - W33) / (3 * T27)</x:f>
       </x:c>
       <x:c r="Q39" s="18">
-        <x:f> W33</x:f>
+        <x:f>W33</x:f>
       </x:c>
       <x:c r="R39" s="18">
-        <x:f> W27 - T27 * (W34 + 2 * W33) / 3</x:f>
+        <x:f>W27 - T27 * (W34 + 2 * W33) / 3</x:f>
       </x:c>
       <x:c r="S39" s="18">
-        <x:f> Q26</x:f>
+        <x:f>Q26</x:f>
       </x:c>
       <x:c r="Z39" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AA39" s="18" t="e">
-        <x:f> (AH34 - AH33) / (3 * AE27)</x:f>
+        <x:f>(AH34 - AH33) / (3 * AE27)</x:f>
       </x:c>
       <x:c r="AB39" s="18" t="e">
-        <x:f> AH33</x:f>
+        <x:f>AH33</x:f>
       </x:c>
       <x:c r="AC39" s="18" t="e">
-        <x:f> AH27 - AE27 * (AH34 + 2 * AH33) / 3</x:f>
+        <x:f>AH27 - AE27 * (AH34 + 2 * AH33) / 3</x:f>
       </x:c>
       <x:c r="AD39" s="18">
-        <x:f> AB27</x:f>
+        <x:f>AB27</x:f>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:35" x14ac:dyDescent="0.25">
@@ -18844,31 +18918,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P40" s="18">
-        <x:f> (W35 - W34) / (3 * T28)</x:f>
+        <x:f>(W35 - W34) / (3 * T28)</x:f>
       </x:c>
       <x:c r="Q40" s="18">
-        <x:f> W34</x:f>
+        <x:f>W34</x:f>
       </x:c>
       <x:c r="R40" s="18">
-        <x:f> W28 - T28 * (W35 + 2 * W34) / 3</x:f>
+        <x:f>W28 - T28 * (W35 + 2 * W34) / 3</x:f>
       </x:c>
       <x:c r="S40" s="18">
-        <x:f> Q26</x:f>
+        <x:f>Q26</x:f>
       </x:c>
       <x:c r="Z40" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AA40" s="18" t="e">
-        <x:f> (AH35 - AH34) / (3 * AE28)</x:f>
+        <x:f>(AH35 - AH34) / (3 * AE28)</x:f>
       </x:c>
       <x:c r="AB40" s="18" t="e">
-        <x:f> AH34</x:f>
+        <x:f>AH34</x:f>
       </x:c>
       <x:c r="AC40" s="18" t="e">
-        <x:f> AH28 - AE28 * (AH35 + 2 * AH34) / 3</x:f>
+        <x:f>AH28 - AE28 * (AH35 + 2 * AH34) / 3</x:f>
       </x:c>
       <x:c r="AD40" s="18">
-        <x:f> AB28</x:f>
+        <x:f>AB28</x:f>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:35" x14ac:dyDescent="0.25">
@@ -18878,10 +18952,10 @@
       <x:c r="P42" s="17" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="R42" s="111" t="s">
+      <x:c r="R42" s="64" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="S42" s="112" t="s">
+      <x:c r="S42" s="65" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="Z42" s="17" t="s">
@@ -18890,10 +18964,10 @@
       <x:c r="AA42" s="17" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="AC42" s="111" t="s">
+      <x:c r="AC42" s="64" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="AD42" s="112" t="s">
+      <x:c r="AD42" s="65" t="s">
         <x:v>73</x:v>
       </x:c>
     </x:row>
@@ -18901,24 +18975,24 @@
       <x:c r="O43" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="P43" s="78" t="str">
-        <x:f> "0:1"</x:f>
-      </x:c>
-      <x:c r="R43" s="105" t="n">
+      <x:c r="P43" s="39" t="str">
+        <x:f>"0:1"</x:f>
+      </x:c>
+      <x:c r="R43" s="60" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="S43" s="113">
-        <x:f> IF(R43 = P26, Q26, IF(R43 = P27, Q27, IF(R43 = P28, Q28, IF(R43 = P29, Q29, IF(AND(R43 &gt; P26, R43 &lt; P27), (P38 * R43^3 + Q38 * R43^2 + R38 * R43 + S38), IF(AND(R43 &gt; P27, R43 &lt; P28), (P39 * R43^3 + Q39 * R43^2 + R39 * R43 + S39), IF(AND(R43 &gt; P28, R43 &lt; P29), (P40 * R43^3 + Q40 * R43^2 + R40 * R43 + S40))))))))</x:f>
+      <x:c r="S43" s="66">
+        <x:f>IF(R43 = P26, Q26, IF(R43 = P27, Q27, IF(R43 = P28, Q28, IF(R43 = P29, Q29, IF(AND(R43 &gt; P26, R43 &lt; P27), (P38 * R43^3 + Q38 * R43^2 + R38 * R43 + S38), IF(AND(R43 &gt; P27, R43 &lt; P28), (P39 * R43^3 + Q39 * R43^2 + R39 * R43 + S39), IF(AND(R43 &gt; P28, R43 &lt; P29), (P40 * R43^3 + Q40 * R43^2 + R40 * R43 + S40))))))))</x:f>
       </x:c>
       <x:c r="Z43" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AA43" s="78" t="str">
-        <x:f> "0:1"</x:f>
-      </x:c>
-      <x:c r="AC43" s="105" t="s"/>
-      <x:c r="AD43" s="113">
-        <x:f> IF(AC43 = AA26, AB26, IF(AC43 = AA27, AB27, IF(AC43 = AA28, AB28, IF(AC43 = AA29, AB29, IF(AND(AC43 &gt; AA26, AC43 &lt; AA27), (AA38 * AC43^3 + AB38 * AC43^2 + AC38 * AC43 + AD38), IF(AND(AC43 &gt; AA27, AC43 &lt; AA28), (AA39 * AC43^3 + AB39 * AC43^2 + AC39 * AC43 + AD39), IF(AND(AC43 &gt; AA28, AC43 &lt; AA29), (AA40 * AC43^3 + AB40 * AC43^2 + AC40 * AC43 + AD40))))))))</x:f>
+      <x:c r="AA43" s="39" t="str">
+        <x:f>"0:1"</x:f>
+      </x:c>
+      <x:c r="AC43" s="60" t="s"/>
+      <x:c r="AD43" s="66">
+        <x:f>IF(AC43 = AA26, AB26, IF(AC43 = AA27, AB27, IF(AC43 = AA28, AB28, IF(AC43 = AA29, AB29, IF(AND(AC43 &gt; AA26, AC43 &lt; AA27), (AA38 * AC43^3 + AB38 * AC43^2 + AC38 * AC43 + AD38), IF(AND(AC43 &gt; AA27, AC43 &lt; AA28), (AA39 * AC43^3 + AB39 * AC43^2 + AC39 * AC43 + AD39), IF(AND(AC43 &gt; AA28, AC43 &lt; AA29), (AA40 * AC43^3 + AB40 * AC43^2 + AC40 * AC43 + AD40))))))))</x:f>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:35" x14ac:dyDescent="0.25">
@@ -18926,23 +19000,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P44" s="18" t="str">
-        <x:f> "1:2"</x:f>
-      </x:c>
-      <x:c r="R44" s="105" t="n">
+        <x:f>"1:2"</x:f>
+      </x:c>
+      <x:c r="R44" s="60" t="n">
         <x:v>0.25</x:v>
       </x:c>
-      <x:c r="S44" s="113">
-        <x:f> IF(R44 = P23, Q26, IF(R44 = P27, Q27, IF(R44 = P28, Q28, IF(R44 = P29, Q29, IF(AND(R44 &gt; P26, R44 &lt; P27), (P38 * R44^3 + Q38 * R44^2 + R38 * R44 + S38), IF(AND(R44 &gt; P27, R44 &lt; P28), (P39 * R44^3 + Q39 * R44^2 + R39 * R44 + S39), IF(AND(R44 &gt; P28, R44 &lt; P29), (P40 * R44^3 + Q40 * R44^2 + R40 * R44 + S40))))))))</x:f>
+      <x:c r="S44" s="66">
+        <x:f>IF(R44 = P23, Q26, IF(R44 = P27, Q27, IF(R44 = P28, Q28, IF(R44 = P29, Q29, IF(AND(R44 &gt; P26, R44 &lt; P27), (P38 * R44^3 + Q38 * R44^2 + R38 * R44 + S38), IF(AND(R44 &gt; P27, R44 &lt; P28), (P39 * R44^3 + Q39 * R44^2 + R39 * R44 + S39), IF(AND(R44 &gt; P28, R44 &lt; P29), (P40 * R44^3 + Q40 * R44^2 + R40 * R44 + S40))))))))</x:f>
       </x:c>
       <x:c r="Z44" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AA44" s="18" t="str">
-        <x:f> "1:2"</x:f>
-      </x:c>
-      <x:c r="AC44" s="105" t="s"/>
-      <x:c r="AD44" s="113">
-        <x:f> IF(AC44 = AA23, AB26, IF(AC44 = AA27, AB27, IF(AC44 = AA28, AB28, IF(AC44 = AA29, AB29, IF(AND(AC44 &gt; AA26, AC44 &lt; AA27), (AA38 * AC44^3 + AB38 * AC44^2 + AC38 * AC44 + AD38), IF(AND(AC44 &gt; AA27, AC44 &lt; AA28), (AA39 * AC44^3 + AB39 * AC44^2 + AC39 * AC44 + AD39), IF(AND(AC44 &gt; AA28, AC44 &lt; AA29), (AA40 * AC44^3 + AB40 * AC44^2 + AC40 * AC44 + AD40))))))))</x:f>
+        <x:f>"1:2"</x:f>
+      </x:c>
+      <x:c r="AC44" s="60" t="s"/>
+      <x:c r="AD44" s="66">
+        <x:f>IF(AC44 = AA23, AB26, IF(AC44 = AA27, AB27, IF(AC44 = AA28, AB28, IF(AC44 = AA29, AB29, IF(AND(AC44 &gt; AA26, AC44 &lt; AA27), (AA38 * AC44^3 + AB38 * AC44^2 + AC38 * AC44 + AD38), IF(AND(AC44 &gt; AA27, AC44 &lt; AA28), (AA39 * AC44^3 + AB39 * AC44^2 + AC39 * AC44 + AD39), IF(AND(AC44 &gt; AA28, AC44 &lt; AA29), (AA40 * AC44^3 + AB40 * AC44^2 + AC40 * AC44 + AD40))))))))</x:f>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:35" x14ac:dyDescent="0.25">
@@ -18950,102 +19024,102 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P45" s="18" t="str">
-        <x:f> "2:3"</x:f>
-      </x:c>
-      <x:c r="R45" s="105" t="n">
+        <x:f>"2:3"</x:f>
+      </x:c>
+      <x:c r="R45" s="60" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="S45" s="113">
-        <x:f> IF(R45 = P26, Q26, IF(R45 = P27, Q27, IF(R45 = P28, Q28, IF(R45 = P29, Q29, IF(AND(R45 &gt; P26, R45 &lt; P27), (P38 * R45^3 + Q38 * R45^2 + R38 * R45 + S38), IF(AND(R45 &gt; P27, R45 &lt; P28), (P39 * R45^3 + Q39 * R45^2 + R39 * R45 + S39), IF(AND(R45 &gt; P28, R45 &lt; P29), (P40 * R45^3 + Q40 * R45^2 + R40 * R45 + S40))))))))</x:f>
+      <x:c r="S45" s="66">
+        <x:f>IF(R45 = P26, Q26, IF(R45 = P27, Q27, IF(R45 = P28, Q28, IF(R45 = P29, Q29, IF(AND(R45 &gt; P26, R45 &lt; P27), (P38 * R45^3 + Q38 * R45^2 + R38 * R45 + S38), IF(AND(R45 &gt; P27, R45 &lt; P28), (P39 * R45^3 + Q39 * R45^2 + R39 * R45 + S39), IF(AND(R45 &gt; P28, R45 &lt; P29), (P40 * R45^3 + Q40 * R45^2 + R40 * R45 + S40))))))))</x:f>
       </x:c>
       <x:c r="Z45" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AA45" s="18" t="str">
-        <x:f> "2:3"</x:f>
-      </x:c>
-      <x:c r="AC45" s="105" t="s"/>
-      <x:c r="AD45" s="113">
-        <x:f> IF(AC45 = AA26, AB26, IF(AC45 = AA27, AB27, IF(AC45 = AA28, AB28, IF(AC45 = AA29, AB29, IF(AND(AC45 &gt; AA26, AC45 &lt; AA27), (AA38 * AC45^3 + AB38 * AC45^2 + AC38 * AC45 + AD38), IF(AND(AC45 &gt; AA27, AC45 &lt; AA28), (AA39 * AC45^3 + AB39 * AC45^2 + AC39 * AC45 + AD39), IF(AND(AC45 &gt; AA28, AC45 &lt; AA29), (AA40 * AC45^3 + AB40 * AC45^2 + AC40 * AC45 + AD40))))))))</x:f>
+        <x:f>"2:3"</x:f>
+      </x:c>
+      <x:c r="AC45" s="60" t="s"/>
+      <x:c r="AD45" s="66">
+        <x:f>IF(AC45 = AA26, AB26, IF(AC45 = AA27, AB27, IF(AC45 = AA28, AB28, IF(AC45 = AA29, AB29, IF(AND(AC45 &gt; AA26, AC45 &lt; AA27), (AA38 * AC45^3 + AB38 * AC45^2 + AC38 * AC45 + AD38), IF(AND(AC45 &gt; AA27, AC45 &lt; AA28), (AA39 * AC45^3 + AB39 * AC45^2 + AC39 * AC45 + AD39), IF(AND(AC45 &gt; AA28, AC45 &lt; AA29), (AA40 * AC45^3 + AB40 * AC45^2 + AC40 * AC45 + AD40))))))))</x:f>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R46" s="105" t="n">
+      <x:c r="R46" s="60" t="n">
         <x:v>1.72</x:v>
       </x:c>
-      <x:c r="S46" s="113">
-        <x:f> IF(R46 = P26, Q26, IF(R46 = P27, Q27, IF(R46 = P28, Q28, IF(R46 = P29, Q29, IF(AND(R46 &gt; P26, R46 &lt; P27), (P38 * R46^3 + Q38 * R46^2 + R38 * R46 + S38), IF(AND(R46 &gt; P27, R46 &lt; P28), (P39 * R46^3 + Q39 * R46^2 + R39 * R46 + S39), IF(AND(R46 &gt; P28, R46 &lt; P29), (P40 * R46^3 + Q40 * R46^2 + R40 * R46 + S40))))))))</x:f>
-      </x:c>
-      <x:c r="AC46" s="105" t="s"/>
-      <x:c r="AD46" s="113">
-        <x:f> IF(AC46 = AA26, AB26, IF(AC46 = AA27, AB27, IF(AC46 = AA28, AB28, IF(AC46 = AA29, AB29, IF(AND(AC46 &gt; AA26, AC46 &lt; AA27), (AA38 * AC46^3 + AB38 * AC46^2 + AC38 * AC46 + AD38), IF(AND(AC46 &gt; AA27, AC46 &lt; AA28), (AA39 * AC46^3 + AB39 * AC46^2 + AC39 * AC46 + AD39), IF(AND(AC46 &gt; AA28, AC46 &lt; AA29), (AA40 * AC46^3 + AB40 * AC46^2 + AC40 * AC46 + AD40))))))))</x:f>
+      <x:c r="S46" s="66">
+        <x:f>IF(R46 = P26, Q26, IF(R46 = P27, Q27, IF(R46 = P28, Q28, IF(R46 = P29, Q29, IF(AND(R46 &gt; P26, R46 &lt; P27), (P38 * R46^3 + Q38 * R46^2 + R38 * R46 + S38), IF(AND(R46 &gt; P27, R46 &lt; P28), (P39 * R46^3 + Q39 * R46^2 + R39 * R46 + S39), IF(AND(R46 &gt; P28, R46 &lt; P29), (P40 * R46^3 + Q40 * R46^2 + R40 * R46 + S40))))))))</x:f>
+      </x:c>
+      <x:c r="AC46" s="60" t="s"/>
+      <x:c r="AD46" s="66">
+        <x:f>IF(AC46 = AA26, AB26, IF(AC46 = AA27, AB27, IF(AC46 = AA28, AB28, IF(AC46 = AA29, AB29, IF(AND(AC46 &gt; AA26, AC46 &lt; AA27), (AA38 * AC46^3 + AB38 * AC46^2 + AC38 * AC46 + AD38), IF(AND(AC46 &gt; AA27, AC46 &lt; AA28), (AA39 * AC46^3 + AB39 * AC46^2 + AC39 * AC46 + AD39), IF(AND(AC46 &gt; AA28, AC46 &lt; AA29), (AA40 * AC46^3 + AB40 * AC46^2 + AC40 * AC46 + AD40))))))))</x:f>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R47" s="105" t="n">
+      <x:c r="R47" s="60" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="S47" s="113">
-        <x:f> IF(R47 = P26, Q26, IF(R47 = P27, Q27, IF(R47 = P28, Q28, IF(R47 = P29, Q29, IF(AND(R47 &gt; P26, R47 &lt; P27), (P38 * R47^3 + Q38 * R47^2 + R38 * R47 + S38), IF(AND(R47 &gt; P27, R47 &lt; P28), (P39 * R47^3 + Q39 * R47^2 + R39 * R47 + S39), IF(AND(R47 &gt; P28, R47 &lt; P29), (P40 * R47^3 + Q40 * R47^2 + R40 * R47 + S40))))))))</x:f>
-      </x:c>
-      <x:c r="AC47" s="105" t="s"/>
-      <x:c r="AD47" s="113">
-        <x:f> IF(AC47 = AA26, AB26, IF(AC47 = AA27, AB27, IF(AC47 = AA28, AB28, IF(AC47 = AA29, AB29, IF(AND(AC47 &gt; AA26, AC47 &lt; AA27), (AA38 * AC47^3 + AB38 * AC47^2 + AC38 * AC47 + AD38), IF(AND(AC47 &gt; AA27, AC47 &lt; AA28), (AA39 * AC47^3 + AB39 * AC47^2 + AC39 * AC47 + AD39), IF(AND(AC47 &gt; AA28, AC47 &lt; AA29), (AA40 * AC47^3 + AB40 * AC47^2 + AC40 * AC47 + AD40))))))))</x:f>
+      <x:c r="S47" s="66">
+        <x:f>IF(R47 = P26, Q26, IF(R47 = P27, Q27, IF(R47 = P28, Q28, IF(R47 = P29, Q29, IF(AND(R47 &gt; P26, R47 &lt; P27), (P38 * R47^3 + Q38 * R47^2 + R38 * R47 + S38), IF(AND(R47 &gt; P27, R47 &lt; P28), (P39 * R47^3 + Q39 * R47^2 + R39 * R47 + S39), IF(AND(R47 &gt; P28, R47 &lt; P29), (P40 * R47^3 + Q40 * R47^2 + R40 * R47 + S40))))))))</x:f>
+      </x:c>
+      <x:c r="AC47" s="60" t="s"/>
+      <x:c r="AD47" s="66">
+        <x:f>IF(AC47 = AA26, AB26, IF(AC47 = AA27, AB27, IF(AC47 = AA28, AB28, IF(AC47 = AA29, AB29, IF(AND(AC47 &gt; AA26, AC47 &lt; AA27), (AA38 * AC47^3 + AB38 * AC47^2 + AC38 * AC47 + AD38), IF(AND(AC47 &gt; AA27, AC47 &lt; AA28), (AA39 * AC47^3 + AB39 * AC47^2 + AC39 * AC47 + AD39), IF(AND(AC47 &gt; AA28, AC47 &lt; AA29), (AA40 * AC47^3 + AB40 * AC47^2 + AC40 * AC47 + AD40))))))))</x:f>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R48" s="105" t="n">
+      <x:c r="R48" s="60" t="n">
         <x:v>2.5</x:v>
       </x:c>
-      <x:c r="S48" s="113">
-        <x:f> IF(R48 = P26, Q26, IF(R48 = P27, Q27, IF(R48 = P28, Q28, IF(R48 = P29, Q29, IF(AND(R48 &gt; P26, R48 &lt; P27), (P38 * R48^3 + Q38 * R48^2 + R38 * R48 + S38), IF(AND(R48 &gt; P27, R48 &lt; P28), (P39 * R48^3 + Q39 * R48^2 + R39 * R48 + S39), IF(AND(R48 &gt; P28, R48 &lt; P29), (P40 * R48^3 + Q40 * R48^2 + R40 * R48 + S40))))))))</x:f>
-      </x:c>
-      <x:c r="AC48" s="105" t="s"/>
-      <x:c r="AD48" s="113">
-        <x:f> IF(AC48 = AA26, AB26, IF(AC48 = AA27, AB27, IF(AC48 = AA28, AB28, IF(AC48 = AA29, AB29, IF(AND(AC48 &gt; AA26, AC48 &lt; AA27), (AA38 * AC48^3 + AB38 * AC48^2 + AC38 * AC48 + AD38), IF(AND(AC48 &gt; AA27, AC48 &lt; AA28), (AA39 * AC48^3 + AB39 * AC48^2 + AC39 * AC48 + AD39), IF(AND(AC48 &gt; AA28, AC48 &lt; AA29), (AA40 * AC48^3 + AB40 * AC48^2 + AC40 * AC48 + AD40))))))))</x:f>
+      <x:c r="S48" s="66">
+        <x:f>IF(R48 = P26, Q26, IF(R48 = P27, Q27, IF(R48 = P28, Q28, IF(R48 = P29, Q29, IF(AND(R48 &gt; P26, R48 &lt; P27), (P38 * R48^3 + Q38 * R48^2 + R38 * R48 + S38), IF(AND(R48 &gt; P27, R48 &lt; P28), (P39 * R48^3 + Q39 * R48^2 + R39 * R48 + S39), IF(AND(R48 &gt; P28, R48 &lt; P29), (P40 * R48^3 + Q40 * R48^2 + R40 * R48 + S40))))))))</x:f>
+      </x:c>
+      <x:c r="AC48" s="60" t="s"/>
+      <x:c r="AD48" s="66">
+        <x:f>IF(AC48 = AA26, AB26, IF(AC48 = AA27, AB27, IF(AC48 = AA28, AB28, IF(AC48 = AA29, AB29, IF(AND(AC48 &gt; AA26, AC48 &lt; AA27), (AA38 * AC48^3 + AB38 * AC48^2 + AC38 * AC48 + AD38), IF(AND(AC48 &gt; AA27, AC48 &lt; AA28), (AA39 * AC48^3 + AB39 * AC48^2 + AC39 * AC48 + AD39), IF(AND(AC48 &gt; AA28, AC48 &lt; AA29), (AA40 * AC48^3 + AB40 * AC48^2 + AC40 * AC48 + AD40))))))))</x:f>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R49" s="105" t="n">
+      <x:c r="R49" s="60" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="S49" s="113">
-        <x:f> IF(R49 = P26, Q26, IF(R49 = P27, Q27, IF(R49 = P28, Q28, IF(R49 = P29, Q29, IF(AND(R49 &gt; P26, R49 &lt; P27), (P38 * R49^3 + Q38 * R49^2 + R38 * R49 + S38), IF(AND(R49 &gt; P27, R49 &lt; P28), (P39 * R49^3 + Q39 * R49^2 + R39 * R49 + S39), IF(AND(R49 &gt; P28, R49 &lt; P29), (P40 * R49^3 + Q40 * R49^2 + R40 * R49 + S40))))))))</x:f>
-      </x:c>
-      <x:c r="AC49" s="105" t="s"/>
-      <x:c r="AD49" s="113">
-        <x:f> IF(AC49 = AA26, AB26, IF(AC49 = AA27, AB27, IF(AC49 = AA28, AB28, IF(AC49 = AA29, AB29, IF(AND(AC49 &gt; AA26, AC49 &lt; AA27), (AA38 * AC49^3 + AB38 * AC49^2 + AC38 * AC49 + AD38), IF(AND(AC49 &gt; AA27, AC49 &lt; AA28), (AA39 * AC49^3 + AB39 * AC49^2 + AC39 * AC49 + AD39), IF(AND(AC49 &gt; AA28, AC49 &lt; AA29), (AA40 * AC49^3 + AB40 * AC49^2 + AC40 * AC49 + AD40))))))))</x:f>
+      <x:c r="S49" s="66">
+        <x:f>IF(R49 = P26, Q26, IF(R49 = P27, Q27, IF(R49 = P28, Q28, IF(R49 = P29, Q29, IF(AND(R49 &gt; P26, R49 &lt; P27), (P38 * R49^3 + Q38 * R49^2 + R38 * R49 + S38), IF(AND(R49 &gt; P27, R49 &lt; P28), (P39 * R49^3 + Q39 * R49^2 + R39 * R49 + S39), IF(AND(R49 &gt; P28, R49 &lt; P29), (P40 * R49^3 + Q40 * R49^2 + R40 * R49 + S40))))))))</x:f>
+      </x:c>
+      <x:c r="AC49" s="60" t="s"/>
+      <x:c r="AD49" s="66">
+        <x:f>IF(AC49 = AA26, AB26, IF(AC49 = AA27, AB27, IF(AC49 = AA28, AB28, IF(AC49 = AA29, AB29, IF(AND(AC49 &gt; AA26, AC49 &lt; AA27), (AA38 * AC49^3 + AB38 * AC49^2 + AC38 * AC49 + AD38), IF(AND(AC49 &gt; AA27, AC49 &lt; AA28), (AA39 * AC49^3 + AB39 * AC49^2 + AC39 * AC49 + AD39), IF(AND(AC49 &gt; AA28, AC49 &lt; AA29), (AA40 * AC49^3 + AB40 * AC49^2 + AC40 * AC49 + AD40))))))))</x:f>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O51" s="110" t="s"/>
-      <x:c r="P51" s="110" t="s"/>
-      <x:c r="Q51" s="110" t="s"/>
-      <x:c r="R51" s="110" t="s"/>
-      <x:c r="S51" s="110" t="s"/>
-      <x:c r="T51" s="110" t="s"/>
-      <x:c r="U51" s="110" t="s"/>
-      <x:c r="V51" s="110" t="s"/>
-      <x:c r="W51" s="110" t="s"/>
-      <x:c r="X51" s="110" t="s"/>
-      <x:c r="Z51" s="110" t="s"/>
-      <x:c r="AA51" s="110" t="s"/>
-      <x:c r="AB51" s="110" t="s"/>
-      <x:c r="AC51" s="110" t="s"/>
-      <x:c r="AD51" s="110" t="s"/>
-      <x:c r="AE51" s="110" t="s"/>
-      <x:c r="AF51" s="110" t="s"/>
-      <x:c r="AG51" s="110" t="s"/>
-      <x:c r="AH51" s="110" t="s"/>
-      <x:c r="AI51" s="110" t="s"/>
+      <x:c r="O51" s="63" t="s"/>
+      <x:c r="P51" s="63" t="s"/>
+      <x:c r="Q51" s="63" t="s"/>
+      <x:c r="R51" s="63" t="s"/>
+      <x:c r="S51" s="63" t="s"/>
+      <x:c r="T51" s="63" t="s"/>
+      <x:c r="U51" s="63" t="s"/>
+      <x:c r="V51" s="63" t="s"/>
+      <x:c r="W51" s="63" t="s"/>
+      <x:c r="X51" s="63" t="s"/>
+      <x:c r="Z51" s="63" t="s"/>
+      <x:c r="AA51" s="63" t="s"/>
+      <x:c r="AB51" s="63" t="s"/>
+      <x:c r="AC51" s="63" t="s"/>
+      <x:c r="AD51" s="63" t="s"/>
+      <x:c r="AE51" s="63" t="s"/>
+      <x:c r="AF51" s="63" t="s"/>
+      <x:c r="AG51" s="63" t="s"/>
+      <x:c r="AH51" s="63" t="s"/>
+      <x:c r="AI51" s="63" t="s"/>
     </x:row>
     <x:row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O53" s="4" t="s">
+      <x:c r="O53" s="11" t="s">
         <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O54" s="4" t="s">
+      <x:c r="O54" s="11" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
@@ -19053,10 +19127,10 @@
       <x:c r="O55" s="17" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="P55" s="111" t="s">
+      <x:c r="P55" s="64" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="Q55" s="111" t="s">
+      <x:c r="Q55" s="64" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="S55" s="17" t="s">
@@ -19079,96 +19153,96 @@
       <x:c r="O56" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="P56" s="105" t="n">
+      <x:c r="P56" s="60" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="Q56" s="105" t="n">
+      <x:c r="Q56" s="60" t="n">
         <x:v>1.098612</x:v>
       </x:c>
       <x:c r="S56" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T56" s="18">
-        <x:f> P57 - P56</x:f>
+        <x:f>P57 - P56</x:f>
       </x:c>
       <x:c r="U56" s="18">
-        <x:f> T56 + T57</x:f>
+        <x:f>T56 + T57</x:f>
       </x:c>
       <x:c r="V56" s="18">
-        <x:f> Q57 - Q56</x:f>
+        <x:f>Q57 - Q56</x:f>
       </x:c>
       <x:c r="W56" s="18">
-        <x:f> V56 / T56</x:f>
+        <x:f>V56 / T56</x:f>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="O57" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="P57" s="105" t="n">
+      <x:c r="P57" s="60" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="Q57" s="105" t="n">
+      <x:c r="Q57" s="60" t="n">
         <x:v>1.791759</x:v>
       </x:c>
       <x:c r="S57" s="18" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T57" s="18">
-        <x:f> P58 - P57</x:f>
+        <x:f>P58 - P57</x:f>
       </x:c>
       <x:c r="U57" s="18">
-        <x:f> T57 + T58</x:f>
+        <x:f>T57 + T58</x:f>
       </x:c>
       <x:c r="V57" s="18">
-        <x:f> Q58 - Q57</x:f>
+        <x:f>Q58 - Q57</x:f>
       </x:c>
       <x:c r="W57" s="18">
-        <x:f> V57 / T57</x:f>
+        <x:f>V57 / T57</x:f>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="O58" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="P58" s="105" t="n">
+      <x:c r="P58" s="60" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="Q58" s="105" t="n">
+      <x:c r="Q58" s="60" t="n">
         <x:v>2.639057</x:v>
       </x:c>
       <x:c r="S58" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="T58" s="18">
-        <x:f> P59 - P58</x:f>
+        <x:f>P59 - P58</x:f>
       </x:c>
       <x:c r="U58" s="18" t="s"/>
       <x:c r="V58" s="18">
-        <x:f> Q59 - Q58</x:f>
+        <x:f>Q59 - Q58</x:f>
       </x:c>
       <x:c r="W58" s="18">
-        <x:f> V58 / T58</x:f>
+        <x:f>V58 / T58</x:f>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="O59" s="18" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="P59" s="105" t="n">
+      <x:c r="P59" s="60" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q59" s="105" t="n">
+      <x:c r="Q59" s="60" t="n">
         <x:v>2.772589</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="P61" s="103" t="s">
+      <x:c r="P61" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="Q61" s="106" t="s"/>
-      <x:c r="R61" s="106" t="s"/>
-      <x:c r="S61" s="104" t="s"/>
+      <x:c r="Q61" s="4" t="s"/>
+      <x:c r="R61" s="4" t="s"/>
+      <x:c r="S61" s="3" t="s"/>
       <x:c r="U61" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -19210,29 +19284,30 @@
       </x:c>
       <x:c r="V62" s="0" t="s"/>
       <x:c r="W62" s="18">
-        <x:f t="array" ref="W62:W65"> MMULT( MINVERSE(P62:S65), U62:U65 )</x:f>
+        <x:f t="array" ref="W62:W65">MMULT( MINVERSE(P62:S65), U62:U65 )</x:f>
       </x:c>
       <x:c r="X62" s="0" t="s"/>
-      <x:c r="Y62" s="114" t="s"/>
+      <x:c r="Y62" s="67" t="s"/>
       <x:c r="Z62" s="0" t="s"/>
       <x:c r="AA62" s="0" t="s"/>
       <x:c r="AB62" s="0" t="s"/>
+      <x:c r="AC62" s="0" t="s"/>
     </x:row>
     <x:row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <x:c r="P63" s="18">
-        <x:f> T56 / U56</x:f>
+        <x:f>T56 / U56</x:f>
       </x:c>
       <x:c r="Q63" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R63" s="18">
-        <x:f> 1 - P63</x:f>
+        <x:f>1 - P63</x:f>
       </x:c>
       <x:c r="S63" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U63" s="18">
-        <x:f> 3 * (W57 - W56) / U56</x:f>
+        <x:f>3 * (W57 - W56) / U56</x:f>
       </x:c>
       <x:c r="W63" s="18">
         <x:f t="array"/>
@@ -19243,16 +19318,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q64" s="18">
-        <x:f> T57 / U57</x:f>
+        <x:f>T57 / U57</x:f>
       </x:c>
       <x:c r="R64" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="S64" s="18">
-        <x:f> 1 - Q64</x:f>
+        <x:f>1 - Q64</x:f>
       </x:c>
       <x:c r="U64" s="18">
-        <x:f> 3 * (W58 - W57) / U57</x:f>
+        <x:f>3 * (W58 - W57) / U57</x:f>
       </x:c>
       <x:c r="W64" s="18">
         <x:f t="array"/>
@@ -19306,7 +19381,7 @@
       <x:c r="W67" s="17" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="X67" s="80" t="s">
+      <x:c r="X67" s="40" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
@@ -19315,31 +19390,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="18">
-        <x:f> (W63 - W62) / (3 * T56)</x:f>
+        <x:f>(W63 - W62) / (3 * T56)</x:f>
       </x:c>
       <x:c r="Q68" s="18">
-        <x:f> W62</x:f>
+        <x:f>W62</x:f>
       </x:c>
       <x:c r="R68" s="18">
-        <x:f> W56 - T56 * (W63 + 2 * W62) / 3</x:f>
+        <x:f>W56 - T56 * (W63 + 2 * W62) / 3</x:f>
       </x:c>
       <x:c r="S68" s="18">
-        <x:f> Q56</x:f>
+        <x:f>Q56</x:f>
       </x:c>
       <x:c r="T68" s="18">
-        <x:f> Q68^2 - 3 * P68 * R68</x:f>
+        <x:f>Q68^2 - 3 * P68 * R68</x:f>
       </x:c>
       <x:c r="U68" s="18">
-        <x:f> 2 * Q68^3 - 9 * P68 * Q68 * R68+ 27 * P68^2 * S68</x:f>
+        <x:f>2 * Q68^3 - 9 * P68 * Q68 * R68+ 27 * P68^2 * S68</x:f>
       </x:c>
       <x:c r="V68" s="18">
-        <x:f> ( 1/2 * (U68 + SQRT(U68^2 - 4*T68^3)) )^(1/3)</x:f>
-      </x:c>
-      <x:c r="W68" s="81">
-        <x:f> - (Q68 + V68 - T68 / V68) / (3 * P68)</x:f>
-      </x:c>
-      <x:c r="X68" s="72">
-        <x:f> P68 * P56^3 + Q68 *P56^2 + R68 * P56 + S68</x:f>
+        <x:f>( 1/2 * (U68 + SQRT(U68^2 - 4*T68^3)) )^(1/3)</x:f>
+      </x:c>
+      <x:c r="W68" s="41">
+        <x:f>- (Q68 + V68 - T68 / V68) / (3 * P68)</x:f>
+      </x:c>
+      <x:c r="X68" s="36">
+        <x:f>P68 * P56^3 + Q68 *P56^2 + R68 * P56 + S68</x:f>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:35" x14ac:dyDescent="0.25">
@@ -19347,31 +19422,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P69" s="18">
-        <x:f> (W64 - W63) / (3 * T57)</x:f>
+        <x:f>(W64 - W63) / (3 * T57)</x:f>
       </x:c>
       <x:c r="Q69" s="18">
-        <x:f> W63</x:f>
+        <x:f>W63</x:f>
       </x:c>
       <x:c r="R69" s="18">
-        <x:f> W57 - T57 * (W64 + 2 * W63) / 3</x:f>
+        <x:f>W57 - T57 * (W64 + 2 * W63) / 3</x:f>
       </x:c>
       <x:c r="S69" s="18">
-        <x:f> Q57</x:f>
+        <x:f>Q57</x:f>
       </x:c>
       <x:c r="T69" s="18">
-        <x:f> Q69^2 - 3 * P69 * R69</x:f>
+        <x:f>Q69^2 - 3 * P69 * R69</x:f>
       </x:c>
       <x:c r="U69" s="18">
-        <x:f> 2 * Q69^3 - 9 * P69 * Q69 * R69+ 27 * P69^2 * S69</x:f>
+        <x:f>2 * Q69^3 - 9 * P69 * Q69 * R69+ 27 * P69^2 * S69</x:f>
       </x:c>
       <x:c r="V69" s="18">
-        <x:f> ( 1/2 * (U69 + SQRT(U69^2 - 4*T69^3)) )^(1/3)</x:f>
-      </x:c>
-      <x:c r="W69" s="81">
-        <x:f> - (Q69 + V69 - T69 / V69) / (3 * P69)</x:f>
-      </x:c>
-      <x:c r="X69" s="72">
-        <x:f> P69 * W69^3 + Q69 * W69^2 + R69 * W69 + S69</x:f>
+        <x:f>( 1/2 * (U69 + SQRT(U69^2 - 4*T69^3)) )^(1/3)</x:f>
+      </x:c>
+      <x:c r="W69" s="41">
+        <x:f>- (Q69 + V69 - T69 / V69) / (3 * P69)</x:f>
+      </x:c>
+      <x:c r="X69" s="36">
+        <x:f>P69 * W69^3 + Q69 * W69^2 + R69 * W69 + S69</x:f>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:35" x14ac:dyDescent="0.25">
@@ -19379,31 +19454,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P70" s="18">
-        <x:f> (W65 - W64) / (3 * T58)</x:f>
+        <x:f>(W65 - W64) / (3 * T58)</x:f>
       </x:c>
       <x:c r="Q70" s="18">
-        <x:f> W64</x:f>
+        <x:f>W64</x:f>
       </x:c>
       <x:c r="R70" s="18">
-        <x:f> W58 - T58 * (W65 + 2 * W64) / 3</x:f>
+        <x:f>W58 - T58 * (W65 + 2 * W64) / 3</x:f>
       </x:c>
       <x:c r="S70" s="18">
-        <x:f> Q58</x:f>
+        <x:f>Q58</x:f>
       </x:c>
       <x:c r="T70" s="18">
-        <x:f> Q70^2 - 3 * P70 * R70</x:f>
+        <x:f>Q70^2 - 3 * P70 * R70</x:f>
       </x:c>
       <x:c r="U70" s="18">
-        <x:f> 2 * Q70^3 - 9 * P70 * Q70 * R70+ 27 * P70^2 * S70</x:f>
+        <x:f>2 * Q70^3 - 9 * P70 * Q70 * R70+ 27 * P70^2 * S70</x:f>
       </x:c>
       <x:c r="V70" s="18">
-        <x:f> ( 1/2 * (U70 + SQRT(U70^2 - 4*T70^3)) )^(1/3)</x:f>
-      </x:c>
-      <x:c r="W70" s="81">
-        <x:f> - (Q70 + V70 - T70 / V70) / (3 * P70)</x:f>
-      </x:c>
-      <x:c r="X70" s="72">
-        <x:f> P70 * W70^3 + Q70 * W70^2 + R70 * W70 + S70</x:f>
+        <x:f>( 1/2 * (U70 + SQRT(U70^2 - 4*T70^3)) )^(1/3)</x:f>
+      </x:c>
+      <x:c r="W70" s="41">
+        <x:f>- (Q70 + V70 - T70 / V70) / (3 * P70)</x:f>
+      </x:c>
+      <x:c r="X70" s="36">
+        <x:f>P70 * W70^3 + Q70 * W70^2 + R70 * W70 + S70</x:f>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:35" x14ac:dyDescent="0.25">
@@ -19413,10 +19488,10 @@
       <x:c r="P72" s="17" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="R72" s="115" t="s">
+      <x:c r="R72" s="68" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="S72" s="116" t="s">
+      <x:c r="S72" s="69" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -19424,11 +19499,11 @@
       <x:c r="O73" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="P73" s="78" t="str">
-        <x:f> "0:1"</x:f>
-      </x:c>
-      <x:c r="R73" s="117" t="s"/>
-      <x:c r="S73" s="118" t="n">
+      <x:c r="P73" s="39" t="str">
+        <x:f>"0:1"</x:f>
+      </x:c>
+      <x:c r="R73" s="70" t="s"/>
+      <x:c r="S73" s="71" t="n">
         <x:v>1.098612</x:v>
       </x:c>
     </x:row>
@@ -19437,10 +19512,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P74" s="18" t="str">
-        <x:f> "1:2"</x:f>
-      </x:c>
-      <x:c r="R74" s="117" t="s"/>
-      <x:c r="S74" s="118" t="n">
+        <x:f>"1:2"</x:f>
+      </x:c>
+      <x:c r="R74" s="70" t="s"/>
+      <x:c r="S74" s="71" t="n">
         <x:v>1.791759</x:v>
       </x:c>
     </x:row>
@@ -19449,143 +19524,143 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P75" s="18" t="str">
-        <x:f> "2:3"</x:f>
-      </x:c>
-      <x:c r="R75" s="117" t="s"/>
-      <x:c r="S75" s="118" t="n">
+        <x:f>"2:3"</x:f>
+      </x:c>
+      <x:c r="R75" s="70" t="s"/>
+      <x:c r="S75" s="71" t="n">
         <x:v>2.639057</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R76" s="117" t="s"/>
-      <x:c r="S76" s="118" t="n">
+      <x:c r="R76" s="70" t="s"/>
+      <x:c r="S76" s="71" t="n">
         <x:v>2.772589</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="Q79" s="4" t="s">
+      <x:c r="Q79" s="11" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="R79" s="1" t="s">
+      <x:c r="R79" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="S79" s="86" t="s">
+      <x:c r="S79" s="42" t="s">
         <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R80" s="1" t="s">
+      <x:c r="R80" s="8" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="S80" s="4" t="s">
+      <x:c r="S80" s="11" t="s">
         <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R81" s="1" t="s">
+      <x:c r="R81" s="8" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="S81" s="4" t="s">
+      <x:c r="S81" s="11" t="s">
         <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R82" s="1" t="s">
+      <x:c r="R82" s="8" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="S82" s="4" t="s">
+      <x:c r="S82" s="11" t="s">
         <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="R84" s="1" t="s">
+      <x:c r="R84" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="S84" s="101" t="s">
+      <x:c r="S84" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="T84" s="101" t="s"/>
-      <x:c r="U84" s="101" t="s"/>
-      <x:c r="V84" s="101" t="s"/>
-      <x:c r="W84" s="101" t="s"/>
+      <x:c r="T84" s="1" t="s"/>
+      <x:c r="U84" s="1" t="s"/>
+      <x:c r="V84" s="1" t="s"/>
+      <x:c r="W84" s="1" t="s"/>
     </x:row>
     <x:row r="85" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="S85" s="101" t="s"/>
-      <x:c r="T85" s="101" t="s"/>
-      <x:c r="U85" s="101" t="s"/>
-      <x:c r="V85" s="101" t="s"/>
-      <x:c r="W85" s="101" t="s"/>
+      <x:c r="S85" s="1" t="s"/>
+      <x:c r="T85" s="1" t="s"/>
+      <x:c r="U85" s="1" t="s"/>
+      <x:c r="V85" s="1" t="s"/>
+      <x:c r="W85" s="1" t="s"/>
     </x:row>
     <x:row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="S86" s="101" t="s"/>
-      <x:c r="T86" s="101" t="s"/>
-      <x:c r="U86" s="101" t="s"/>
-      <x:c r="V86" s="101" t="s"/>
-      <x:c r="W86" s="101" t="s"/>
+      <x:c r="S86" s="1" t="s"/>
+      <x:c r="T86" s="1" t="s"/>
+      <x:c r="U86" s="1" t="s"/>
+      <x:c r="V86" s="1" t="s"/>
+      <x:c r="W86" s="1" t="s"/>
     </x:row>
     <x:row r="87" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="S87" s="101" t="s"/>
-      <x:c r="T87" s="101" t="s"/>
-      <x:c r="U87" s="101" t="s"/>
-      <x:c r="V87" s="101" t="s"/>
-      <x:c r="W87" s="101" t="s"/>
+      <x:c r="S87" s="1" t="s"/>
+      <x:c r="T87" s="1" t="s"/>
+      <x:c r="U87" s="1" t="s"/>
+      <x:c r="V87" s="1" t="s"/>
+      <x:c r="W87" s="1" t="s"/>
     </x:row>
     <x:row r="88" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="S88" s="101" t="s"/>
-      <x:c r="T88" s="101" t="s"/>
-      <x:c r="U88" s="101" t="s"/>
-      <x:c r="V88" s="101" t="s"/>
-      <x:c r="W88" s="101" t="s"/>
+      <x:c r="S88" s="1" t="s"/>
+      <x:c r="T88" s="1" t="s"/>
+      <x:c r="U88" s="1" t="s"/>
+      <x:c r="V88" s="1" t="s"/>
+      <x:c r="W88" s="1" t="s"/>
     </x:row>
     <x:row r="89" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="S89" s="101" t="s"/>
-      <x:c r="T89" s="101" t="s"/>
-      <x:c r="U89" s="101" t="s"/>
-      <x:c r="V89" s="101" t="s"/>
-      <x:c r="W89" s="101" t="s"/>
+      <x:c r="S89" s="1" t="s"/>
+      <x:c r="T89" s="1" t="s"/>
+      <x:c r="U89" s="1" t="s"/>
+      <x:c r="V89" s="1" t="s"/>
+      <x:c r="W89" s="1" t="s"/>
     </x:row>
     <x:row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O91" s="100" t="s">
+      <x:c r="O91" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="P91" s="100" t="s"/>
-      <x:c r="Q91" s="100" t="s"/>
-      <x:c r="R91" s="100" t="s"/>
-      <x:c r="S91" s="100" t="s"/>
-      <x:c r="T91" s="100" t="s"/>
-      <x:c r="U91" s="100" t="s"/>
-      <x:c r="V91" s="100" t="s"/>
-      <x:c r="W91" s="100" t="s"/>
+      <x:c r="P91" s="2" t="s"/>
+      <x:c r="Q91" s="2" t="s"/>
+      <x:c r="R91" s="2" t="s"/>
+      <x:c r="S91" s="2" t="s"/>
+      <x:c r="T91" s="2" t="s"/>
+      <x:c r="U91" s="2" t="s"/>
+      <x:c r="V91" s="2" t="s"/>
+      <x:c r="W91" s="2" t="s"/>
     </x:row>
     <x:row r="92" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O92" s="100" t="s"/>
-      <x:c r="P92" s="100" t="s"/>
-      <x:c r="Q92" s="100" t="s"/>
-      <x:c r="R92" s="100" t="s"/>
-      <x:c r="S92" s="100" t="s"/>
-      <x:c r="T92" s="100" t="s"/>
-      <x:c r="U92" s="100" t="s"/>
-      <x:c r="V92" s="100" t="s"/>
-      <x:c r="W92" s="100" t="s"/>
+      <x:c r="O92" s="2" t="s"/>
+      <x:c r="P92" s="2" t="s"/>
+      <x:c r="Q92" s="2" t="s"/>
+      <x:c r="R92" s="2" t="s"/>
+      <x:c r="S92" s="2" t="s"/>
+      <x:c r="T92" s="2" t="s"/>
+      <x:c r="U92" s="2" t="s"/>
+      <x:c r="V92" s="2" t="s"/>
+      <x:c r="W92" s="2" t="s"/>
     </x:row>
     <x:row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="O93" s="100" t="s"/>
-      <x:c r="P93" s="100" t="s"/>
-      <x:c r="Q93" s="100" t="s"/>
-      <x:c r="R93" s="100" t="s"/>
-      <x:c r="S93" s="100" t="s"/>
-      <x:c r="T93" s="100" t="s"/>
-      <x:c r="U93" s="100" t="s"/>
-      <x:c r="V93" s="100" t="s"/>
-      <x:c r="W93" s="100" t="s"/>
+      <x:c r="O93" s="2" t="s"/>
+      <x:c r="P93" s="2" t="s"/>
+      <x:c r="Q93" s="2" t="s"/>
+      <x:c r="R93" s="2" t="s"/>
+      <x:c r="S93" s="2" t="s"/>
+      <x:c r="T93" s="2" t="s"/>
+      <x:c r="U93" s="2" t="s"/>
+      <x:c r="V93" s="2" t="s"/>
+      <x:c r="W93" s="2" t="s"/>
     </x:row>
     <x:row r="140" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="B140" s="4" t="s">
+      <x:c r="B140" s="11" t="s">
         <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:35" x14ac:dyDescent="0.25">
-      <x:c r="B162" s="4" t="s">
+      <x:c r="B162" s="11" t="s">
         <x:v>89</x:v>
       </x:c>
     </x:row>

--- a/FunctionsTests/ExcelTesting/ExcelData/ComposeTestData.xlsx
+++ b/FunctionsTests/ExcelTesting/ExcelData/ComposeTestData.xlsx
@@ -12757,7 +12757,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M7" s="14">
-        <x:v>43938.6208333333</x:v>
+        <x:v>43950.6055555556</x:v>
       </x:c>
       <x:c r="N7" s="9" t="s"/>
     </x:row>
@@ -12930,7 +12930,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M15" s="14">
-        <x:v>43938.6208333333</x:v>
+        <x:v>43950.6055555556</x:v>
       </x:c>
       <x:c r="N15" s="9" t="s"/>
     </x:row>
@@ -13051,7 +13051,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M21" s="15">
-        <x:v>43938.6208333333</x:v>
+        <x:v>43950.6055555556</x:v>
       </x:c>
       <x:c r="N21" s="9" t="s"/>
     </x:row>
@@ -13173,7 +13173,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M27" s="15">
-        <x:v>43938.6208333333</x:v>
+        <x:v>43950.6055555556</x:v>
       </x:c>
       <x:c r="N27" s="9" t="s"/>
     </x:row>
